--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -7662,28 +7662,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>343.7127900047445</v>
+        <v>451.319204170872</v>
       </c>
       <c r="AB2" t="n">
-        <v>470.2830028225987</v>
+        <v>617.5148459446423</v>
       </c>
       <c r="AC2" t="n">
-        <v>425.399853079549</v>
+        <v>558.5800957352144</v>
       </c>
       <c r="AD2" t="n">
-        <v>343712.7900047445</v>
+        <v>451319.2041708719</v>
       </c>
       <c r="AE2" t="n">
-        <v>470283.0028225987</v>
+        <v>617514.8459446423</v>
       </c>
       <c r="AF2" t="n">
         <v>7.022786172549531e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.34953703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>425399.853079549</v>
+        <v>558580.0957352144</v>
       </c>
     </row>
     <row r="3">
@@ -7768,28 +7768,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>290.3506987593458</v>
+        <v>388.2359114628293</v>
       </c>
       <c r="AB3" t="n">
-        <v>397.2706354113274</v>
+        <v>531.2015018230411</v>
       </c>
       <c r="AC3" t="n">
-        <v>359.3556835405083</v>
+        <v>480.5043760350397</v>
       </c>
       <c r="AD3" t="n">
-        <v>290350.6987593459</v>
+        <v>388235.9114628293</v>
       </c>
       <c r="AE3" t="n">
-        <v>397270.6354113274</v>
+        <v>531201.5018230411</v>
       </c>
       <c r="AF3" t="n">
         <v>7.978675948758338e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.67592592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>359355.6835405083</v>
+        <v>480504.3760350397</v>
       </c>
     </row>
     <row r="4">
@@ -7874,28 +7874,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>268.0990635829015</v>
+        <v>356.1284352083322</v>
       </c>
       <c r="AB4" t="n">
-        <v>366.8249664900553</v>
+        <v>487.2706363297563</v>
       </c>
       <c r="AC4" t="n">
-        <v>331.8157065303176</v>
+        <v>440.7662106870769</v>
       </c>
       <c r="AD4" t="n">
-        <v>268099.0635829015</v>
+        <v>356128.4352083323</v>
       </c>
       <c r="AE4" t="n">
-        <v>366824.9664900553</v>
+        <v>487270.6363297562</v>
       </c>
       <c r="AF4" t="n">
         <v>8.639892936812549e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.17129629629629</v>
       </c>
       <c r="AH4" t="n">
-        <v>331815.7065303177</v>
+        <v>440766.2106870768</v>
       </c>
     </row>
     <row r="5">
@@ -7980,28 +7980,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>250.4951285568483</v>
+        <v>338.4903347635013</v>
       </c>
       <c r="AB5" t="n">
-        <v>342.738485956446</v>
+        <v>463.1374091630651</v>
       </c>
       <c r="AC5" t="n">
-        <v>310.0280058933512</v>
+        <v>418.9362248499777</v>
       </c>
       <c r="AD5" t="n">
-        <v>250495.1285568483</v>
+        <v>338490.3347635013</v>
       </c>
       <c r="AE5" t="n">
-        <v>342738.485956446</v>
+        <v>463137.4091630651</v>
       </c>
       <c r="AF5" t="n">
         <v>9.113837435017936e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>310028.0058933512</v>
+        <v>418936.2248499778</v>
       </c>
     </row>
     <row r="6">
@@ -8086,28 +8086,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>234.7027817751843</v>
+        <v>312.9436321302695</v>
       </c>
       <c r="AB6" t="n">
-        <v>321.1307003806155</v>
+        <v>428.1832835792999</v>
       </c>
       <c r="AC6" t="n">
-        <v>290.4824370461535</v>
+        <v>387.3180719535036</v>
       </c>
       <c r="AD6" t="n">
-        <v>234702.7817751843</v>
+        <v>312943.6321302695</v>
       </c>
       <c r="AE6" t="n">
-        <v>321130.7003806154</v>
+        <v>428183.2835792999</v>
       </c>
       <c r="AF6" t="n">
         <v>9.516046127915556e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.49305555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>290482.4370461535</v>
+        <v>387318.0719535036</v>
       </c>
     </row>
     <row r="7">
@@ -8192,28 +8192,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>220.1133096778971</v>
+        <v>308.1416702734734</v>
       </c>
       <c r="AB7" t="n">
-        <v>301.1687410150342</v>
+        <v>421.6130275192257</v>
       </c>
       <c r="AC7" t="n">
-        <v>272.4256190656311</v>
+        <v>381.3748719103905</v>
       </c>
       <c r="AD7" t="n">
-        <v>220113.3096778971</v>
+        <v>308141.6702734734</v>
       </c>
       <c r="AE7" t="n">
-        <v>301168.7410150342</v>
+        <v>421613.0275192257</v>
       </c>
       <c r="AF7" t="n">
         <v>9.85316373093089e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.92592592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>272425.6190656311</v>
+        <v>381374.8719103906</v>
       </c>
     </row>
     <row r="8">
@@ -8298,28 +8298,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>216.5574548307647</v>
+        <v>294.8656249935541</v>
       </c>
       <c r="AB8" t="n">
-        <v>296.3034635399457</v>
+        <v>403.448156669459</v>
       </c>
       <c r="AC8" t="n">
-        <v>268.0246768443037</v>
+        <v>364.9436308399692</v>
       </c>
       <c r="AD8" t="n">
-        <v>216557.4548307647</v>
+        <v>294865.6249935541</v>
       </c>
       <c r="AE8" t="n">
-        <v>296303.4635399457</v>
+        <v>403448.156669459</v>
       </c>
       <c r="AF8" t="n">
         <v>1.010688337503455e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.53240740740741</v>
       </c>
       <c r="AH8" t="n">
-        <v>268024.6768443037</v>
+        <v>364943.6308399691</v>
       </c>
     </row>
     <row r="9">
@@ -8404,28 +8404,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>212.1471371485957</v>
+        <v>280.6336316521132</v>
       </c>
       <c r="AB9" t="n">
-        <v>290.2690723177211</v>
+        <v>383.9753155084662</v>
       </c>
       <c r="AC9" t="n">
-        <v>262.566199451005</v>
+        <v>347.3292503090773</v>
       </c>
       <c r="AD9" t="n">
-        <v>212147.1371485957</v>
+        <v>280633.6316521132</v>
       </c>
       <c r="AE9" t="n">
-        <v>290269.0723177211</v>
+        <v>383975.3155084662</v>
       </c>
       <c r="AF9" t="n">
         <v>1.043979717849498e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.03472222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>262566.199451005</v>
+        <v>347329.2503090773</v>
       </c>
     </row>
     <row r="10">
@@ -8510,28 +8510,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>213.2462642287825</v>
+        <v>291.4529491650866</v>
       </c>
       <c r="AB10" t="n">
-        <v>291.7729464788963</v>
+        <v>398.7787830443179</v>
       </c>
       <c r="AC10" t="n">
-        <v>263.9265459729388</v>
+        <v>360.7198956801046</v>
       </c>
       <c r="AD10" t="n">
-        <v>213246.2642287824</v>
+        <v>291452.9491650866</v>
       </c>
       <c r="AE10" t="n">
-        <v>291772.9464788963</v>
+        <v>398778.783044318</v>
       </c>
       <c r="AF10" t="n">
         <v>1.032575216476373e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.19675925925926</v>
       </c>
       <c r="AH10" t="n">
-        <v>263926.5459729388</v>
+        <v>360719.8956801046</v>
       </c>
     </row>
     <row r="11">
@@ -8616,28 +8616,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>199.3665586674629</v>
+        <v>277.6405634114713</v>
       </c>
       <c r="AB11" t="n">
-        <v>272.7821210005151</v>
+        <v>379.8800674967684</v>
       </c>
       <c r="AC11" t="n">
-        <v>246.7481782244172</v>
+        <v>343.6248470198993</v>
       </c>
       <c r="AD11" t="n">
-        <v>199366.5586674629</v>
+        <v>277640.5634114713</v>
       </c>
       <c r="AE11" t="n">
-        <v>272782.1210005151</v>
+        <v>379880.0674967684</v>
       </c>
       <c r="AF11" t="n">
         <v>1.060876279931441e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.79166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>246748.1782244172</v>
+        <v>343624.8470198993</v>
       </c>
     </row>
     <row r="12">
@@ -8722,28 +8722,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>199.3873026630583</v>
+        <v>277.6613074070667</v>
       </c>
       <c r="AB12" t="n">
-        <v>272.8105038504493</v>
+        <v>379.9084503467026</v>
       </c>
       <c r="AC12" t="n">
-        <v>246.7738522549893</v>
+        <v>343.6505210504714</v>
       </c>
       <c r="AD12" t="n">
-        <v>199387.3026630583</v>
+        <v>277661.3074070667</v>
       </c>
       <c r="AE12" t="n">
-        <v>272810.5038504493</v>
+        <v>379908.4503467026</v>
       </c>
       <c r="AF12" t="n">
         <v>1.059520215558894e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.81481481481482</v>
       </c>
       <c r="AH12" t="n">
-        <v>246773.8522549893</v>
+        <v>343650.5210504713</v>
       </c>
     </row>
   </sheetData>
@@ -9019,28 +9019,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>590.0153699602901</v>
+        <v>760.073602049596</v>
       </c>
       <c r="AB2" t="n">
-        <v>807.2850588207124</v>
+        <v>1039.966234405005</v>
       </c>
       <c r="AC2" t="n">
-        <v>730.238905838559</v>
+        <v>940.7133165951676</v>
       </c>
       <c r="AD2" t="n">
-        <v>590015.36996029</v>
+        <v>760073.602049596</v>
       </c>
       <c r="AE2" t="n">
-        <v>807285.0588207124</v>
+        <v>1039966.234405005</v>
       </c>
       <c r="AF2" t="n">
         <v>4.114299435596948e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.39583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>730238.905838559</v>
+        <v>940713.3165951676</v>
       </c>
     </row>
     <row r="3">
@@ -9125,28 +9125,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>453.3769598224501</v>
+        <v>583.4579032823596</v>
       </c>
       <c r="AB3" t="n">
-        <v>620.3303580089038</v>
+        <v>798.3128436169555</v>
       </c>
       <c r="AC3" t="n">
-        <v>561.1268992796589</v>
+        <v>722.1229862612656</v>
       </c>
       <c r="AD3" t="n">
-        <v>453376.9598224501</v>
+        <v>583457.9032823596</v>
       </c>
       <c r="AE3" t="n">
-        <v>620330.3580089038</v>
+        <v>798312.8436169556</v>
       </c>
       <c r="AF3" t="n">
         <v>5.050325298628142e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.38888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>561126.8992796589</v>
+        <v>722122.9862612656</v>
       </c>
     </row>
     <row r="4">
@@ -9231,28 +9231,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>388.9580423959891</v>
+        <v>508.9934155703782</v>
       </c>
       <c r="AB4" t="n">
-        <v>532.1895532239586</v>
+        <v>696.4272463880785</v>
       </c>
       <c r="AC4" t="n">
-        <v>481.3981291969924</v>
+        <v>629.9612074345787</v>
       </c>
       <c r="AD4" t="n">
-        <v>388958.0423959891</v>
+        <v>508993.4155703782</v>
       </c>
       <c r="AE4" t="n">
-        <v>532189.5532239586</v>
+        <v>696427.2463880786</v>
       </c>
       <c r="AF4" t="n">
         <v>5.722895979642437e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.28703703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>481398.1291969924</v>
+        <v>629961.2074345787</v>
       </c>
     </row>
     <row r="5">
@@ -9337,28 +9337,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>349.6820412687886</v>
+        <v>459.7060095764383</v>
       </c>
       <c r="AB5" t="n">
-        <v>478.4503957468436</v>
+        <v>628.9900431002794</v>
       </c>
       <c r="AC5" t="n">
-        <v>432.7877614861121</v>
+        <v>568.9601161798579</v>
       </c>
       <c r="AD5" t="n">
-        <v>349682.0412687886</v>
+        <v>459706.0095764383</v>
       </c>
       <c r="AE5" t="n">
-        <v>478450.3957468437</v>
+        <v>628990.0431002794</v>
       </c>
       <c r="AF5" t="n">
         <v>6.224934700618695e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.41203703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>432787.7614861121</v>
+        <v>568960.1161798579</v>
       </c>
     </row>
     <row r="6">
@@ -9443,28 +9443,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>326.650334663914</v>
+        <v>426.6970635236049</v>
       </c>
       <c r="AB6" t="n">
-        <v>446.9373986828705</v>
+        <v>583.82574685887</v>
       </c>
       <c r="AC6" t="n">
-        <v>404.2823206331553</v>
+        <v>528.1062369832406</v>
       </c>
       <c r="AD6" t="n">
-        <v>326650.3346639139</v>
+        <v>426697.0635236049</v>
       </c>
       <c r="AE6" t="n">
-        <v>446937.3986828706</v>
+        <v>583825.74685887</v>
       </c>
       <c r="AF6" t="n">
         <v>6.631401830216446e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.09259259259259</v>
       </c>
       <c r="AH6" t="n">
-        <v>404282.3206331554</v>
+        <v>528106.2369832406</v>
       </c>
     </row>
     <row r="7">
@@ -9549,28 +9549,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>307.9986632892534</v>
+        <v>408.0112267301636</v>
       </c>
       <c r="AB7" t="n">
-        <v>421.4173590543931</v>
+        <v>558.2589605971447</v>
       </c>
       <c r="AC7" t="n">
-        <v>381.1978777692192</v>
+        <v>504.9795089191246</v>
       </c>
       <c r="AD7" t="n">
-        <v>307998.6632892534</v>
+        <v>408011.2267301636</v>
       </c>
       <c r="AE7" t="n">
-        <v>421417.3590543931</v>
+        <v>558258.9605971447</v>
       </c>
       <c r="AF7" t="n">
         <v>6.941376196470594e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.20138888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>381197.8777692192</v>
+        <v>504979.5089191246</v>
       </c>
     </row>
     <row r="8">
@@ -9655,28 +9655,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>290.1262369701323</v>
+        <v>380.1615609630836</v>
       </c>
       <c r="AB8" t="n">
-        <v>396.9635168887702</v>
+        <v>520.1538192540855</v>
       </c>
       <c r="AC8" t="n">
-        <v>359.0778759787003</v>
+        <v>470.5110687849452</v>
       </c>
       <c r="AD8" t="n">
-        <v>290126.2369701323</v>
+        <v>380161.5609630836</v>
       </c>
       <c r="AE8" t="n">
-        <v>396963.5168887702</v>
+        <v>520153.8192540855</v>
       </c>
       <c r="AF8" t="n">
         <v>7.251696002211652e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.37962962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>359077.8759787002</v>
+        <v>470511.0687849452</v>
       </c>
     </row>
     <row r="9">
@@ -9761,28 +9761,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>275.8232135539568</v>
+        <v>375.8689313837905</v>
       </c>
       <c r="AB9" t="n">
-        <v>377.3934892458999</v>
+        <v>514.2804540862453</v>
       </c>
       <c r="AC9" t="n">
-        <v>341.3755843073592</v>
+        <v>465.1982493454038</v>
       </c>
       <c r="AD9" t="n">
-        <v>275823.2135539568</v>
+        <v>375868.9313837906</v>
       </c>
       <c r="AE9" t="n">
-        <v>377393.4892458999</v>
+        <v>514280.4540862453</v>
       </c>
       <c r="AF9" t="n">
         <v>7.438578764630109e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.91666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>341375.5843073592</v>
+        <v>465198.2493454038</v>
       </c>
     </row>
     <row r="10">
@@ -9867,28 +9867,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>271.1235627265004</v>
+        <v>361.124721300671</v>
       </c>
       <c r="AB10" t="n">
-        <v>370.9632196498125</v>
+        <v>494.10677538188</v>
       </c>
       <c r="AC10" t="n">
-        <v>335.5590106165823</v>
+        <v>446.9499182226474</v>
       </c>
       <c r="AD10" t="n">
-        <v>271123.5627265004</v>
+        <v>361124.721300671</v>
       </c>
       <c r="AE10" t="n">
-        <v>370963.2196498124</v>
+        <v>494106.77538188</v>
       </c>
       <c r="AF10" t="n">
         <v>7.651599781558109e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.41898148148148</v>
       </c>
       <c r="AH10" t="n">
-        <v>335559.0106165824</v>
+        <v>446949.9182226474</v>
       </c>
     </row>
     <row r="11">
@@ -9973,28 +9973,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>267.4769848083428</v>
+        <v>347.5350693533354</v>
       </c>
       <c r="AB11" t="n">
-        <v>365.9738108665255</v>
+        <v>475.5128140544045</v>
       </c>
       <c r="AC11" t="n">
-        <v>331.0457840048931</v>
+        <v>430.1305384674775</v>
       </c>
       <c r="AD11" t="n">
-        <v>267476.9848083428</v>
+        <v>347535.0693533354</v>
       </c>
       <c r="AE11" t="n">
-        <v>365973.8108665255</v>
+        <v>475512.8140544045</v>
       </c>
       <c r="AF11" t="n">
         <v>7.828464798856166e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.02546296296297</v>
       </c>
       <c r="AH11" t="n">
-        <v>331045.784004893</v>
+        <v>430130.5384674775</v>
       </c>
     </row>
     <row r="12">
@@ -10079,28 +10079,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>254.4924678318686</v>
+        <v>344.5609462137468</v>
       </c>
       <c r="AB12" t="n">
-        <v>348.2078219026887</v>
+        <v>471.4434875657667</v>
       </c>
       <c r="AC12" t="n">
-        <v>314.9753560931475</v>
+        <v>426.4495827875796</v>
       </c>
       <c r="AD12" t="n">
-        <v>254492.4678318686</v>
+        <v>344560.9462137468</v>
       </c>
       <c r="AE12" t="n">
-        <v>348207.8219026887</v>
+        <v>471443.4875657667</v>
       </c>
       <c r="AF12" t="n">
         <v>7.967676912081004e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.72453703703703</v>
       </c>
       <c r="AH12" t="n">
-        <v>314975.3560931475</v>
+        <v>426449.5827875796</v>
       </c>
     </row>
     <row r="13">
@@ -10185,28 +10185,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>251.4116728455192</v>
+        <v>331.4355919717342</v>
       </c>
       <c r="AB13" t="n">
-        <v>343.9925422872852</v>
+        <v>453.4847988420832</v>
       </c>
       <c r="AC13" t="n">
-        <v>311.1623768480546</v>
+        <v>410.2048461105065</v>
       </c>
       <c r="AD13" t="n">
-        <v>251411.6728455192</v>
+        <v>331435.5919717342</v>
       </c>
       <c r="AE13" t="n">
-        <v>343992.5422872852</v>
+        <v>453484.7988420832</v>
       </c>
       <c r="AF13" t="n">
         <v>8.122779241703717e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.41203703703704</v>
       </c>
       <c r="AH13" t="n">
-        <v>311162.3768480546</v>
+        <v>410204.8461105066</v>
       </c>
     </row>
     <row r="14">
@@ -10291,28 +10291,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>247.7799746661238</v>
+        <v>327.8038937923387</v>
       </c>
       <c r="AB14" t="n">
-        <v>339.0234926190229</v>
+        <v>448.5157491738183</v>
       </c>
       <c r="AC14" t="n">
-        <v>306.6675663060248</v>
+        <v>405.7100355684759</v>
       </c>
       <c r="AD14" t="n">
-        <v>247779.9746661238</v>
+        <v>327803.8937923387</v>
       </c>
       <c r="AE14" t="n">
-        <v>339023.4926190229</v>
+        <v>448515.7491738183</v>
       </c>
       <c r="AF14" t="n">
         <v>8.283063163630081e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.08796296296297</v>
       </c>
       <c r="AH14" t="n">
-        <v>306667.5663060247</v>
+        <v>405710.0355684759</v>
       </c>
     </row>
     <row r="15">
@@ -10397,28 +10397,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>248.4999190573075</v>
+        <v>328.5238381835224</v>
       </c>
       <c r="AB15" t="n">
-        <v>340.0085522967448</v>
+        <v>449.5008088515408</v>
       </c>
       <c r="AC15" t="n">
-        <v>307.5586132706451</v>
+        <v>406.6010825330964</v>
       </c>
       <c r="AD15" t="n">
-        <v>248499.9190573075</v>
+        <v>328523.8381835224</v>
       </c>
       <c r="AE15" t="n">
-        <v>340008.5522967448</v>
+        <v>449500.8088515408</v>
       </c>
       <c r="AF15" t="n">
         <v>8.271203074579496e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.11111111111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>307558.6132706451</v>
+        <v>406601.0825330964</v>
       </c>
     </row>
     <row r="16">
@@ -10503,28 +10503,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>247.5226920518375</v>
+        <v>327.5466111780524</v>
       </c>
       <c r="AB16" t="n">
-        <v>338.6714671956487</v>
+        <v>448.163723750444</v>
       </c>
       <c r="AC16" t="n">
-        <v>306.3491376949865</v>
+        <v>405.3916069574377</v>
       </c>
       <c r="AD16" t="n">
-        <v>247522.6920518375</v>
+        <v>327546.6111780524</v>
       </c>
       <c r="AE16" t="n">
-        <v>338671.4671956487</v>
+        <v>448163.723750444</v>
       </c>
       <c r="AF16" t="n">
         <v>8.310698322582904e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.04166666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>306349.1376949865</v>
+        <v>405391.6069574376</v>
       </c>
     </row>
     <row r="17">
@@ -10609,28 +10609,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>234.9707923854262</v>
+        <v>315.0620313193454</v>
       </c>
       <c r="AB17" t="n">
-        <v>321.4974043213419</v>
+        <v>431.0817708069698</v>
       </c>
       <c r="AC17" t="n">
-        <v>290.8141432774494</v>
+        <v>389.9399316282171</v>
       </c>
       <c r="AD17" t="n">
-        <v>234970.7923854262</v>
+        <v>315062.0313193454</v>
       </c>
       <c r="AE17" t="n">
-        <v>321497.4043213419</v>
+        <v>431081.7708069698</v>
       </c>
       <c r="AF17" t="n">
         <v>8.429759799071309e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>15.81018518518519</v>
       </c>
       <c r="AH17" t="n">
-        <v>290814.1432774494</v>
+        <v>389939.9316282171</v>
       </c>
     </row>
     <row r="18">
@@ -10715,28 +10715,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>232.5560763818009</v>
+        <v>312.64731531572</v>
       </c>
       <c r="AB18" t="n">
-        <v>318.1934833554318</v>
+        <v>427.777849841058</v>
       </c>
       <c r="AC18" t="n">
-        <v>287.8255438914425</v>
+        <v>386.9513322422096</v>
       </c>
       <c r="AD18" t="n">
-        <v>232556.0763818009</v>
+        <v>312647.31531572</v>
       </c>
       <c r="AE18" t="n">
-        <v>318193.4833554318</v>
+        <v>427777.849841058</v>
       </c>
       <c r="AF18" t="n">
         <v>8.554924039828462e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15.5787037037037</v>
       </c>
       <c r="AH18" t="n">
-        <v>287825.5438914425</v>
+        <v>386951.3322422096</v>
       </c>
     </row>
     <row r="19">
@@ -10821,28 +10821,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>231.3759645683683</v>
+        <v>311.3657182758022</v>
       </c>
       <c r="AB19" t="n">
-        <v>316.5788023094353</v>
+        <v>426.0243122309715</v>
       </c>
       <c r="AC19" t="n">
-        <v>286.3649657382563</v>
+        <v>385.3651498005243</v>
       </c>
       <c r="AD19" t="n">
-        <v>231375.9645683683</v>
+        <v>311365.7182758022</v>
       </c>
       <c r="AE19" t="n">
-        <v>316578.8023094353</v>
+        <v>426024.3122309715</v>
       </c>
       <c r="AF19" t="n">
         <v>8.60155837056135e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>15.49768518518519</v>
       </c>
       <c r="AH19" t="n">
-        <v>286364.9657382563</v>
+        <v>385365.1498005243</v>
       </c>
     </row>
     <row r="20">
@@ -10927,28 +10927,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>229.9107757326545</v>
+        <v>309.9005294400884</v>
       </c>
       <c r="AB20" t="n">
-        <v>314.5740663048434</v>
+        <v>424.0195762263784</v>
       </c>
       <c r="AC20" t="n">
-        <v>284.5515589242773</v>
+        <v>383.551742986545</v>
       </c>
       <c r="AD20" t="n">
-        <v>229910.7757326546</v>
+        <v>309900.5294400884</v>
       </c>
       <c r="AE20" t="n">
-        <v>314574.0663048434</v>
+        <v>424019.5762263784</v>
       </c>
       <c r="AF20" t="n">
         <v>8.662701159744468e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>15.38194444444444</v>
       </c>
       <c r="AH20" t="n">
-        <v>284551.5589242774</v>
+        <v>383551.742986545</v>
       </c>
     </row>
     <row r="21">
@@ -11033,28 +11033,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>228.34773102621</v>
+        <v>308.3374847336439</v>
       </c>
       <c r="AB21" t="n">
-        <v>312.4354395808214</v>
+        <v>421.8809495023553</v>
       </c>
       <c r="AC21" t="n">
-        <v>282.6170397332139</v>
+        <v>381.6172237954812</v>
       </c>
       <c r="AD21" t="n">
-        <v>228347.73102621</v>
+        <v>308337.4847336439</v>
       </c>
       <c r="AE21" t="n">
-        <v>312435.4395808214</v>
+        <v>421880.9495023554</v>
       </c>
       <c r="AF21" t="n">
         <v>8.724304534910132e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>15.27777777777778</v>
       </c>
       <c r="AH21" t="n">
-        <v>282617.0397332138</v>
+        <v>381617.2237954811</v>
       </c>
     </row>
     <row r="22">
@@ -11139,28 +11139,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>227.0481694539867</v>
+        <v>307.0379231614205</v>
       </c>
       <c r="AB22" t="n">
-        <v>310.6573221050961</v>
+        <v>420.1028320266291</v>
       </c>
       <c r="AC22" t="n">
-        <v>281.0086232937676</v>
+        <v>380.0088073560347</v>
       </c>
       <c r="AD22" t="n">
-        <v>227048.1694539867</v>
+        <v>307037.9231614205</v>
       </c>
       <c r="AE22" t="n">
-        <v>310657.3221050961</v>
+        <v>420102.8320266291</v>
       </c>
       <c r="AF22" t="n">
         <v>8.77692648341613e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>16</v>
+        <v>15.18518518518519</v>
       </c>
       <c r="AH22" t="n">
-        <v>281008.6232937676</v>
+        <v>380008.8073560347</v>
       </c>
     </row>
     <row r="23">
@@ -11245,28 +11245,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>226.1338603992841</v>
+        <v>296.1805400775401</v>
       </c>
       <c r="AB23" t="n">
-        <v>309.4063241199839</v>
+        <v>405.2472814973278</v>
       </c>
       <c r="AC23" t="n">
-        <v>279.8770188005675</v>
+        <v>366.5710497193538</v>
       </c>
       <c r="AD23" t="n">
-        <v>226133.8603992841</v>
+        <v>296180.54007754</v>
       </c>
       <c r="AE23" t="n">
-        <v>309406.3241199839</v>
+        <v>405247.2814973278</v>
       </c>
       <c r="AF23" t="n">
         <v>8.822524495688285e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>16</v>
+        <v>15.10416666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>279877.0188005675</v>
+        <v>366571.0497193538</v>
       </c>
     </row>
     <row r="24">
@@ -11351,28 +11351,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>225.8930243865851</v>
+        <v>295.939704064841</v>
       </c>
       <c r="AB24" t="n">
-        <v>309.0768016624743</v>
+        <v>404.917759039818</v>
       </c>
       <c r="AC24" t="n">
-        <v>279.5789455039148</v>
+        <v>366.272976422701</v>
       </c>
       <c r="AD24" t="n">
-        <v>225893.0243865851</v>
+        <v>295939.704064841</v>
       </c>
       <c r="AE24" t="n">
-        <v>309076.8016624743</v>
+        <v>404917.759039818</v>
       </c>
       <c r="AF24" t="n">
         <v>8.820451858766824e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>16</v>
+        <v>15.10416666666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>279578.9455039148</v>
+        <v>366272.976422701</v>
       </c>
     </row>
     <row r="25">
@@ -11457,28 +11457,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>225.9169722467196</v>
+        <v>295.9636519249756</v>
       </c>
       <c r="AB25" t="n">
-        <v>309.1095681812154</v>
+        <v>404.9505255585591</v>
       </c>
       <c r="AC25" t="n">
-        <v>279.6085848320953</v>
+        <v>366.3026157508816</v>
       </c>
       <c r="AD25" t="n">
-        <v>225916.9722467196</v>
+        <v>295963.6519249756</v>
       </c>
       <c r="AE25" t="n">
-        <v>309109.5681812154</v>
+        <v>404950.5255585591</v>
       </c>
       <c r="AF25" t="n">
         <v>8.817112610393358e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>16</v>
+        <v>15.11574074074074</v>
       </c>
       <c r="AH25" t="n">
-        <v>279608.5848320954</v>
+        <v>366302.6157508816</v>
       </c>
     </row>
     <row r="26">
@@ -11563,28 +11563,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>225.989092516372</v>
+        <v>296.0357721946279</v>
       </c>
       <c r="AB26" t="n">
-        <v>309.2082463158754</v>
+        <v>405.0492036932192</v>
       </c>
       <c r="AC26" t="n">
-        <v>279.6978452640791</v>
+        <v>366.3918761828654</v>
       </c>
       <c r="AD26" t="n">
-        <v>225989.092516372</v>
+        <v>296035.7721946279</v>
       </c>
       <c r="AE26" t="n">
-        <v>309208.2463158754</v>
+        <v>405049.2036932192</v>
       </c>
       <c r="AF26" t="n">
         <v>8.816306584923901e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>16</v>
+        <v>15.11574074074074</v>
       </c>
       <c r="AH26" t="n">
-        <v>279697.8452640791</v>
+        <v>366391.8761828654</v>
       </c>
     </row>
   </sheetData>
@@ -11860,28 +11860,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>250.2224778830555</v>
+        <v>349.4815210104628</v>
       </c>
       <c r="AB2" t="n">
-        <v>342.365433276064</v>
+        <v>478.1760350830728</v>
       </c>
       <c r="AC2" t="n">
-        <v>309.6905568372021</v>
+        <v>432.5395854190238</v>
       </c>
       <c r="AD2" t="n">
-        <v>250222.4778830555</v>
+        <v>349481.5210104628</v>
       </c>
       <c r="AE2" t="n">
-        <v>342365.433276064</v>
+        <v>478176.0350830728</v>
       </c>
       <c r="AF2" t="n">
         <v>1.799747617387356e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.07175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>309690.556837202</v>
+        <v>432539.5854190238</v>
       </c>
     </row>
   </sheetData>
@@ -12157,28 +12157,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>193.8303909338988</v>
+        <v>269.2737685915321</v>
       </c>
       <c r="AB2" t="n">
-        <v>265.2072920689735</v>
+        <v>368.4322497071912</v>
       </c>
       <c r="AC2" t="n">
-        <v>239.8962803347604</v>
+        <v>333.2695928930462</v>
       </c>
       <c r="AD2" t="n">
-        <v>193830.3909338988</v>
+        <v>269273.7685915321</v>
       </c>
       <c r="AE2" t="n">
-        <v>265207.2920689735</v>
+        <v>368432.2497071912</v>
       </c>
       <c r="AF2" t="n">
         <v>1.398355465394882e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.48611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>239896.2803347604</v>
+        <v>333269.5928930462</v>
       </c>
     </row>
     <row r="3">
@@ -12263,28 +12263,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.7915290184788</v>
+        <v>257.860129653156</v>
       </c>
       <c r="AB3" t="n">
-        <v>262.4176312480579</v>
+        <v>352.8156053773258</v>
       </c>
       <c r="AC3" t="n">
-        <v>237.3728608272785</v>
+        <v>319.1433791800314</v>
       </c>
       <c r="AD3" t="n">
-        <v>191791.5290184788</v>
+        <v>257860.129653156</v>
       </c>
       <c r="AE3" t="n">
-        <v>262417.6312480579</v>
+        <v>352815.6053773258</v>
       </c>
       <c r="AF3" t="n">
         <v>1.427960785661128e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.17361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>237372.8608272785</v>
+        <v>319143.3791800314</v>
       </c>
     </row>
   </sheetData>
@@ -12560,28 +12560,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>363.7678889828451</v>
+        <v>481.4278303303489</v>
       </c>
       <c r="AB2" t="n">
-        <v>497.7232740129591</v>
+        <v>658.710796554878</v>
       </c>
       <c r="AC2" t="n">
-        <v>450.221263300164</v>
+        <v>595.8443626380893</v>
       </c>
       <c r="AD2" t="n">
-        <v>363767.8889828451</v>
+        <v>481427.8303303489</v>
       </c>
       <c r="AE2" t="n">
-        <v>497723.274012959</v>
+        <v>658710.796554878</v>
       </c>
       <c r="AF2" t="n">
         <v>6.650713283357802e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.13657407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>450221.263300164</v>
+        <v>595844.3626380892</v>
       </c>
     </row>
     <row r="3">
@@ -12666,28 +12666,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>307.4891300412651</v>
+        <v>405.5563323785514</v>
       </c>
       <c r="AB3" t="n">
-        <v>420.7201931854751</v>
+        <v>554.9000658429737</v>
       </c>
       <c r="AC3" t="n">
-        <v>380.5672484323522</v>
+        <v>501.9411823660533</v>
       </c>
       <c r="AD3" t="n">
-        <v>307489.130041265</v>
+        <v>405556.3323785514</v>
       </c>
       <c r="AE3" t="n">
-        <v>420720.1931854751</v>
+        <v>554900.0658429738</v>
       </c>
       <c r="AF3" t="n">
         <v>7.60672256997574e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.23148148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>380567.2484323522</v>
+        <v>501941.1823660533</v>
       </c>
     </row>
     <row r="4">
@@ -12772,28 +12772,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>273.6933032804795</v>
+        <v>371.7936600066895</v>
       </c>
       <c r="AB4" t="n">
-        <v>374.4792520447187</v>
+        <v>508.7044879998112</v>
       </c>
       <c r="AC4" t="n">
-        <v>338.7394778145012</v>
+        <v>460.1544456363416</v>
       </c>
       <c r="AD4" t="n">
-        <v>273693.3032804795</v>
+        <v>371793.6600066895</v>
       </c>
       <c r="AE4" t="n">
-        <v>374479.2520447187</v>
+        <v>508704.4879998112</v>
       </c>
       <c r="AF4" t="n">
         <v>8.279386127833896e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.58796296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>338739.4778145013</v>
+        <v>460154.4456363416</v>
       </c>
     </row>
     <row r="5">
@@ -12878,28 +12878,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>255.0098946173842</v>
+        <v>343.3309645478791</v>
       </c>
       <c r="AB5" t="n">
-        <v>348.9157880578896</v>
+        <v>469.7605723875652</v>
       </c>
       <c r="AC5" t="n">
-        <v>315.6157549521329</v>
+        <v>424.9272826719993</v>
       </c>
       <c r="AD5" t="n">
-        <v>255009.8946173842</v>
+        <v>343330.9645478791</v>
       </c>
       <c r="AE5" t="n">
-        <v>348915.7880578896</v>
+        <v>469760.5723875652</v>
       </c>
       <c r="AF5" t="n">
         <v>8.781191280503728e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.52314814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>315615.7549521329</v>
+        <v>424927.2826719993</v>
       </c>
     </row>
     <row r="6">
@@ -12984,28 +12984,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>239.0976249724434</v>
+        <v>327.3845294841573</v>
       </c>
       <c r="AB6" t="n">
-        <v>327.1439187299004</v>
+        <v>447.9419564263168</v>
       </c>
       <c r="AC6" t="n">
-        <v>295.9217622757895</v>
+        <v>405.1910047954728</v>
       </c>
       <c r="AD6" t="n">
-        <v>239097.6249724434</v>
+        <v>327384.5294841573</v>
       </c>
       <c r="AE6" t="n">
-        <v>327143.9187299004</v>
+        <v>447941.9564263168</v>
       </c>
       <c r="AF6" t="n">
         <v>9.160802756622534e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.79398148148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>295921.7622757896</v>
+        <v>405191.0047954728</v>
       </c>
     </row>
     <row r="7">
@@ -13090,28 +13090,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>234.2383173628379</v>
+        <v>312.6786152711289</v>
       </c>
       <c r="AB7" t="n">
-        <v>320.4951996809197</v>
+        <v>427.820675820905</v>
       </c>
       <c r="AC7" t="n">
-        <v>289.9075876413058</v>
+        <v>386.9900709706468</v>
       </c>
       <c r="AD7" t="n">
-        <v>234238.3173628379</v>
+        <v>312678.6152711289</v>
       </c>
       <c r="AE7" t="n">
-        <v>320495.1996809197</v>
+        <v>427820.675820905</v>
       </c>
       <c r="AF7" t="n">
         <v>9.484569462173949e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.22685185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>289907.5876413058</v>
+        <v>386990.0709706468</v>
       </c>
     </row>
     <row r="8">
@@ -13196,28 +13196,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>220.7004280828745</v>
+        <v>299.2080457988699</v>
       </c>
       <c r="AB8" t="n">
-        <v>301.9720623185598</v>
+        <v>409.3896483893772</v>
       </c>
       <c r="AC8" t="n">
-        <v>273.152272511417</v>
+        <v>370.3180749290744</v>
       </c>
       <c r="AD8" t="n">
-        <v>220700.4280828745</v>
+        <v>299208.0457988699</v>
       </c>
       <c r="AE8" t="n">
-        <v>301972.0623185599</v>
+        <v>409389.6483893772</v>
       </c>
       <c r="AF8" t="n">
         <v>9.734142401114402e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.81018518518519</v>
       </c>
       <c r="AH8" t="n">
-        <v>273152.272511417</v>
+        <v>370318.0749290744</v>
       </c>
     </row>
     <row r="9">
@@ -13302,28 +13302,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>216.9041358554889</v>
+        <v>295.310268344999</v>
       </c>
       <c r="AB9" t="n">
-        <v>296.7778078124607</v>
+        <v>404.056537319186</v>
       </c>
       <c r="AC9" t="n">
-        <v>268.4537503651962</v>
+        <v>365.4939484943539</v>
       </c>
       <c r="AD9" t="n">
-        <v>216904.1358554889</v>
+        <v>295310.268344999</v>
       </c>
       <c r="AE9" t="n">
-        <v>296777.8078124606</v>
+        <v>404056.537319186</v>
       </c>
       <c r="AF9" t="n">
         <v>1.000857955933129e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.37037037037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>268453.7503651963</v>
+        <v>365493.9484943539</v>
       </c>
     </row>
     <row r="10">
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>213.1198605569032</v>
+        <v>281.7808716694758</v>
       </c>
       <c r="AB10" t="n">
-        <v>291.5999953984949</v>
+        <v>385.5450199128791</v>
       </c>
       <c r="AC10" t="n">
-        <v>263.7701011009124</v>
+        <v>348.7491443282271</v>
       </c>
       <c r="AD10" t="n">
-        <v>213119.8605569032</v>
+        <v>281780.8716694758</v>
       </c>
       <c r="AE10" t="n">
-        <v>291599.9953984949</v>
+        <v>385545.0199128791</v>
       </c>
       <c r="AF10" t="n">
         <v>1.026214141045513e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>263770.1011009124</v>
+        <v>348749.1443282272</v>
       </c>
     </row>
     <row r="11">
@@ -13514,28 +13514,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>202.9739715684659</v>
+        <v>281.4474238656802</v>
       </c>
       <c r="AB11" t="n">
-        <v>277.7179424794901</v>
+        <v>385.0887819170471</v>
       </c>
       <c r="AC11" t="n">
-        <v>251.2129318289094</v>
+        <v>348.3364490463833</v>
       </c>
       <c r="AD11" t="n">
-        <v>202973.9715684659</v>
+        <v>281447.4238656802</v>
       </c>
       <c r="AE11" t="n">
-        <v>277717.9424794901</v>
+        <v>385088.7819170471</v>
       </c>
       <c r="AF11" t="n">
         <v>1.026506661272295e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.98842592592593</v>
       </c>
       <c r="AH11" t="n">
-        <v>251212.9318289094</v>
+        <v>348336.4490463833</v>
       </c>
     </row>
     <row r="12">
@@ -13620,28 +13620,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>201.0074218159493</v>
+        <v>279.4808741131636</v>
       </c>
       <c r="AB12" t="n">
-        <v>275.0272223500462</v>
+        <v>382.3980617876018</v>
       </c>
       <c r="AC12" t="n">
-        <v>248.7790102521693</v>
+        <v>345.9025274696428</v>
       </c>
       <c r="AD12" t="n">
-        <v>201007.4218159493</v>
+        <v>279480.8741131636</v>
       </c>
       <c r="AE12" t="n">
-        <v>275027.2223500462</v>
+        <v>382398.0617876018</v>
       </c>
       <c r="AF12" t="n">
         <v>1.039005252780234e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.81481481481482</v>
       </c>
       <c r="AH12" t="n">
-        <v>248779.0102521693</v>
+        <v>345902.5274696429</v>
       </c>
     </row>
     <row r="13">
@@ -13726,28 +13726,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>201.1044918791023</v>
+        <v>279.5779441763166</v>
       </c>
       <c r="AB13" t="n">
-        <v>275.160037892881</v>
+        <v>382.5308773304367</v>
       </c>
       <c r="AC13" t="n">
-        <v>248.8991500660038</v>
+        <v>346.0226672834774</v>
       </c>
       <c r="AD13" t="n">
-        <v>201104.4918791023</v>
+        <v>279577.9441763166</v>
       </c>
       <c r="AE13" t="n">
-        <v>275160.037892881</v>
+        <v>382530.8773304367</v>
       </c>
       <c r="AF13" t="n">
         <v>1.036758165583594e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.83796296296296</v>
       </c>
       <c r="AH13" t="n">
-        <v>248899.1500660038</v>
+        <v>346022.6672834774</v>
       </c>
     </row>
   </sheetData>
@@ -14023,28 +14023,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>231.8360079955865</v>
+        <v>308.2424371996432</v>
       </c>
       <c r="AB2" t="n">
-        <v>317.2082540222385</v>
+        <v>421.7509012731343</v>
       </c>
       <c r="AC2" t="n">
-        <v>286.9343434630308</v>
+        <v>381.4995871867333</v>
       </c>
       <c r="AD2" t="n">
-        <v>231836.0079955865</v>
+        <v>308242.4371996432</v>
       </c>
       <c r="AE2" t="n">
-        <v>317208.2540222385</v>
+        <v>421750.9012731343</v>
       </c>
       <c r="AF2" t="n">
         <v>1.12822092865878e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.09490740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>286934.3434630308</v>
+        <v>381499.5871867333</v>
       </c>
     </row>
     <row r="3">
@@ -14129,28 +14129,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>203.6345787104923</v>
+        <v>280.0741623034723</v>
       </c>
       <c r="AB3" t="n">
-        <v>278.6218143151404</v>
+        <v>383.2098248636101</v>
       </c>
       <c r="AC3" t="n">
-        <v>252.0305394051576</v>
+        <v>346.6368170169935</v>
       </c>
       <c r="AD3" t="n">
-        <v>203634.5787104924</v>
+        <v>280074.1623034723</v>
       </c>
       <c r="AE3" t="n">
-        <v>278621.8143151404</v>
+        <v>383209.8248636101</v>
       </c>
       <c r="AF3" t="n">
         <v>1.218237315044251e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>252030.5394051576</v>
+        <v>346636.8170169935</v>
       </c>
     </row>
     <row r="4">
@@ -14235,28 +14235,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>197.9225951465475</v>
+        <v>264.7740764014816</v>
       </c>
       <c r="AB4" t="n">
-        <v>270.8064264080251</v>
+        <v>362.2755723403549</v>
       </c>
       <c r="AC4" t="n">
-        <v>244.961041150929</v>
+        <v>327.7005001731499</v>
       </c>
       <c r="AD4" t="n">
-        <v>197922.5951465475</v>
+        <v>264774.0764014816</v>
       </c>
       <c r="AE4" t="n">
-        <v>270806.4264080251</v>
+        <v>362275.5723403549</v>
       </c>
       <c r="AF4" t="n">
         <v>1.28025897186149e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.06944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>244961.041150929</v>
+        <v>327700.5001731499</v>
       </c>
     </row>
     <row r="5">
@@ -14341,28 +14341,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>187.0845216205177</v>
+        <v>263.4899397947167</v>
       </c>
       <c r="AB5" t="n">
-        <v>255.9772960676602</v>
+        <v>360.5185599828703</v>
       </c>
       <c r="AC5" t="n">
-        <v>231.5471821974287</v>
+        <v>326.1111746090813</v>
       </c>
       <c r="AD5" t="n">
-        <v>187084.5216205177</v>
+        <v>263489.9397947167</v>
       </c>
       <c r="AE5" t="n">
-        <v>255977.2960676602</v>
+        <v>360518.5599828704</v>
       </c>
       <c r="AF5" t="n">
         <v>1.293756430760459e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.90740740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>231547.1821974287</v>
+        <v>326111.1746090814</v>
       </c>
     </row>
     <row r="6">
@@ -14447,28 +14447,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>187.1434391266212</v>
+        <v>263.5488573008201</v>
       </c>
       <c r="AB6" t="n">
-        <v>256.0579095987678</v>
+        <v>360.599173513978</v>
       </c>
       <c r="AC6" t="n">
-        <v>231.6201020862692</v>
+        <v>326.1840944979219</v>
       </c>
       <c r="AD6" t="n">
-        <v>187143.4391266212</v>
+        <v>263548.8573008201</v>
       </c>
       <c r="AE6" t="n">
-        <v>256057.9095987678</v>
+        <v>360599.173513978</v>
       </c>
       <c r="AF6" t="n">
         <v>1.293473150758876e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.90740740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>231620.1020862692</v>
+        <v>326184.0944979219</v>
       </c>
     </row>
   </sheetData>
@@ -14744,28 +14744,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>491.7710013543399</v>
+        <v>640.9859135423062</v>
       </c>
       <c r="AB2" t="n">
-        <v>672.8627794584036</v>
+        <v>877.0252052113071</v>
       </c>
       <c r="AC2" t="n">
-        <v>608.6457001557349</v>
+        <v>793.3231505385455</v>
       </c>
       <c r="AD2" t="n">
-        <v>491771.0013543399</v>
+        <v>640985.9135423062</v>
       </c>
       <c r="AE2" t="n">
-        <v>672862.7794584036</v>
+        <v>877025.2052113072</v>
       </c>
       <c r="AF2" t="n">
         <v>4.842708281466934e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.71527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>608645.7001557349</v>
+        <v>793323.1505385456</v>
       </c>
     </row>
     <row r="3">
@@ -14850,28 +14850,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>399.1630843465543</v>
+        <v>518.4950266242477</v>
       </c>
       <c r="AB3" t="n">
-        <v>546.1525418353984</v>
+        <v>709.427769813478</v>
       </c>
       <c r="AC3" t="n">
-        <v>494.0285097725339</v>
+        <v>641.7209791506074</v>
       </c>
       <c r="AD3" t="n">
-        <v>399163.0843465544</v>
+        <v>518495.0266242477</v>
       </c>
       <c r="AE3" t="n">
-        <v>546152.5418353984</v>
+        <v>709427.769813478</v>
       </c>
       <c r="AF3" t="n">
         <v>5.779363298270868e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.0625</v>
       </c>
       <c r="AH3" t="n">
-        <v>494028.509772534</v>
+        <v>641720.9791506074</v>
       </c>
     </row>
     <row r="4">
@@ -14956,28 +14956,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>343.2443987597583</v>
+        <v>452.6937223380397</v>
       </c>
       <c r="AB4" t="n">
-        <v>469.6421292572452</v>
+        <v>619.395522340423</v>
       </c>
       <c r="AC4" t="n">
-        <v>424.8201435878013</v>
+        <v>560.2812830153277</v>
       </c>
       <c r="AD4" t="n">
-        <v>343244.3987597583</v>
+        <v>452693.7223380397</v>
       </c>
       <c r="AE4" t="n">
-        <v>469642.1292572452</v>
+        <v>619395.522340423</v>
       </c>
       <c r="AF4" t="n">
         <v>6.467316944527838e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.50462962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>424820.1435878013</v>
+        <v>560281.2830153278</v>
       </c>
     </row>
     <row r="5">
@@ -15062,28 +15062,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>319.0337782024573</v>
+        <v>418.4658434659176</v>
       </c>
       <c r="AB5" t="n">
-        <v>436.5160901135495</v>
+        <v>572.5634284401422</v>
       </c>
       <c r="AC5" t="n">
-        <v>394.8556071272919</v>
+        <v>517.9187784276331</v>
       </c>
       <c r="AD5" t="n">
-        <v>319033.7782024572</v>
+        <v>418465.8434659176</v>
       </c>
       <c r="AE5" t="n">
-        <v>436516.0901135495</v>
+        <v>572563.4284401422</v>
       </c>
       <c r="AF5" t="n">
         <v>6.950902942813604e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>394855.6071272918</v>
+        <v>517918.7784276332</v>
       </c>
     </row>
     <row r="6">
@@ -15168,28 +15168,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>288.6789720274576</v>
+        <v>388.1441916798416</v>
       </c>
       <c r="AB6" t="n">
-        <v>394.9833051453796</v>
+        <v>531.0760067695661</v>
       </c>
       <c r="AC6" t="n">
-        <v>357.2866528648543</v>
+        <v>480.3908580533347</v>
       </c>
       <c r="AD6" t="n">
-        <v>288678.9720274576</v>
+        <v>388144.1916798416</v>
       </c>
       <c r="AE6" t="n">
-        <v>394983.3051453796</v>
+        <v>531076.0067695661</v>
       </c>
       <c r="AF6" t="n">
         <v>7.365285081468912e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.87731481481481</v>
       </c>
       <c r="AH6" t="n">
-        <v>357286.6528648543</v>
+        <v>480390.8580533348</v>
       </c>
     </row>
     <row r="7">
@@ -15274,28 +15274,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>282.0788039742134</v>
+        <v>371.5609307305573</v>
       </c>
       <c r="AB7" t="n">
-        <v>385.9526640360668</v>
+        <v>508.3860575369162</v>
       </c>
       <c r="AC7" t="n">
-        <v>349.11788346843</v>
+        <v>459.8664057299054</v>
       </c>
       <c r="AD7" t="n">
-        <v>282078.8039742134</v>
+        <v>371560.9307305573</v>
       </c>
       <c r="AE7" t="n">
-        <v>385952.6640360669</v>
+        <v>508386.0575369162</v>
       </c>
       <c r="AF7" t="n">
         <v>7.663005852587454e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.14814814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>349117.88346843</v>
+        <v>459866.4057299054</v>
       </c>
     </row>
     <row r="8">
@@ -15380,28 +15380,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>266.2600619106876</v>
+        <v>355.7080232482506</v>
       </c>
       <c r="AB8" t="n">
-        <v>364.3087632711044</v>
+        <v>486.6954101387059</v>
       </c>
       <c r="AC8" t="n">
-        <v>329.53964621507</v>
+        <v>440.2458832763654</v>
       </c>
       <c r="AD8" t="n">
-        <v>266260.0619106876</v>
+        <v>355708.0232482507</v>
       </c>
       <c r="AE8" t="n">
-        <v>364308.7632711044</v>
+        <v>486695.4101387059</v>
       </c>
       <c r="AF8" t="n">
         <v>7.949072501511281e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.48842592592593</v>
       </c>
       <c r="AH8" t="n">
-        <v>329539.64621507</v>
+        <v>440245.8832763654</v>
       </c>
     </row>
     <row r="9">
@@ -15486,28 +15486,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>261.9618649784001</v>
+        <v>341.5282186464082</v>
       </c>
       <c r="AB9" t="n">
-        <v>358.4277806052829</v>
+        <v>467.2939759136365</v>
       </c>
       <c r="AC9" t="n">
-        <v>324.2199362808635</v>
+        <v>422.6960947036526</v>
       </c>
       <c r="AD9" t="n">
-        <v>261961.8649784</v>
+        <v>341528.2186464082</v>
       </c>
       <c r="AE9" t="n">
-        <v>358427.7806052829</v>
+        <v>467293.9759136365</v>
       </c>
       <c r="AF9" t="n">
         <v>8.16821805700774e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.02546296296297</v>
       </c>
       <c r="AH9" t="n">
-        <v>324219.9362808635</v>
+        <v>422696.0947036527</v>
       </c>
     </row>
     <row r="10">
@@ -15592,28 +15592,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>248.5216294281775</v>
+        <v>338.0369105734481</v>
       </c>
       <c r="AB10" t="n">
-        <v>340.0382573839632</v>
+        <v>462.5170141825708</v>
       </c>
       <c r="AC10" t="n">
-        <v>307.5854833460307</v>
+        <v>418.375039495692</v>
       </c>
       <c r="AD10" t="n">
-        <v>248521.6294281775</v>
+        <v>338036.9105734481</v>
       </c>
       <c r="AE10" t="n">
-        <v>340038.2573839632</v>
+        <v>462517.0141825709</v>
       </c>
       <c r="AF10" t="n">
         <v>8.350719207665152e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.65509259259259</v>
       </c>
       <c r="AH10" t="n">
-        <v>307585.4833460307</v>
+        <v>418375.039495692</v>
       </c>
     </row>
     <row r="11">
@@ -15698,28 +15698,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>245.0270626885203</v>
+        <v>324.5592509377507</v>
       </c>
       <c r="AB11" t="n">
-        <v>335.2568370013627</v>
+        <v>444.0762856766308</v>
       </c>
       <c r="AC11" t="n">
-        <v>303.2603950139785</v>
+        <v>401.6942682366338</v>
       </c>
       <c r="AD11" t="n">
-        <v>245027.0626885203</v>
+        <v>324559.2509377507</v>
       </c>
       <c r="AE11" t="n">
-        <v>335256.8370013627</v>
+        <v>444076.2856766308</v>
       </c>
       <c r="AF11" t="n">
         <v>8.546436373182545e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.27314814814815</v>
       </c>
       <c r="AH11" t="n">
-        <v>303260.3950139785</v>
+        <v>401694.2682366339</v>
       </c>
     </row>
     <row r="12">
@@ -15804,28 +15804,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>231.6910055649459</v>
+        <v>321.1721212914355</v>
       </c>
       <c r="AB12" t="n">
-        <v>317.0098552995805</v>
+        <v>439.4418654649286</v>
       </c>
       <c r="AC12" t="n">
-        <v>286.7548796360089</v>
+        <v>397.5021505854868</v>
       </c>
       <c r="AD12" t="n">
-        <v>231691.0055649459</v>
+        <v>321172.1212914355</v>
       </c>
       <c r="AE12" t="n">
-        <v>317009.8552995805</v>
+        <v>439441.8654649286</v>
       </c>
       <c r="AF12" t="n">
         <v>8.721128060513603e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.94907407407407</v>
       </c>
       <c r="AH12" t="n">
-        <v>286754.8796360089</v>
+        <v>397502.1505854868</v>
       </c>
     </row>
     <row r="13">
@@ -15910,28 +15910,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>229.1319693447413</v>
+        <v>308.7314774016759</v>
       </c>
       <c r="AB13" t="n">
-        <v>313.508469046388</v>
+        <v>422.4200276524865</v>
       </c>
       <c r="AC13" t="n">
-        <v>283.5876607725934</v>
+        <v>382.1048530835648</v>
       </c>
       <c r="AD13" t="n">
-        <v>229131.9693447413</v>
+        <v>308731.4774016759</v>
       </c>
       <c r="AE13" t="n">
-        <v>313508.4690463881</v>
+        <v>422420.0276524865</v>
       </c>
       <c r="AF13" t="n">
         <v>8.845238454607813e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.71759259259259</v>
       </c>
       <c r="AH13" t="n">
-        <v>283587.6607725935</v>
+        <v>382104.8530835648</v>
       </c>
     </row>
     <row r="14">
@@ -16016,28 +16016,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>229.5718562035683</v>
+        <v>309.171364260503</v>
       </c>
       <c r="AB14" t="n">
-        <v>314.1103416530735</v>
+        <v>423.0219002591722</v>
       </c>
       <c r="AC14" t="n">
-        <v>284.1320915024306</v>
+        <v>382.649283813402</v>
       </c>
       <c r="AD14" t="n">
-        <v>229571.8562035683</v>
+        <v>309171.364260503</v>
       </c>
       <c r="AE14" t="n">
-        <v>314110.3416530735</v>
+        <v>423021.9002591722</v>
       </c>
       <c r="AF14" t="n">
         <v>8.840913213380909e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.72916666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>284132.0915024306</v>
+        <v>382649.2838134019</v>
       </c>
     </row>
     <row r="15">
@@ -16122,28 +16122,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>227.0697061866955</v>
+        <v>306.5677290171449</v>
       </c>
       <c r="AB15" t="n">
-        <v>310.6867896129218</v>
+        <v>419.4594916549295</v>
       </c>
       <c r="AC15" t="n">
-        <v>281.0352784640044</v>
+        <v>379.4268664864763</v>
       </c>
       <c r="AD15" t="n">
-        <v>227069.7061866955</v>
+        <v>306567.7290171449</v>
       </c>
       <c r="AE15" t="n">
-        <v>310686.7896129218</v>
+        <v>419459.4916549295</v>
       </c>
       <c r="AF15" t="n">
         <v>8.974875545825288e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.49768518518519</v>
       </c>
       <c r="AH15" t="n">
-        <v>281035.2784640044</v>
+        <v>379426.8664864763</v>
       </c>
     </row>
     <row r="16">
@@ -16228,28 +16228,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>224.7821852021809</v>
+        <v>304.2802080326303</v>
       </c>
       <c r="AB16" t="n">
-        <v>307.5569024836072</v>
+        <v>416.3296045256133</v>
       </c>
       <c r="AC16" t="n">
-        <v>278.2041033694864</v>
+        <v>376.5956913919578</v>
       </c>
       <c r="AD16" t="n">
-        <v>224782.1852021809</v>
+        <v>304280.2080326303</v>
       </c>
       <c r="AE16" t="n">
-        <v>307556.9024836072</v>
+        <v>416329.6045256132</v>
       </c>
       <c r="AF16" t="n">
         <v>9.094300261923687e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>15.28935185185185</v>
       </c>
       <c r="AH16" t="n">
-        <v>278204.1033694864</v>
+        <v>376595.6913919578</v>
       </c>
     </row>
     <row r="17">
@@ -16334,28 +16334,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>223.4577440443094</v>
+        <v>302.9557668747588</v>
       </c>
       <c r="AB17" t="n">
-        <v>305.7447436611882</v>
+        <v>414.5174457031933</v>
       </c>
       <c r="AC17" t="n">
-        <v>276.5648944416976</v>
+        <v>374.9564824641687</v>
       </c>
       <c r="AD17" t="n">
-        <v>223457.7440443094</v>
+        <v>302955.7668747588</v>
       </c>
       <c r="AE17" t="n">
-        <v>305744.7436611882</v>
+        <v>414517.4457031933</v>
       </c>
       <c r="AF17" t="n">
         <v>9.146443447825805e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>15.20833333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>276564.8944416976</v>
+        <v>374956.4824641687</v>
       </c>
     </row>
     <row r="18">
@@ -16440,28 +16440,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>221.4918381815664</v>
+        <v>291.1082533424608</v>
       </c>
       <c r="AB18" t="n">
-        <v>303.054904530139</v>
+        <v>398.3071550128948</v>
       </c>
       <c r="AC18" t="n">
-        <v>274.1317697821019</v>
+        <v>360.2932791660664</v>
       </c>
       <c r="AD18" t="n">
-        <v>221491.8381815664</v>
+        <v>291108.2533424608</v>
       </c>
       <c r="AE18" t="n">
-        <v>303054.9045301389</v>
+        <v>398307.1550128948</v>
       </c>
       <c r="AF18" t="n">
         <v>9.257938555008212e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15.02314814814815</v>
       </c>
       <c r="AH18" t="n">
-        <v>274131.7697821019</v>
+        <v>360293.2791660664</v>
       </c>
     </row>
     <row r="19">
@@ -16546,28 +16546,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>210.3078574065626</v>
+        <v>289.8732000447163</v>
       </c>
       <c r="AB19" t="n">
-        <v>287.7524886313772</v>
+        <v>396.6173006042146</v>
       </c>
       <c r="AC19" t="n">
-        <v>260.2897949796376</v>
+        <v>358.7647020904251</v>
       </c>
       <c r="AD19" t="n">
-        <v>210307.8574065626</v>
+        <v>289873.2000447162</v>
       </c>
       <c r="AE19" t="n">
-        <v>287752.4886313772</v>
+        <v>396617.3006042146</v>
       </c>
       <c r="AF19" t="n">
         <v>9.308639993834695e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.94212962962963</v>
       </c>
       <c r="AH19" t="n">
-        <v>260289.7949796376</v>
+        <v>358764.7020904251</v>
       </c>
     </row>
     <row r="20">
@@ -16652,28 +16652,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>210.1698836071639</v>
+        <v>289.7352262453174</v>
       </c>
       <c r="AB20" t="n">
-        <v>287.5637067920655</v>
+        <v>396.4285187649028</v>
       </c>
       <c r="AC20" t="n">
-        <v>260.1190302141128</v>
+        <v>358.5939373249003</v>
       </c>
       <c r="AD20" t="n">
-        <v>210169.8836071639</v>
+        <v>289735.2262453174</v>
       </c>
       <c r="AE20" t="n">
-        <v>287563.7067920655</v>
+        <v>396428.5187649028</v>
       </c>
       <c r="AF20" t="n">
         <v>9.313205526240872e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.93055555555556</v>
       </c>
       <c r="AH20" t="n">
-        <v>260119.0302141128</v>
+        <v>358593.9373249002</v>
       </c>
     </row>
     <row r="21">
@@ -16758,28 +16758,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>210.2278340101711</v>
+        <v>289.7931766483247</v>
       </c>
       <c r="AB21" t="n">
-        <v>287.6429970900514</v>
+        <v>396.5078090628886</v>
       </c>
       <c r="AC21" t="n">
-        <v>260.1907531573435</v>
+        <v>358.6656602681309</v>
       </c>
       <c r="AD21" t="n">
-        <v>210227.8340101711</v>
+        <v>289793.1766483247</v>
       </c>
       <c r="AE21" t="n">
-        <v>287642.9970900514</v>
+        <v>396507.8090628886</v>
       </c>
       <c r="AF21" t="n">
         <v>9.310442177679238e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14.93055555555556</v>
       </c>
       <c r="AH21" t="n">
-        <v>260190.7531573435</v>
+        <v>358665.6602681309</v>
       </c>
     </row>
   </sheetData>
@@ -17055,28 +17055,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>279.6357050358124</v>
+        <v>376.4411965368935</v>
       </c>
       <c r="AB2" t="n">
-        <v>382.6099082866282</v>
+        <v>515.0634525152774</v>
       </c>
       <c r="AC2" t="n">
-        <v>346.0941556361306</v>
+        <v>465.9065195033145</v>
       </c>
       <c r="AD2" t="n">
-        <v>279635.7050358123</v>
+        <v>376441.1965368935</v>
       </c>
       <c r="AE2" t="n">
-        <v>382609.9082866283</v>
+        <v>515063.4525152774</v>
       </c>
       <c r="AF2" t="n">
         <v>8.790233608184148e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.53703703703703</v>
       </c>
       <c r="AH2" t="n">
-        <v>346094.1556361306</v>
+        <v>465906.5195033145</v>
       </c>
     </row>
     <row r="3">
@@ -17161,28 +17161,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>245.5381418325947</v>
+        <v>332.6630841835708</v>
       </c>
       <c r="AB3" t="n">
-        <v>335.9561180335056</v>
+        <v>455.1643078394526</v>
       </c>
       <c r="AC3" t="n">
-        <v>303.8929376458609</v>
+        <v>411.7240651263726</v>
       </c>
       <c r="AD3" t="n">
-        <v>245538.1418325947</v>
+        <v>332663.0841835708</v>
       </c>
       <c r="AE3" t="n">
-        <v>335956.1180335056</v>
+        <v>455164.3078394526</v>
       </c>
       <c r="AF3" t="n">
         <v>9.726352980150556e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.66203703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>303892.9376458609</v>
+        <v>411724.0651263726</v>
       </c>
     </row>
     <row r="4">
@@ -17267,28 +17267,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>226.8181865006473</v>
+        <v>304.1952598938105</v>
       </c>
       <c r="AB4" t="n">
-        <v>310.3426492822053</v>
+        <v>416.2133747344327</v>
       </c>
       <c r="AC4" t="n">
-        <v>280.7239824034475</v>
+        <v>376.4905544089179</v>
       </c>
       <c r="AD4" t="n">
-        <v>226818.1865006473</v>
+        <v>304195.2598938106</v>
       </c>
       <c r="AE4" t="n">
-        <v>310342.6492822053</v>
+        <v>416213.3747344327</v>
       </c>
       <c r="AF4" t="n">
         <v>1.041838987202745e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.48148148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>280723.9824034474</v>
+        <v>376490.554408918</v>
       </c>
     </row>
     <row r="5">
@@ -17373,28 +17373,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>211.6644182211155</v>
+        <v>289.108811421983</v>
       </c>
       <c r="AB5" t="n">
-        <v>289.6085949850869</v>
+        <v>395.571430368145</v>
       </c>
       <c r="AC5" t="n">
-        <v>261.9687571480114</v>
+        <v>357.8186482417979</v>
       </c>
       <c r="AD5" t="n">
-        <v>211664.4182211155</v>
+        <v>289108.811421983</v>
       </c>
       <c r="AE5" t="n">
-        <v>289608.5949850869</v>
+        <v>395571.430368145</v>
       </c>
       <c r="AF5" t="n">
         <v>1.088177563817915e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.78703703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>261968.7571480114</v>
+        <v>357818.6482417979</v>
       </c>
     </row>
     <row r="6">
@@ -17479,28 +17479,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>206.7566294347569</v>
+        <v>284.0995374091391</v>
       </c>
       <c r="AB6" t="n">
-        <v>282.8935418512341</v>
+        <v>388.7175206701996</v>
       </c>
       <c r="AC6" t="n">
-        <v>255.8945792606152</v>
+        <v>351.6188660659017</v>
       </c>
       <c r="AD6" t="n">
-        <v>206756.6294347569</v>
+        <v>284099.5374091391</v>
       </c>
       <c r="AE6" t="n">
-        <v>282893.5418512342</v>
+        <v>388717.5206701996</v>
       </c>
       <c r="AF6" t="n">
         <v>1.129931247645993e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.19675925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>255894.5792606152</v>
+        <v>351618.8660659017</v>
       </c>
     </row>
     <row r="7">
@@ -17585,28 +17585,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>193.7033796059587</v>
+        <v>271.1136073880452</v>
       </c>
       <c r="AB7" t="n">
-        <v>265.0335095667417</v>
+        <v>370.9495983165394</v>
       </c>
       <c r="AC7" t="n">
-        <v>239.7390833906363</v>
+        <v>335.5466892842392</v>
       </c>
       <c r="AD7" t="n">
-        <v>193703.3796059587</v>
+        <v>271113.6073880452</v>
       </c>
       <c r="AE7" t="n">
-        <v>265033.5095667417</v>
+        <v>370949.5983165394</v>
       </c>
       <c r="AF7" t="n">
         <v>1.1582715234497e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.82638888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>239739.0833906363</v>
+        <v>335546.6892842392</v>
       </c>
     </row>
     <row r="8">
@@ -17691,28 +17691,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>193.0261157767683</v>
+        <v>270.4363435588548</v>
       </c>
       <c r="AB8" t="n">
-        <v>264.1068473168726</v>
+        <v>370.0229360666698</v>
       </c>
       <c r="AC8" t="n">
-        <v>238.9008604853157</v>
+        <v>334.7084663789185</v>
       </c>
       <c r="AD8" t="n">
-        <v>193026.1157767683</v>
+        <v>270436.3435588548</v>
       </c>
       <c r="AE8" t="n">
-        <v>264106.8473168726</v>
+        <v>370022.9360666698</v>
       </c>
       <c r="AF8" t="n">
         <v>1.164162146221465e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.75694444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>238900.8604853157</v>
+        <v>334708.4663789185</v>
       </c>
     </row>
     <row r="9">
@@ -17797,28 +17797,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>192.9925352763697</v>
+        <v>270.4027630584562</v>
       </c>
       <c r="AB9" t="n">
-        <v>264.0609009947601</v>
+        <v>369.9769897445573</v>
       </c>
       <c r="AC9" t="n">
-        <v>238.8592992156995</v>
+        <v>334.6669051093024</v>
       </c>
       <c r="AD9" t="n">
-        <v>192992.5352763697</v>
+        <v>270402.7630584562</v>
       </c>
       <c r="AE9" t="n">
-        <v>264060.9009947601</v>
+        <v>369976.9897445573</v>
       </c>
       <c r="AF9" t="n">
         <v>1.164993065302621e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.74537037037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>238859.2992156995</v>
+        <v>334666.9051093024</v>
       </c>
     </row>
   </sheetData>
@@ -18094,28 +18094,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>396.464113746685</v>
+        <v>524.6264337255368</v>
       </c>
       <c r="AB2" t="n">
-        <v>542.4596911904779</v>
+        <v>717.8170315080523</v>
       </c>
       <c r="AC2" t="n">
-        <v>490.6880996102162</v>
+        <v>649.3095814834541</v>
       </c>
       <c r="AD2" t="n">
-        <v>396464.113746685</v>
+        <v>524626.4337255368</v>
       </c>
       <c r="AE2" t="n">
-        <v>542459.6911904779</v>
+        <v>717817.0315080523</v>
       </c>
       <c r="AF2" t="n">
         <v>5.966968445024431e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.86111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>490688.0996102162</v>
+        <v>649309.5814834541</v>
       </c>
     </row>
     <row r="3">
@@ -18200,28 +18200,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>333.44365254003</v>
+        <v>441.8161164961568</v>
       </c>
       <c r="AB3" t="n">
-        <v>456.2323159010054</v>
+        <v>604.5123021414578</v>
       </c>
       <c r="AC3" t="n">
-        <v>412.6901439974897</v>
+        <v>546.8184964634211</v>
       </c>
       <c r="AD3" t="n">
-        <v>333443.65254003</v>
+        <v>441816.1164961568</v>
       </c>
       <c r="AE3" t="n">
-        <v>456232.3159010054</v>
+        <v>604512.3021414578</v>
       </c>
       <c r="AF3" t="n">
         <v>6.906476944874691e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.48148148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>412690.1439974897</v>
+        <v>546818.496463421</v>
       </c>
     </row>
     <row r="4">
@@ -18306,28 +18306,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>296.5260109109093</v>
+        <v>395.1386919860113</v>
       </c>
       <c r="AB4" t="n">
-        <v>405.7199699326413</v>
+        <v>540.6461906640427</v>
       </c>
       <c r="AC4" t="n">
-        <v>366.9986254338233</v>
+        <v>489.0476770287602</v>
       </c>
       <c r="AD4" t="n">
-        <v>296526.0109109093</v>
+        <v>395138.6919860113</v>
       </c>
       <c r="AE4" t="n">
-        <v>405719.9699326413</v>
+        <v>540646.1906640427</v>
       </c>
       <c r="AF4" t="n">
         <v>7.573361354795688e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.58333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>366998.6254338233</v>
+        <v>489047.6770287602</v>
       </c>
     </row>
     <row r="5">
@@ -18412,28 +18412,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>275.2518275143368</v>
+        <v>363.935920674224</v>
       </c>
       <c r="AB5" t="n">
-        <v>376.6116936587187</v>
+        <v>497.9531823861387</v>
       </c>
       <c r="AC5" t="n">
-        <v>340.6684021937617</v>
+        <v>450.4292295408858</v>
       </c>
       <c r="AD5" t="n">
-        <v>275251.8275143367</v>
+        <v>363935.920674224</v>
       </c>
       <c r="AE5" t="n">
-        <v>376611.6936587187</v>
+        <v>497953.1823861387</v>
       </c>
       <c r="AF5" t="n">
         <v>8.115533381312279e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.27546296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>340668.4021937617</v>
+        <v>450429.2295408858</v>
       </c>
     </row>
     <row r="6">
@@ -18518,28 +18518,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>258.3599990813228</v>
+        <v>347.0099268224292</v>
       </c>
       <c r="AB6" t="n">
-        <v>353.4995487817931</v>
+        <v>474.7942908759653</v>
       </c>
       <c r="AC6" t="n">
-        <v>319.7620479857908</v>
+        <v>429.4805901327348</v>
       </c>
       <c r="AD6" t="n">
-        <v>258359.9990813227</v>
+        <v>347009.9268224292</v>
       </c>
       <c r="AE6" t="n">
-        <v>353499.5487817931</v>
+        <v>474794.2908759653</v>
       </c>
       <c r="AF6" t="n">
         <v>8.499539856830886e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.45370370370371</v>
       </c>
       <c r="AH6" t="n">
-        <v>319762.0479857908</v>
+        <v>429480.5901327349</v>
       </c>
     </row>
     <row r="7">
@@ -18624,28 +18624,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>243.0917115081215</v>
+        <v>331.8089590569355</v>
       </c>
       <c r="AB7" t="n">
-        <v>332.6088041346744</v>
+        <v>453.9956561598489</v>
       </c>
       <c r="AC7" t="n">
-        <v>300.8650866875486</v>
+        <v>410.6669479228575</v>
       </c>
       <c r="AD7" t="n">
-        <v>243091.7115081215</v>
+        <v>331808.9590569354</v>
       </c>
       <c r="AE7" t="n">
-        <v>332608.8041346744</v>
+        <v>453995.6561598488</v>
       </c>
       <c r="AF7" t="n">
         <v>8.81138490186986e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.84027777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>300865.0866875486</v>
+        <v>410666.9479228575</v>
       </c>
     </row>
     <row r="8">
@@ -18730,28 +18730,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>238.5962308742426</v>
+        <v>317.4190559266227</v>
       </c>
       <c r="AB8" t="n">
-        <v>326.4578892047959</v>
+        <v>434.3067558592333</v>
       </c>
       <c r="AC8" t="n">
-        <v>295.3012064457124</v>
+        <v>392.8571286333876</v>
       </c>
       <c r="AD8" t="n">
-        <v>238596.2308742426</v>
+        <v>317419.0559266226</v>
       </c>
       <c r="AE8" t="n">
-        <v>326457.8892047959</v>
+        <v>434306.7558592333</v>
       </c>
       <c r="AF8" t="n">
         <v>9.092852932657197e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.31944444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>295301.2064457124</v>
+        <v>392857.1286333876</v>
       </c>
     </row>
     <row r="9">
@@ -18836,28 +18836,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>225.3481714926844</v>
+        <v>314.0312536227173</v>
       </c>
       <c r="AB9" t="n">
-        <v>308.3313098958266</v>
+        <v>429.6714152877408</v>
       </c>
       <c r="AC9" t="n">
-        <v>278.9046024251714</v>
+        <v>388.6641784602969</v>
       </c>
       <c r="AD9" t="n">
-        <v>225348.1714926844</v>
+        <v>314031.2536227173</v>
       </c>
       <c r="AE9" t="n">
-        <v>308331.3098958266</v>
+        <v>429671.4152877408</v>
       </c>
       <c r="AF9" t="n">
         <v>9.289983092653062e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.97222222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>278904.6024251714</v>
+        <v>388664.1784602968</v>
       </c>
     </row>
     <row r="10">
@@ -18942,28 +18942,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>221.8890687039311</v>
+        <v>300.7792135640153</v>
       </c>
       <c r="AB10" t="n">
-        <v>303.5984128554119</v>
+        <v>411.5393894406791</v>
       </c>
       <c r="AC10" t="n">
-        <v>274.6234064356297</v>
+        <v>372.2626477116206</v>
       </c>
       <c r="AD10" t="n">
-        <v>221889.0687039311</v>
+        <v>300779.2135640153</v>
       </c>
       <c r="AE10" t="n">
-        <v>303598.4128554119</v>
+        <v>411539.3894406791</v>
       </c>
       <c r="AF10" t="n">
         <v>9.517746613012395e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.59027777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>274623.4064356297</v>
+        <v>372262.6477116206</v>
       </c>
     </row>
     <row r="11">
@@ -19048,28 +19048,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>218.1991015654518</v>
+        <v>296.9877611990508</v>
       </c>
       <c r="AB11" t="n">
-        <v>298.5496370266861</v>
+        <v>406.3517570478614</v>
       </c>
       <c r="AC11" t="n">
-        <v>270.0564786859945</v>
+        <v>367.5701156734857</v>
       </c>
       <c r="AD11" t="n">
-        <v>218199.1015654518</v>
+        <v>296987.7611990508</v>
       </c>
       <c r="AE11" t="n">
-        <v>298549.6370266861</v>
+        <v>406351.7570478615</v>
       </c>
       <c r="AF11" t="n">
         <v>9.755892150900772e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.20833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>270056.4786859945</v>
+        <v>367570.1156734857</v>
       </c>
     </row>
     <row r="12">
@@ -19154,28 +19154,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>219.4907307929923</v>
+        <v>298.2793904265912</v>
       </c>
       <c r="AB12" t="n">
-        <v>300.3169011184659</v>
+        <v>408.1190211396422</v>
       </c>
       <c r="AC12" t="n">
-        <v>271.6550775732262</v>
+        <v>369.1687145607177</v>
       </c>
       <c r="AD12" t="n">
-        <v>219490.7307929923</v>
+        <v>298279.3904265913</v>
       </c>
       <c r="AE12" t="n">
-        <v>300316.9011184659</v>
+        <v>408119.0211396422</v>
       </c>
       <c r="AF12" t="n">
         <v>9.659634185909291e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.3587962962963</v>
       </c>
       <c r="AH12" t="n">
-        <v>271655.0775732262</v>
+        <v>369168.7145607176</v>
       </c>
     </row>
     <row r="13">
@@ -19260,28 +19260,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>215.8803628207108</v>
+        <v>284.8760851843612</v>
       </c>
       <c r="AB13" t="n">
-        <v>295.3770363805992</v>
+        <v>389.7800275951283</v>
       </c>
       <c r="AC13" t="n">
-        <v>267.1866665927962</v>
+        <v>352.5799688211532</v>
       </c>
       <c r="AD13" t="n">
-        <v>215880.3628207108</v>
+        <v>284876.0851843612</v>
       </c>
       <c r="AE13" t="n">
-        <v>295377.0363805993</v>
+        <v>389780.0275951283</v>
       </c>
       <c r="AF13" t="n">
         <v>9.889832994330991e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>267186.6665927962</v>
+        <v>352579.9688211532</v>
       </c>
     </row>
     <row r="14">
@@ -19366,28 +19366,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>204.6233690748939</v>
+        <v>283.4793485161971</v>
       </c>
       <c r="AB14" t="n">
-        <v>279.9747209140662</v>
+        <v>387.8689508660733</v>
       </c>
       <c r="AC14" t="n">
-        <v>253.2543264970986</v>
+        <v>350.8512825729061</v>
       </c>
       <c r="AD14" t="n">
-        <v>204623.3690748939</v>
+        <v>283479.3485161971</v>
       </c>
       <c r="AE14" t="n">
-        <v>279974.7209140661</v>
+        <v>387868.9508660733</v>
       </c>
       <c r="AF14" t="n">
         <v>9.943152985591253e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.91898148148148</v>
       </c>
       <c r="AH14" t="n">
-        <v>253254.3264970986</v>
+        <v>350851.2825729061</v>
       </c>
     </row>
     <row r="15">
@@ -19472,28 +19472,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>203.8613783087452</v>
+        <v>282.7173577500484</v>
       </c>
       <c r="AB15" t="n">
-        <v>278.9321315311619</v>
+        <v>386.8263614831686</v>
       </c>
       <c r="AC15" t="n">
-        <v>252.3112403816151</v>
+        <v>349.9081964574224</v>
       </c>
       <c r="AD15" t="n">
-        <v>203861.3783087452</v>
+        <v>282717.3577500485</v>
       </c>
       <c r="AE15" t="n">
-        <v>278932.131531162</v>
+        <v>386826.3614831686</v>
       </c>
       <c r="AF15" t="n">
         <v>9.995960284627857e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.83796296296296</v>
       </c>
       <c r="AH15" t="n">
-        <v>252311.2403816151</v>
+        <v>349908.1964574225</v>
       </c>
     </row>
     <row r="16">
@@ -19578,28 +19578,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>203.921456778889</v>
+        <v>282.7774362201922</v>
       </c>
       <c r="AB16" t="n">
-        <v>279.0143335444877</v>
+        <v>386.9085634964944</v>
       </c>
       <c r="AC16" t="n">
-        <v>252.3855971501603</v>
+        <v>349.9825532259676</v>
       </c>
       <c r="AD16" t="n">
-        <v>203921.456778889</v>
+        <v>282777.4362201922</v>
       </c>
       <c r="AE16" t="n">
-        <v>279014.3335444877</v>
+        <v>386908.5634964944</v>
       </c>
       <c r="AF16" t="n">
         <v>9.992499612118177e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.84953703703704</v>
       </c>
       <c r="AH16" t="n">
-        <v>252385.5971501603</v>
+        <v>349982.5532259676</v>
       </c>
     </row>
   </sheetData>
@@ -19875,28 +19875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.0469586233248</v>
+        <v>263.8908125411393</v>
       </c>
       <c r="AB2" t="n">
-        <v>258.6623889515097</v>
+        <v>361.0670517597831</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.9760135849961</v>
+        <v>326.6073191006186</v>
       </c>
       <c r="AD2" t="n">
-        <v>189046.9586233248</v>
+        <v>263890.8125411393</v>
       </c>
       <c r="AE2" t="n">
-        <v>258662.3889515098</v>
+        <v>361067.0517597831</v>
       </c>
       <c r="AF2" t="n">
         <v>1.531700415615023e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.64814814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>233976.013584996</v>
+        <v>326607.3191006185</v>
       </c>
     </row>
   </sheetData>
@@ -20172,28 +20172,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.8354767624076</v>
+        <v>285.1102770811584</v>
       </c>
       <c r="AB2" t="n">
-        <v>273.4237154252244</v>
+        <v>390.1004592801435</v>
       </c>
       <c r="AC2" t="n">
-        <v>247.3285397777159</v>
+        <v>352.8698189558792</v>
       </c>
       <c r="AD2" t="n">
-        <v>199835.4767624075</v>
+        <v>285110.2770811584</v>
       </c>
       <c r="AE2" t="n">
-        <v>273423.7154252244</v>
+        <v>390100.4592801436</v>
       </c>
       <c r="AF2" t="n">
         <v>1.299207810757352e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.97222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>247328.5397777159</v>
+        <v>352869.8189558792</v>
       </c>
     </row>
     <row r="3">
@@ -20278,28 +20278,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>193.9482023612993</v>
+        <v>260.2930388717303</v>
       </c>
       <c r="AB3" t="n">
-        <v>265.3684868614163</v>
+        <v>356.1444191027256</v>
       </c>
       <c r="AC3" t="n">
-        <v>240.0420909224508</v>
+        <v>322.1544955953922</v>
       </c>
       <c r="AD3" t="n">
-        <v>193948.2023612993</v>
+        <v>260293.0388717303</v>
       </c>
       <c r="AE3" t="n">
-        <v>265368.4868614163</v>
+        <v>356144.4191027256</v>
       </c>
       <c r="AF3" t="n">
         <v>1.372526900341361e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.12731481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>240042.0909224508</v>
+        <v>322154.4955953922</v>
       </c>
     </row>
     <row r="4">
@@ -20384,28 +20384,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>193.6598880696426</v>
+        <v>260.0047245800736</v>
       </c>
       <c r="AB4" t="n">
-        <v>264.9740025280429</v>
+        <v>355.7499347693521</v>
       </c>
       <c r="AC4" t="n">
-        <v>239.6852556201922</v>
+        <v>321.7976602931336</v>
       </c>
       <c r="AD4" t="n">
-        <v>193659.8880696426</v>
+        <v>260004.7245800736</v>
       </c>
       <c r="AE4" t="n">
-        <v>264974.0025280429</v>
+        <v>355749.9347693521</v>
       </c>
       <c r="AF4" t="n">
         <v>1.376777542276638e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.08101851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>239685.2556201922</v>
+        <v>321797.6602931336</v>
       </c>
     </row>
   </sheetData>
@@ -20681,28 +20681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>519.3255236738166</v>
+        <v>678.7909607068706</v>
       </c>
       <c r="AB2" t="n">
-        <v>710.5640925156422</v>
+        <v>928.7517385828346</v>
       </c>
       <c r="AC2" t="n">
-        <v>642.748852808916</v>
+        <v>840.1129761637402</v>
       </c>
       <c r="AD2" t="n">
-        <v>519325.5236738166</v>
+        <v>678790.9607068705</v>
       </c>
       <c r="AE2" t="n">
-        <v>710564.0925156422</v>
+        <v>928751.7385828346</v>
       </c>
       <c r="AF2" t="n">
         <v>4.587725557952281e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.87268518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>642748.852808916</v>
+        <v>840112.9761637402</v>
       </c>
     </row>
     <row r="3">
@@ -20787,28 +20787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>409.8716776667363</v>
+        <v>539.4586986428305</v>
       </c>
       <c r="AB3" t="n">
-        <v>560.8045116458662</v>
+        <v>738.11119072124</v>
       </c>
       <c r="AC3" t="n">
-        <v>507.2821161484594</v>
+        <v>667.6668946243666</v>
       </c>
       <c r="AD3" t="n">
-        <v>409871.6776667363</v>
+        <v>539458.6986428306</v>
       </c>
       <c r="AE3" t="n">
-        <v>560804.5116458662</v>
+        <v>738111.1907212399</v>
       </c>
       <c r="AF3" t="n">
         <v>5.522224972876986e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.81481481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>507282.1161484594</v>
+        <v>667666.8946243665</v>
       </c>
     </row>
     <row r="4">
@@ -20893,28 +20893,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>361.7212773321987</v>
+        <v>471.3334229355424</v>
       </c>
       <c r="AB4" t="n">
-        <v>494.9230096624108</v>
+        <v>644.8991830234797</v>
       </c>
       <c r="AC4" t="n">
-        <v>447.6882522490363</v>
+        <v>583.3509101174063</v>
       </c>
       <c r="AD4" t="n">
-        <v>361721.2773321987</v>
+        <v>471333.4229355424</v>
       </c>
       <c r="AE4" t="n">
-        <v>494923.0096624108</v>
+        <v>644899.1830234798</v>
       </c>
       <c r="AF4" t="n">
         <v>6.196726831083756e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.11805555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>447688.2522490363</v>
+        <v>583350.9101174063</v>
       </c>
     </row>
     <row r="5">
@@ -20999,28 +20999,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>324.8045651284724</v>
+        <v>424.4458502399027</v>
       </c>
       <c r="AB5" t="n">
-        <v>444.4119353748746</v>
+        <v>580.7455375275881</v>
       </c>
       <c r="AC5" t="n">
-        <v>401.9978839987645</v>
+        <v>525.3199985074355</v>
       </c>
       <c r="AD5" t="n">
-        <v>324804.5651284724</v>
+        <v>424445.8502399027</v>
       </c>
       <c r="AE5" t="n">
-        <v>444411.9353748746</v>
+        <v>580745.5375275881</v>
       </c>
       <c r="AF5" t="n">
         <v>6.722168159277831e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.38194444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>401997.8839987644</v>
+        <v>525319.9985074354</v>
       </c>
     </row>
     <row r="6">
@@ -21105,28 +21105,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>304.2173433221512</v>
+        <v>403.8244630148006</v>
       </c>
       <c r="AB6" t="n">
-        <v>416.2435902553404</v>
+        <v>552.530445774806</v>
       </c>
       <c r="AC6" t="n">
-        <v>376.517886202918</v>
+        <v>499.797715511409</v>
       </c>
       <c r="AD6" t="n">
-        <v>304217.3433221512</v>
+        <v>403824.4630148006</v>
       </c>
       <c r="AE6" t="n">
-        <v>416243.5902553404</v>
+        <v>552530.4457748061</v>
       </c>
       <c r="AF6" t="n">
         <v>7.120215420519039e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.24768518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>376517.886202918</v>
+        <v>499797.715511409</v>
       </c>
     </row>
     <row r="7">
@@ -21211,28 +21211,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>287.3687421952569</v>
+        <v>387.043181695611</v>
       </c>
       <c r="AB7" t="n">
-        <v>393.1905908857021</v>
+        <v>529.5695563360093</v>
       </c>
       <c r="AC7" t="n">
-        <v>355.66503273803</v>
+        <v>479.0281811348402</v>
       </c>
       <c r="AD7" t="n">
-        <v>287368.7421952569</v>
+        <v>387043.181695611</v>
       </c>
       <c r="AE7" t="n">
-        <v>393190.5908857021</v>
+        <v>529569.5563360093</v>
       </c>
       <c r="AF7" t="n">
         <v>7.405312923513932e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.50694444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>355665.0327380301</v>
+        <v>479028.1811348402</v>
       </c>
     </row>
     <row r="8">
@@ -21317,28 +21317,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>271.0551748226566</v>
+        <v>370.6954489042297</v>
       </c>
       <c r="AB8" t="n">
-        <v>370.8696483027118</v>
+        <v>507.2018671197712</v>
       </c>
       <c r="AC8" t="n">
-        <v>335.4743695875208</v>
+        <v>458.795232784151</v>
       </c>
       <c r="AD8" t="n">
-        <v>271055.1748226566</v>
+        <v>370695.4489042297</v>
       </c>
       <c r="AE8" t="n">
-        <v>370869.6483027118</v>
+        <v>507201.8671197713</v>
       </c>
       <c r="AF8" t="n">
         <v>7.690173634562816e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.82407407407407</v>
       </c>
       <c r="AH8" t="n">
-        <v>335474.3695875208</v>
+        <v>458795.232784151</v>
       </c>
     </row>
     <row r="9">
@@ -21423,28 +21423,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>265.7911620965169</v>
+        <v>355.427421297253</v>
       </c>
       <c r="AB9" t="n">
-        <v>363.6671938589564</v>
+        <v>486.3114781700665</v>
       </c>
       <c r="AC9" t="n">
-        <v>328.959307287169</v>
+        <v>439.8985932359611</v>
       </c>
       <c r="AD9" t="n">
-        <v>265791.1620965169</v>
+        <v>355427.421297253</v>
       </c>
       <c r="AE9" t="n">
-        <v>363667.1938589563</v>
+        <v>486311.4781700665</v>
       </c>
       <c r="AF9" t="n">
         <v>7.947211291955637e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.24537037037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>328959.307287169</v>
+        <v>439898.593235961</v>
       </c>
     </row>
     <row r="10">
@@ -21529,28 +21529,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>252.4643125237866</v>
+        <v>342.1678915322302</v>
       </c>
       <c r="AB10" t="n">
-        <v>345.4328103342751</v>
+        <v>468.1692045763942</v>
       </c>
       <c r="AC10" t="n">
-        <v>312.4651877340691</v>
+        <v>423.4877927712278</v>
       </c>
       <c r="AD10" t="n">
-        <v>252464.3125237866</v>
+        <v>342167.8915322302</v>
       </c>
       <c r="AE10" t="n">
-        <v>345432.8103342751</v>
+        <v>468169.2045763942</v>
       </c>
       <c r="AF10" t="n">
         <v>8.121253372272286e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.875</v>
       </c>
       <c r="AH10" t="n">
-        <v>312465.1877340691</v>
+        <v>423487.7927712278</v>
       </c>
     </row>
     <row r="11">
@@ -21635,28 +21635,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>249.4444094447963</v>
+        <v>339.1479884532399</v>
       </c>
       <c r="AB11" t="n">
-        <v>341.3008457128817</v>
+        <v>464.0372399549986</v>
       </c>
       <c r="AC11" t="n">
-        <v>308.7275720168914</v>
+        <v>419.7501770540495</v>
       </c>
       <c r="AD11" t="n">
-        <v>249444.4094447964</v>
+        <v>339147.9884532399</v>
       </c>
       <c r="AE11" t="n">
-        <v>341300.8457128817</v>
+        <v>464037.2399549986</v>
       </c>
       <c r="AF11" t="n">
         <v>8.266170043229822e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.57407407407407</v>
       </c>
       <c r="AH11" t="n">
-        <v>308727.5720168914</v>
+        <v>419750.1770540494</v>
       </c>
     </row>
     <row r="12">
@@ -21741,28 +21741,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>246.6065382808678</v>
+        <v>326.3061024084742</v>
       </c>
       <c r="AB12" t="n">
-        <v>337.4179451883568</v>
+        <v>446.4664049245226</v>
       </c>
       <c r="AC12" t="n">
-        <v>305.2152500687409</v>
+        <v>403.8562778580602</v>
       </c>
       <c r="AD12" t="n">
-        <v>246606.5382808678</v>
+        <v>326306.1024084742</v>
       </c>
       <c r="AE12" t="n">
-        <v>337417.9451883568</v>
+        <v>446466.4049245226</v>
       </c>
       <c r="AF12" t="n">
         <v>8.41688811686458e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.28472222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>305215.2500687409</v>
+        <v>403856.2778580602</v>
       </c>
     </row>
     <row r="13">
@@ -21847,28 +21847,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>232.2462489844137</v>
+        <v>321.9156625740762</v>
       </c>
       <c r="AB13" t="n">
-        <v>317.7695638417068</v>
+        <v>440.4592114505639</v>
       </c>
       <c r="AC13" t="n">
-        <v>287.4420826611324</v>
+        <v>398.4224024981071</v>
       </c>
       <c r="AD13" t="n">
-        <v>232246.2489844137</v>
+        <v>321915.6625740762</v>
       </c>
       <c r="AE13" t="n">
-        <v>317769.5638417068</v>
+        <v>440459.2114505639</v>
       </c>
       <c r="AF13" t="n">
         <v>8.634499915246895e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.86805555555556</v>
       </c>
       <c r="AH13" t="n">
-        <v>287442.0826611324</v>
+        <v>398422.4024981072</v>
       </c>
     </row>
     <row r="14">
@@ -21953,28 +21953,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>233.3978065199653</v>
+        <v>323.0672201096278</v>
       </c>
       <c r="AB14" t="n">
-        <v>319.3451756649806</v>
+        <v>442.0348232738385</v>
       </c>
       <c r="AC14" t="n">
-        <v>288.8673203033786</v>
+        <v>399.8476401403535</v>
       </c>
       <c r="AD14" t="n">
-        <v>233397.8065199653</v>
+        <v>323067.2201096278</v>
       </c>
       <c r="AE14" t="n">
-        <v>319345.1756649806</v>
+        <v>442034.8232738385</v>
       </c>
       <c r="AF14" t="n">
         <v>8.593061324695312e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.94907407407407</v>
       </c>
       <c r="AH14" t="n">
-        <v>288867.3203033786</v>
+        <v>399847.6401403535</v>
       </c>
     </row>
     <row r="15">
@@ -22059,28 +22059,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>230.8017077111197</v>
+        <v>310.5685916464303</v>
       </c>
       <c r="AB15" t="n">
-        <v>315.7930787429237</v>
+        <v>424.9336484099199</v>
       </c>
       <c r="AC15" t="n">
-        <v>285.6542305261623</v>
+        <v>384.3785774037976</v>
       </c>
       <c r="AD15" t="n">
-        <v>230801.7077111197</v>
+        <v>310568.5916464303</v>
       </c>
       <c r="AE15" t="n">
-        <v>315793.0787429237</v>
+        <v>424933.6484099199</v>
       </c>
       <c r="AF15" t="n">
         <v>8.728387921839484e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.69444444444444</v>
       </c>
       <c r="AH15" t="n">
-        <v>285654.2305261623</v>
+        <v>384378.5774037977</v>
       </c>
     </row>
     <row r="16">
@@ -22165,28 +22165,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>228.5862227857335</v>
+        <v>308.2516214945588</v>
       </c>
       <c r="AB16" t="n">
-        <v>312.761754527715</v>
+        <v>421.7634676306204</v>
       </c>
       <c r="AC16" t="n">
-        <v>282.9122116395619</v>
+        <v>381.5109542286978</v>
       </c>
       <c r="AD16" t="n">
-        <v>228586.2227857335</v>
+        <v>308251.6214945588</v>
       </c>
       <c r="AE16" t="n">
-        <v>312761.754527715</v>
+        <v>421763.4676306203</v>
       </c>
       <c r="AF16" t="n">
         <v>8.845955123032975e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>15.48611111111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>282912.2116395619</v>
+        <v>381510.9542286978</v>
       </c>
     </row>
     <row r="17">
@@ -22271,28 +22271,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>227.1765580679736</v>
+        <v>306.841956776799</v>
       </c>
       <c r="AB17" t="n">
-        <v>310.8329890708588</v>
+        <v>419.8347021737631</v>
       </c>
       <c r="AC17" t="n">
-        <v>281.1675248508682</v>
+        <v>379.7662674400037</v>
       </c>
       <c r="AD17" t="n">
-        <v>227176.5580679736</v>
+        <v>306841.956776799</v>
       </c>
       <c r="AE17" t="n">
-        <v>310832.9890708588</v>
+        <v>419834.7021737631</v>
       </c>
       <c r="AF17" t="n">
         <v>8.900654062561063e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>15.39351851851852</v>
       </c>
       <c r="AH17" t="n">
-        <v>281167.5248508682</v>
+        <v>379766.2674400037</v>
       </c>
     </row>
     <row r="18">
@@ -22377,28 +22377,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>225.166594820773</v>
+        <v>304.8319935295983</v>
       </c>
       <c r="AB18" t="n">
-        <v>308.0828686827201</v>
+        <v>417.0845817856229</v>
       </c>
       <c r="AC18" t="n">
-        <v>278.6798720927542</v>
+        <v>377.2786146818894</v>
       </c>
       <c r="AD18" t="n">
-        <v>225166.594820773</v>
+        <v>304831.9935295983</v>
       </c>
       <c r="AE18" t="n">
-        <v>308082.8686827201</v>
+        <v>417084.5817856229</v>
       </c>
       <c r="AF18" t="n">
         <v>9.017984471808546e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15.19675925925926</v>
       </c>
       <c r="AH18" t="n">
-        <v>278679.8720927542</v>
+        <v>377278.6146818894</v>
       </c>
     </row>
     <row r="19">
@@ -22483,28 +22483,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>223.6112144725556</v>
+        <v>293.3740835270291</v>
       </c>
       <c r="AB19" t="n">
-        <v>305.954728671752</v>
+        <v>401.407363832794</v>
       </c>
       <c r="AC19" t="n">
-        <v>276.7548387775691</v>
+        <v>363.0976084073648</v>
       </c>
       <c r="AD19" t="n">
-        <v>223611.2144725556</v>
+        <v>293374.0835270291</v>
       </c>
       <c r="AE19" t="n">
-        <v>305954.728671752</v>
+        <v>401407.363832794</v>
       </c>
       <c r="AF19" t="n">
         <v>9.083457444880048e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>15.08101851851852</v>
       </c>
       <c r="AH19" t="n">
-        <v>276754.8387775691</v>
+        <v>363097.6084073648</v>
       </c>
     </row>
     <row r="20">
@@ -22589,28 +22589,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>222.4222158299538</v>
+        <v>292.1850848844273</v>
       </c>
       <c r="AB20" t="n">
-        <v>304.327888274027</v>
+        <v>399.7805234350681</v>
       </c>
       <c r="AC20" t="n">
-        <v>275.2832617441176</v>
+        <v>361.6260313739131</v>
       </c>
       <c r="AD20" t="n">
-        <v>222422.2158299538</v>
+        <v>292185.0848844273</v>
       </c>
       <c r="AE20" t="n">
-        <v>304327.888274027</v>
+        <v>399780.5234350681</v>
       </c>
       <c r="AF20" t="n">
         <v>9.129039894486789e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>15.01157407407408</v>
       </c>
       <c r="AH20" t="n">
-        <v>275283.2617441176</v>
+        <v>361626.0313739131</v>
       </c>
     </row>
     <row r="21">
@@ -22695,28 +22695,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>222.2423679196544</v>
+        <v>292.0052369741277</v>
       </c>
       <c r="AB21" t="n">
-        <v>304.0818124288256</v>
+        <v>399.5344475898666</v>
       </c>
       <c r="AC21" t="n">
-        <v>275.0606710322125</v>
+        <v>361.4034406620079</v>
       </c>
       <c r="AD21" t="n">
-        <v>222242.3679196544</v>
+        <v>292005.2369741278</v>
       </c>
       <c r="AE21" t="n">
-        <v>304081.8124288256</v>
+        <v>399534.4475898666</v>
       </c>
       <c r="AF21" t="n">
         <v>9.119213028727415e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>15.02314814814815</v>
       </c>
       <c r="AH21" t="n">
-        <v>275060.6710322125</v>
+        <v>361403.440662008</v>
       </c>
     </row>
     <row r="22">
@@ -22801,28 +22801,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>222.2910118969923</v>
+        <v>292.0538809514657</v>
       </c>
       <c r="AB22" t="n">
-        <v>304.1483692646401</v>
+        <v>399.6010044256811</v>
       </c>
       <c r="AC22" t="n">
-        <v>275.12087577703</v>
+        <v>361.4636454068255</v>
       </c>
       <c r="AD22" t="n">
-        <v>222291.0118969923</v>
+        <v>292053.8809514657</v>
       </c>
       <c r="AE22" t="n">
-        <v>304148.36926464</v>
+        <v>399601.0044256811</v>
       </c>
       <c r="AF22" t="n">
         <v>9.118502652889387e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>16</v>
+        <v>15.02314814814815</v>
       </c>
       <c r="AH22" t="n">
-        <v>275120.87577703</v>
+        <v>361463.6454068255</v>
       </c>
     </row>
   </sheetData>
@@ -23098,28 +23098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>195.6689597146506</v>
+        <v>278.8959830164667</v>
       </c>
       <c r="AB2" t="n">
-        <v>267.7229029867269</v>
+        <v>381.5977879855271</v>
       </c>
       <c r="AC2" t="n">
-        <v>242.1718048772063</v>
+        <v>345.1786306760469</v>
       </c>
       <c r="AD2" t="n">
-        <v>195668.9597146506</v>
+        <v>278895.9830164667</v>
       </c>
       <c r="AE2" t="n">
-        <v>267722.9029867269</v>
+        <v>381597.7879855271</v>
       </c>
       <c r="AF2" t="n">
         <v>1.662648708122025e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.51620370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>242171.8048772063</v>
+        <v>345178.6306760468</v>
       </c>
     </row>
   </sheetData>
@@ -23395,28 +23395,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>297.6812194842849</v>
+        <v>394.7031866648482</v>
       </c>
       <c r="AB2" t="n">
-        <v>407.300577266939</v>
+        <v>540.0503130704886</v>
       </c>
       <c r="AC2" t="n">
-        <v>368.4283818225321</v>
+        <v>488.5086691564152</v>
       </c>
       <c r="AD2" t="n">
-        <v>297681.2194842849</v>
+        <v>394703.1866648482</v>
       </c>
       <c r="AE2" t="n">
-        <v>407300.577266939</v>
+        <v>540050.3130704886</v>
       </c>
       <c r="AF2" t="n">
         <v>8.283228215881114e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.23148148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>368428.381822532</v>
+        <v>488508.6691564152</v>
       </c>
     </row>
     <row r="3">
@@ -23501,28 +23501,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>261.236254154566</v>
+        <v>348.5492926363025</v>
       </c>
       <c r="AB3" t="n">
-        <v>357.4349678644229</v>
+        <v>476.9005190945334</v>
       </c>
       <c r="AC3" t="n">
-        <v>323.3218761945698</v>
+        <v>431.3858028862328</v>
       </c>
       <c r="AD3" t="n">
-        <v>261236.2541545661</v>
+        <v>348549.2926363025</v>
       </c>
       <c r="AE3" t="n">
-        <v>357434.9678644229</v>
+        <v>476900.5190945334</v>
       </c>
       <c r="AF3" t="n">
         <v>9.242198629882559e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.13657407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>323321.8761945697</v>
+        <v>431385.8028862328</v>
       </c>
     </row>
     <row r="4">
@@ -23607,28 +23607,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>232.5595127683293</v>
+        <v>319.9057056389922</v>
       </c>
       <c r="AB4" t="n">
-        <v>318.1981851710826</v>
+        <v>437.7090996989403</v>
       </c>
       <c r="AC4" t="n">
-        <v>287.8297969724067</v>
+        <v>395.9347575522524</v>
       </c>
       <c r="AD4" t="n">
-        <v>232559.5127683293</v>
+        <v>319905.7056389923</v>
       </c>
       <c r="AE4" t="n">
-        <v>318198.1851710826</v>
+        <v>437709.0996989403</v>
       </c>
       <c r="AF4" t="n">
         <v>9.883056708150776e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.95601851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>287829.7969724067</v>
+        <v>395934.7575522524</v>
       </c>
     </row>
     <row r="5">
@@ -23713,28 +23713,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>226.0736525822386</v>
+        <v>303.6777623651511</v>
       </c>
       <c r="AB5" t="n">
-        <v>309.3239451285208</v>
+        <v>415.5053117853411</v>
       </c>
       <c r="AC5" t="n">
-        <v>279.80250194443</v>
+        <v>375.850067993915</v>
       </c>
       <c r="AD5" t="n">
-        <v>226073.6525822386</v>
+        <v>303677.7623651511</v>
       </c>
       <c r="AE5" t="n">
-        <v>309323.9451285208</v>
+        <v>415505.3117853411</v>
       </c>
       <c r="AF5" t="n">
         <v>1.038404381859091e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.13425925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>279802.5019444301</v>
+        <v>375850.0679939151</v>
       </c>
     </row>
     <row r="6">
@@ -23819,28 +23819,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>211.5775003678712</v>
+        <v>289.248929958488</v>
       </c>
       <c r="AB6" t="n">
-        <v>289.489670143733</v>
+        <v>395.7631467313846</v>
       </c>
       <c r="AC6" t="n">
-        <v>261.8611823266043</v>
+        <v>357.9920674644056</v>
       </c>
       <c r="AD6" t="n">
-        <v>211577.5003678712</v>
+        <v>289248.929958488</v>
       </c>
       <c r="AE6" t="n">
-        <v>289489.670143733</v>
+        <v>395763.1467313846</v>
       </c>
       <c r="AF6" t="n">
         <v>1.077802819070293e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.54398148148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>261861.1823266043</v>
+        <v>357992.0674644056</v>
       </c>
     </row>
     <row r="7">
@@ -23925,28 +23925,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>207.4890220364971</v>
+        <v>275.4183685393634</v>
       </c>
       <c r="AB7" t="n">
-        <v>283.8956337198157</v>
+        <v>376.8395624364317</v>
       </c>
       <c r="AC7" t="n">
-        <v>256.8010328877044</v>
+        <v>340.8745234951455</v>
       </c>
       <c r="AD7" t="n">
-        <v>207489.0220364971</v>
+        <v>275418.3685393634</v>
       </c>
       <c r="AE7" t="n">
-        <v>283895.6337198158</v>
+        <v>376839.5624364316</v>
       </c>
       <c r="AF7" t="n">
         <v>1.110946157099121e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.08101851851852</v>
       </c>
       <c r="AH7" t="n">
-        <v>256801.0328877044</v>
+        <v>340874.5234951455</v>
       </c>
     </row>
     <row r="8">
@@ -24031,28 +24031,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>193.3455209614044</v>
+        <v>270.98278513324</v>
       </c>
       <c r="AB8" t="n">
-        <v>264.5438715816536</v>
+        <v>370.7706015360445</v>
       </c>
       <c r="AC8" t="n">
-        <v>239.2961757676335</v>
+        <v>335.3847757052512</v>
       </c>
       <c r="AD8" t="n">
-        <v>193345.5209614044</v>
+        <v>270982.78513324</v>
       </c>
       <c r="AE8" t="n">
-        <v>264543.8715816536</v>
+        <v>370770.6015360445</v>
       </c>
       <c r="AF8" t="n">
         <v>1.149866774233892e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.57175925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>239296.1757676335</v>
+        <v>335384.7757052512</v>
       </c>
     </row>
     <row r="9">
@@ -24137,28 +24137,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>192.7479311238515</v>
+        <v>260.744597434422</v>
       </c>
       <c r="AB9" t="n">
-        <v>263.7262228021112</v>
+        <v>356.7622614495582</v>
       </c>
       <c r="AC9" t="n">
-        <v>238.5565622400331</v>
+        <v>322.7133719357903</v>
       </c>
       <c r="AD9" t="n">
-        <v>192747.9311238515</v>
+        <v>260744.597434422</v>
       </c>
       <c r="AE9" t="n">
-        <v>263726.2228021112</v>
+        <v>356762.2614495582</v>
       </c>
       <c r="AF9" t="n">
         <v>1.154225072506796e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.51388888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>238556.5622400331</v>
+        <v>322713.3719357903</v>
       </c>
     </row>
   </sheetData>
@@ -24434,28 +24434,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.8382637197152</v>
+        <v>286.442443761389</v>
       </c>
       <c r="AB2" t="n">
-        <v>278.9005051307074</v>
+        <v>391.9231885030811</v>
       </c>
       <c r="AC2" t="n">
-        <v>252.282632360432</v>
+        <v>354.5185894599961</v>
       </c>
       <c r="AD2" t="n">
-        <v>203838.2637197152</v>
+        <v>286442.443761389</v>
       </c>
       <c r="AE2" t="n">
-        <v>278900.5051307074</v>
+        <v>391923.1885030811</v>
       </c>
       <c r="AF2" t="n">
         <v>1.734422562498135e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.31481481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>252282.632360432</v>
+        <v>354518.5894599961</v>
       </c>
     </row>
   </sheetData>
@@ -24731,28 +24731,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>418.3171261425516</v>
+        <v>546.8123448422045</v>
       </c>
       <c r="AB2" t="n">
-        <v>572.3599468373675</v>
+        <v>748.1727738711975</v>
       </c>
       <c r="AC2" t="n">
-        <v>517.7347168234392</v>
+        <v>676.7682144000128</v>
       </c>
       <c r="AD2" t="n">
-        <v>418317.1261425516</v>
+        <v>546812.3448422046</v>
       </c>
       <c r="AE2" t="n">
-        <v>572359.9468373675</v>
+        <v>748172.7738711975</v>
       </c>
       <c r="AF2" t="n">
         <v>5.670371854298691e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.71759259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>517734.7168234391</v>
+        <v>676768.2144000127</v>
       </c>
     </row>
     <row r="3">
@@ -24837,28 +24837,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>351.3601540325419</v>
+        <v>460.0195577399285</v>
       </c>
       <c r="AB3" t="n">
-        <v>480.746463663321</v>
+        <v>629.4190535303355</v>
       </c>
       <c r="AC3" t="n">
-        <v>434.8646959031924</v>
+        <v>569.3481824565894</v>
       </c>
       <c r="AD3" t="n">
-        <v>351360.1540325419</v>
+        <v>460019.5577399285</v>
       </c>
       <c r="AE3" t="n">
-        <v>480746.463663321</v>
+        <v>629419.0535303355</v>
       </c>
       <c r="AF3" t="n">
         <v>6.608252316534824e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.07175925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>434864.6959031924</v>
+        <v>569348.1824565894</v>
       </c>
     </row>
     <row r="4">
@@ -24943,28 +24943,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>312.5352169229644</v>
+        <v>411.3103730380701</v>
       </c>
       <c r="AB4" t="n">
-        <v>427.6244718746577</v>
+        <v>562.7729981236854</v>
       </c>
       <c r="AC4" t="n">
-        <v>386.8125924536554</v>
+        <v>509.0627330396237</v>
       </c>
       <c r="AD4" t="n">
-        <v>312535.2169229644</v>
+        <v>411310.3730380701</v>
       </c>
       <c r="AE4" t="n">
-        <v>427624.4718746577</v>
+        <v>562772.9981236854</v>
       </c>
       <c r="AF4" t="n">
         <v>7.279786822676493e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.03472222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>386812.5924536554</v>
+        <v>509062.7330396237</v>
       </c>
     </row>
     <row r="5">
@@ -25049,28 +25049,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>281.1146168104208</v>
+        <v>379.92292731445</v>
       </c>
       <c r="AB5" t="n">
-        <v>384.6334206216301</v>
+        <v>519.8273101682514</v>
       </c>
       <c r="AC5" t="n">
-        <v>347.9245467938973</v>
+        <v>470.2157212680048</v>
       </c>
       <c r="AD5" t="n">
-        <v>281114.6168104208</v>
+        <v>379922.92731445</v>
       </c>
       <c r="AE5" t="n">
-        <v>384633.4206216301</v>
+        <v>519827.3101682514</v>
       </c>
       <c r="AF5" t="n">
         <v>7.789548288314242e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.71527777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>347924.5467938973</v>
+        <v>470215.7212680048</v>
       </c>
     </row>
     <row r="6">
@@ -25155,28 +25155,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>263.740226955864</v>
+        <v>362.5143720411124</v>
       </c>
       <c r="AB6" t="n">
-        <v>360.8610139186424</v>
+        <v>496.008156832016</v>
       </c>
       <c r="AC6" t="n">
-        <v>326.4209452218604</v>
+        <v>448.6698344957879</v>
       </c>
       <c r="AD6" t="n">
-        <v>263740.226955864</v>
+        <v>362514.3720411125</v>
       </c>
       <c r="AE6" t="n">
-        <v>360861.0139186424</v>
+        <v>496008.156832016</v>
       </c>
       <c r="AF6" t="n">
         <v>8.162860997826018e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.8587962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>326420.9452218604</v>
+        <v>448669.8344957879</v>
       </c>
     </row>
     <row r="7">
@@ -25261,28 +25261,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>257.5024438173706</v>
+        <v>336.5432701666983</v>
       </c>
       <c r="AB7" t="n">
-        <v>352.3262038368192</v>
+        <v>460.4733494832917</v>
       </c>
       <c r="AC7" t="n">
-        <v>318.7006854356711</v>
+        <v>416.5264192870107</v>
       </c>
       <c r="AD7" t="n">
-        <v>257502.4438173706</v>
+        <v>336543.2701666983</v>
       </c>
       <c r="AE7" t="n">
-        <v>352326.2038368192</v>
+        <v>460473.3494832917</v>
       </c>
       <c r="AF7" t="n">
         <v>8.505431789983469e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.14120370370371</v>
       </c>
       <c r="AH7" t="n">
-        <v>318700.6854356711</v>
+        <v>416526.4192870107</v>
       </c>
     </row>
     <row r="8">
@@ -25367,28 +25367,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>243.00659757129</v>
+        <v>331.9306604830412</v>
       </c>
       <c r="AB8" t="n">
-        <v>332.4923474913396</v>
+        <v>454.1621734201348</v>
       </c>
       <c r="AC8" t="n">
-        <v>300.7597445028057</v>
+        <v>410.8175730095301</v>
       </c>
       <c r="AD8" t="n">
-        <v>243006.59757129</v>
+        <v>331930.6604830412</v>
       </c>
       <c r="AE8" t="n">
-        <v>332492.3474913396</v>
+        <v>454162.1734201348</v>
       </c>
       <c r="AF8" t="n">
         <v>8.771399771684231e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.62037037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>300759.7445028057</v>
+        <v>410817.5730095301</v>
       </c>
     </row>
     <row r="9">
@@ -25473,28 +25473,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>239.1514078717186</v>
+        <v>318.1580688022652</v>
       </c>
       <c r="AB9" t="n">
-        <v>327.2175068654228</v>
+        <v>435.3179058786346</v>
       </c>
       <c r="AC9" t="n">
-        <v>295.9883272629394</v>
+        <v>393.7717759140951</v>
       </c>
       <c r="AD9" t="n">
-        <v>239151.4078717186</v>
+        <v>318158.0688022652</v>
       </c>
       <c r="AE9" t="n">
-        <v>327217.5068654228</v>
+        <v>435317.9058786347</v>
       </c>
       <c r="AF9" t="n">
         <v>9.011917477542477e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.18055555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>295988.3272629394</v>
+        <v>393771.7759140952</v>
       </c>
     </row>
     <row r="10">
@@ -25579,28 +25579,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>225.8299364719616</v>
+        <v>304.9039172102125</v>
       </c>
       <c r="AB10" t="n">
-        <v>308.9904819944442</v>
+        <v>417.1829909384882</v>
       </c>
       <c r="AC10" t="n">
-        <v>279.5008640638511</v>
+        <v>377.3676318033232</v>
       </c>
       <c r="AD10" t="n">
-        <v>225829.9364719616</v>
+        <v>304903.9172102124</v>
       </c>
       <c r="AE10" t="n">
-        <v>308990.4819944442</v>
+        <v>417182.9909384882</v>
       </c>
       <c r="AF10" t="n">
         <v>9.21526770135348e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.82175925925926</v>
       </c>
       <c r="AH10" t="n">
-        <v>279500.8640638511</v>
+        <v>377367.6318033232</v>
       </c>
     </row>
     <row r="11">
@@ -25685,28 +25685,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>221.980003093073</v>
+        <v>300.9524986048385</v>
       </c>
       <c r="AB11" t="n">
-        <v>303.7228332983779</v>
+        <v>411.7764856783299</v>
       </c>
       <c r="AC11" t="n">
-        <v>274.7359523661443</v>
+        <v>372.4771158171167</v>
       </c>
       <c r="AD11" t="n">
-        <v>221980.003093073</v>
+        <v>300952.4986048385</v>
       </c>
       <c r="AE11" t="n">
-        <v>303722.8332983779</v>
+        <v>411776.4856783299</v>
       </c>
       <c r="AF11" t="n">
         <v>9.446210055904641e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.43981481481481</v>
       </c>
       <c r="AH11" t="n">
-        <v>274735.9523661443</v>
+        <v>372477.1158171167</v>
       </c>
     </row>
     <row r="12">
@@ -25791,28 +25791,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>223.2991451949753</v>
+        <v>302.3731259332261</v>
       </c>
       <c r="AB12" t="n">
-        <v>305.5277417186419</v>
+        <v>413.7202506626842</v>
       </c>
       <c r="AC12" t="n">
-        <v>276.3686028599839</v>
+        <v>374.2353705994555</v>
       </c>
       <c r="AD12" t="n">
-        <v>223299.1451949753</v>
+        <v>302373.1259332261</v>
       </c>
       <c r="AE12" t="n">
-        <v>305527.7417186419</v>
+        <v>413720.2506626842</v>
       </c>
       <c r="AF12" t="n">
         <v>9.361543791715673e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.5787037037037</v>
       </c>
       <c r="AH12" t="n">
-        <v>276368.6028599839</v>
+        <v>374235.3705994555</v>
       </c>
     </row>
     <row r="13">
@@ -25897,28 +25897,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>219.5092405925919</v>
+        <v>298.4817361043574</v>
       </c>
       <c r="AB13" t="n">
-        <v>300.3422270428729</v>
+        <v>408.3958794228232</v>
       </c>
       <c r="AC13" t="n">
-        <v>271.6779864269529</v>
+        <v>369.4191498779248</v>
       </c>
       <c r="AD13" t="n">
-        <v>219509.2405925919</v>
+        <v>298481.7361043574</v>
       </c>
       <c r="AE13" t="n">
-        <v>300342.2270428729</v>
+        <v>408395.8794228231</v>
       </c>
       <c r="AF13" t="n">
         <v>9.596769856062108e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.19675925925926</v>
       </c>
       <c r="AH13" t="n">
-        <v>271677.9864269529</v>
+        <v>369419.1498779248</v>
       </c>
     </row>
     <row r="14">
@@ -26003,28 +26003,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>217.2935885385529</v>
+        <v>286.4501672955989</v>
       </c>
       <c r="AB14" t="n">
-        <v>297.3106741548683</v>
+        <v>391.9337561833256</v>
       </c>
       <c r="AC14" t="n">
-        <v>268.9357606917673</v>
+        <v>354.5281485756698</v>
       </c>
       <c r="AD14" t="n">
-        <v>217293.5885385529</v>
+        <v>286450.1672955989</v>
       </c>
       <c r="AE14" t="n">
-        <v>297310.6741548682</v>
+        <v>391933.7561833255</v>
       </c>
       <c r="AF14" t="n">
         <v>9.715705798613277e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.01157407407408</v>
       </c>
       <c r="AH14" t="n">
-        <v>268935.7606917673</v>
+        <v>354528.1485756699</v>
       </c>
     </row>
     <row r="15">
@@ -26109,28 +26109,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>206.077798059454</v>
+        <v>285.1176133789238</v>
       </c>
       <c r="AB15" t="n">
-        <v>281.9647348156186</v>
+        <v>390.1104971264008</v>
       </c>
       <c r="AC15" t="n">
-        <v>255.0544162648896</v>
+        <v>352.8788988041779</v>
       </c>
       <c r="AD15" t="n">
-        <v>206077.798059454</v>
+        <v>285117.6133789238</v>
       </c>
       <c r="AE15" t="n">
-        <v>281964.7348156185</v>
+        <v>390110.4971264008</v>
       </c>
       <c r="AF15" t="n">
         <v>9.77038609423532e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.93055555555556</v>
       </c>
       <c r="AH15" t="n">
-        <v>255054.4162648896</v>
+        <v>352878.8988041779</v>
       </c>
     </row>
     <row r="16">
@@ -26215,28 +26215,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>205.3206460489377</v>
+        <v>284.3604613684074</v>
       </c>
       <c r="AB16" t="n">
-        <v>280.9287660316413</v>
+        <v>389.074528342423</v>
       </c>
       <c r="AC16" t="n">
-        <v>254.1173188876635</v>
+        <v>351.9418014269517</v>
       </c>
       <c r="AD16" t="n">
-        <v>205320.6460489377</v>
+        <v>284360.4613684074</v>
       </c>
       <c r="AE16" t="n">
-        <v>280928.7660316413</v>
+        <v>389074.528342423</v>
       </c>
       <c r="AF16" t="n">
         <v>9.829854065510903e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.83796296296296</v>
       </c>
       <c r="AH16" t="n">
-        <v>254117.3188876635</v>
+        <v>351941.8014269517</v>
       </c>
     </row>
     <row r="17">
@@ -26321,28 +26321,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>205.4424640799029</v>
+        <v>284.4822793993727</v>
       </c>
       <c r="AB17" t="n">
-        <v>281.0954428358401</v>
+        <v>389.2412051466218</v>
       </c>
       <c r="AC17" t="n">
-        <v>254.2680882916019</v>
+        <v>352.0925708308901</v>
       </c>
       <c r="AD17" t="n">
-        <v>205442.4640799029</v>
+        <v>284482.2793993726</v>
       </c>
       <c r="AE17" t="n">
-        <v>281095.44283584</v>
+        <v>389241.2051466219</v>
       </c>
       <c r="AF17" t="n">
         <v>9.823302509353425e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.84953703703704</v>
       </c>
       <c r="AH17" t="n">
-        <v>254268.0882916019</v>
+        <v>352092.5708308901</v>
       </c>
     </row>
   </sheetData>
@@ -26618,28 +26618,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>558.5728895421533</v>
+        <v>718.3328644876159</v>
       </c>
       <c r="AB2" t="n">
-        <v>764.2640699682814</v>
+        <v>982.8547158013271</v>
       </c>
       <c r="AC2" t="n">
-        <v>691.3237797818671</v>
+        <v>889.0524411705049</v>
       </c>
       <c r="AD2" t="n">
-        <v>558572.8895421533</v>
+        <v>718332.8644876159</v>
       </c>
       <c r="AE2" t="n">
-        <v>764264.0699682814</v>
+        <v>982854.715801327</v>
       </c>
       <c r="AF2" t="n">
         <v>4.348380623573861e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.06481481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>691323.7797818671</v>
+        <v>889052.4411705049</v>
       </c>
     </row>
     <row r="3">
@@ -26724,28 +26724,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>431.3756983494921</v>
+        <v>561.2631347391997</v>
       </c>
       <c r="AB3" t="n">
-        <v>590.22726143445</v>
+        <v>767.9449821321219</v>
       </c>
       <c r="AC3" t="n">
-        <v>533.8967999923095</v>
+        <v>694.6533908549834</v>
       </c>
       <c r="AD3" t="n">
-        <v>431375.6983494921</v>
+        <v>561263.1347391997</v>
       </c>
       <c r="AE3" t="n">
-        <v>590227.26143445</v>
+        <v>767944.9821321219</v>
       </c>
       <c r="AF3" t="n">
         <v>5.278617266597138e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.59027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>533896.7999923095</v>
+        <v>694653.3908549834</v>
       </c>
     </row>
     <row r="4">
@@ -26830,28 +26830,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>370.7836382505814</v>
+        <v>490.6455679607614</v>
       </c>
       <c r="AB4" t="n">
-        <v>507.322531674089</v>
+        <v>671.3229118386923</v>
       </c>
       <c r="AC4" t="n">
-        <v>458.9043812827584</v>
+        <v>607.2527953404311</v>
       </c>
       <c r="AD4" t="n">
-        <v>370783.6382505813</v>
+        <v>490645.5679607614</v>
       </c>
       <c r="AE4" t="n">
-        <v>507322.531674089</v>
+        <v>671322.9118386924</v>
       </c>
       <c r="AF4" t="n">
         <v>5.93780239938073e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.75462962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>458904.3812827584</v>
+        <v>607252.7953404312</v>
       </c>
     </row>
     <row r="5">
@@ -26936,28 +26936,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>332.1279714934676</v>
+        <v>441.9985599429009</v>
       </c>
       <c r="AB5" t="n">
-        <v>454.4321430493476</v>
+        <v>604.7619293141299</v>
       </c>
       <c r="AC5" t="n">
-        <v>411.0617771162356</v>
+        <v>547.0442995690873</v>
       </c>
       <c r="AD5" t="n">
-        <v>332127.9714934676</v>
+        <v>441998.5599429009</v>
       </c>
       <c r="AE5" t="n">
-        <v>454432.1430493476</v>
+        <v>604761.92931413</v>
       </c>
       <c r="AF5" t="n">
         <v>6.465780857956998e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.89120370370371</v>
       </c>
       <c r="AH5" t="n">
-        <v>411061.7771162356</v>
+        <v>547044.2995690873</v>
       </c>
     </row>
     <row r="6">
@@ -27042,28 +27042,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>310.6597873314044</v>
+        <v>410.5731999388718</v>
       </c>
       <c r="AB6" t="n">
-        <v>425.0584263693711</v>
+        <v>561.7643653675802</v>
       </c>
       <c r="AC6" t="n">
-        <v>384.4914467299258</v>
+        <v>508.1503627781364</v>
       </c>
       <c r="AD6" t="n">
-        <v>310659.7873314044</v>
+        <v>410573.1999388718</v>
       </c>
       <c r="AE6" t="n">
-        <v>425058.4263693711</v>
+        <v>561764.3653675802</v>
       </c>
       <c r="AF6" t="n">
         <v>6.852630429418806e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.71064814814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>384491.4467299258</v>
+        <v>508150.3627781364</v>
       </c>
     </row>
     <row r="7">
@@ -27148,28 +27148,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>292.4434665062377</v>
+        <v>392.3227136949242</v>
       </c>
       <c r="AB7" t="n">
-        <v>400.1340525690217</v>
+        <v>536.7932449339831</v>
       </c>
       <c r="AC7" t="n">
-        <v>361.9458201835034</v>
+        <v>485.5624510315341</v>
       </c>
       <c r="AD7" t="n">
-        <v>292443.4665062376</v>
+        <v>392322.7136949242</v>
       </c>
       <c r="AE7" t="n">
-        <v>400134.0525690217</v>
+        <v>536793.2449339832</v>
       </c>
       <c r="AF7" t="n">
         <v>7.171075097779642e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.8425925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>361945.8201835034</v>
+        <v>485562.4510315341</v>
       </c>
     </row>
     <row r="8">
@@ -27254,28 +27254,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>286.3679913048425</v>
+        <v>376.2227428438587</v>
       </c>
       <c r="AB8" t="n">
-        <v>391.8213193674237</v>
+        <v>514.7645545349706</v>
       </c>
       <c r="AC8" t="n">
-        <v>354.4264425716715</v>
+        <v>465.636147926742</v>
       </c>
       <c r="AD8" t="n">
-        <v>286367.9913048425</v>
+        <v>376222.7428438587</v>
       </c>
       <c r="AE8" t="n">
-        <v>391821.3193674237</v>
+        <v>514764.5545349705</v>
       </c>
       <c r="AF8" t="n">
         <v>7.433955373860508e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.17129629629629</v>
       </c>
       <c r="AH8" t="n">
-        <v>354426.4425716716</v>
+        <v>465636.147926742</v>
       </c>
     </row>
     <row r="9">
@@ -27360,28 +27360,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>270.8645072754733</v>
+        <v>360.7865786221939</v>
       </c>
       <c r="AB9" t="n">
-        <v>370.6087685529973</v>
+        <v>493.6441136513856</v>
       </c>
       <c r="AC9" t="n">
-        <v>335.238387834972</v>
+        <v>446.5314122783615</v>
       </c>
       <c r="AD9" t="n">
-        <v>270864.5072754733</v>
+        <v>360786.5786221939</v>
       </c>
       <c r="AE9" t="n">
-        <v>370608.7685529973</v>
+        <v>493644.1136513856</v>
       </c>
       <c r="AF9" t="n">
         <v>7.68446206678659e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.58101851851852</v>
       </c>
       <c r="AH9" t="n">
-        <v>335238.387834972</v>
+        <v>446531.4122783615</v>
       </c>
     </row>
     <row r="10">
@@ -27466,28 +27466,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>267.1246767552402</v>
+        <v>356.9452628754756</v>
       </c>
       <c r="AB10" t="n">
-        <v>365.4917674455361</v>
+        <v>488.3882559798352</v>
       </c>
       <c r="AC10" t="n">
-        <v>330.6097461314508</v>
+        <v>441.7771662863412</v>
       </c>
       <c r="AD10" t="n">
-        <v>267124.6767552402</v>
+        <v>356945.2628754756</v>
       </c>
       <c r="AE10" t="n">
-        <v>365491.7674455361</v>
+        <v>488388.2559798352</v>
       </c>
       <c r="AF10" t="n">
         <v>7.857225303287336e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.19907407407407</v>
       </c>
       <c r="AH10" t="n">
-        <v>330609.7461314508</v>
+        <v>441777.1662863413</v>
       </c>
     </row>
     <row r="11">
@@ -27572,28 +27572,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>253.5140360908993</v>
+        <v>343.4019420188423</v>
       </c>
       <c r="AB11" t="n">
-        <v>346.8690884293333</v>
+        <v>469.857686894642</v>
       </c>
       <c r="AC11" t="n">
-        <v>313.7643894635644</v>
+        <v>425.0151287068218</v>
       </c>
       <c r="AD11" t="n">
-        <v>253514.0360908993</v>
+        <v>343401.9420188423</v>
       </c>
       <c r="AE11" t="n">
-        <v>346869.0884293333</v>
+        <v>469857.686894642</v>
       </c>
       <c r="AF11" t="n">
         <v>8.038276505863456e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.80555555555555</v>
       </c>
       <c r="AH11" t="n">
-        <v>313764.3894635644</v>
+        <v>425015.1287068218</v>
       </c>
     </row>
     <row r="12">
@@ -27678,28 +27678,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>250.436097653466</v>
+        <v>340.3240035814089</v>
       </c>
       <c r="AB12" t="n">
-        <v>342.6577172701787</v>
+        <v>465.6463157354853</v>
       </c>
       <c r="AC12" t="n">
-        <v>309.9549456571418</v>
+        <v>421.2056849003986</v>
       </c>
       <c r="AD12" t="n">
-        <v>250436.097653466</v>
+        <v>340324.0035814089</v>
       </c>
       <c r="AE12" t="n">
-        <v>342657.7172701787</v>
+        <v>465646.3157354853</v>
       </c>
       <c r="AF12" t="n">
         <v>8.18816028671951e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.50462962962963</v>
       </c>
       <c r="AH12" t="n">
-        <v>309954.9456571417</v>
+        <v>421205.6849003986</v>
       </c>
     </row>
     <row r="13">
@@ -27784,28 +27784,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>247.1654167792042</v>
+        <v>327.0288270574768</v>
       </c>
       <c r="AB13" t="n">
-        <v>338.1826274057595</v>
+        <v>447.4552686736492</v>
       </c>
       <c r="AC13" t="n">
-        <v>305.9069520885532</v>
+        <v>404.7507658388492</v>
       </c>
       <c r="AD13" t="n">
-        <v>247165.4167792042</v>
+        <v>327028.8270574768</v>
       </c>
       <c r="AE13" t="n">
-        <v>338182.6274057595</v>
+        <v>447455.2686736492</v>
       </c>
       <c r="AF13" t="n">
         <v>8.358588884889164e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.16898148148148</v>
       </c>
       <c r="AH13" t="n">
-        <v>305906.9520885532</v>
+        <v>404750.7658388492</v>
       </c>
     </row>
     <row r="14">
@@ -27890,28 +27890,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>234.2831201179925</v>
+        <v>324.1368606271544</v>
       </c>
       <c r="AB14" t="n">
-        <v>320.5565007870803</v>
+        <v>443.4983526191276</v>
       </c>
       <c r="AC14" t="n">
-        <v>289.9630382559309</v>
+        <v>401.1714922990046</v>
       </c>
       <c r="AD14" t="n">
-        <v>234283.1201179925</v>
+        <v>324136.8606271544</v>
       </c>
       <c r="AE14" t="n">
-        <v>320556.5007870803</v>
+        <v>443498.3526191276</v>
       </c>
       <c r="AF14" t="n">
         <v>8.485359746267415e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.92592592592593</v>
       </c>
       <c r="AH14" t="n">
-        <v>289963.0382559309</v>
+        <v>401171.4922990046</v>
       </c>
     </row>
     <row r="15">
@@ -27996,28 +27996,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>234.8491140361204</v>
+        <v>324.7028545452823</v>
       </c>
       <c r="AB15" t="n">
-        <v>321.3309186357518</v>
+        <v>444.2727704677996</v>
       </c>
       <c r="AC15" t="n">
-        <v>290.6635467520278</v>
+        <v>401.8720007951015</v>
       </c>
       <c r="AD15" t="n">
-        <v>234849.1140361204</v>
+        <v>324702.8545452823</v>
       </c>
       <c r="AE15" t="n">
-        <v>321330.9186357518</v>
+        <v>444272.7704677996</v>
       </c>
       <c r="AF15" t="n">
         <v>8.486176869683299e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.92592592592593</v>
       </c>
       <c r="AH15" t="n">
-        <v>290663.5467520278</v>
+        <v>401872.0007951015</v>
       </c>
     </row>
     <row r="16">
@@ -28102,28 +28102,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>232.3753009705921</v>
+        <v>312.3060310565689</v>
       </c>
       <c r="AB16" t="n">
-        <v>317.9461384625679</v>
+        <v>427.3108896612886</v>
       </c>
       <c r="AC16" t="n">
-        <v>287.6018052480027</v>
+        <v>386.5289380866147</v>
       </c>
       <c r="AD16" t="n">
-        <v>232375.3009705921</v>
+        <v>312306.0310565689</v>
       </c>
       <c r="AE16" t="n">
-        <v>317946.1384625679</v>
+        <v>427310.8896612886</v>
       </c>
       <c r="AF16" t="n">
         <v>8.611780411896003e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>15.69444444444444</v>
       </c>
       <c r="AH16" t="n">
-        <v>287601.8052480027</v>
+        <v>386528.9380866147</v>
       </c>
     </row>
     <row r="17">
@@ -28208,28 +28208,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>231.1562444001937</v>
+        <v>311.0869744861704</v>
       </c>
       <c r="AB17" t="n">
-        <v>316.2781714819694</v>
+        <v>425.6429226806893</v>
       </c>
       <c r="AC17" t="n">
-        <v>286.0930266950256</v>
+        <v>385.0201595336374</v>
       </c>
       <c r="AD17" t="n">
-        <v>231156.2444001937</v>
+        <v>311086.9744861705</v>
       </c>
       <c r="AE17" t="n">
-        <v>316278.1714819694</v>
+        <v>425642.9226806893</v>
       </c>
       <c r="AF17" t="n">
         <v>8.659990693433036e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>15.60185185185185</v>
       </c>
       <c r="AH17" t="n">
-        <v>286093.0266950256</v>
+        <v>385020.1595336373</v>
       </c>
     </row>
     <row r="18">
@@ -28314,28 +28314,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>228.8779259757393</v>
+        <v>308.7071708352308</v>
       </c>
       <c r="AB18" t="n">
-        <v>313.1608757013173</v>
+        <v>422.3867703359463</v>
       </c>
       <c r="AC18" t="n">
-        <v>283.2732412485258</v>
+        <v>382.0747697986382</v>
       </c>
       <c r="AD18" t="n">
-        <v>228877.9259757393</v>
+        <v>308707.1708352308</v>
       </c>
       <c r="AE18" t="n">
-        <v>313160.8757013173</v>
+        <v>422386.7703359463</v>
       </c>
       <c r="AF18" t="n">
         <v>8.778823784485577e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15.39351851851852</v>
       </c>
       <c r="AH18" t="n">
-        <v>283273.2412485259</v>
+        <v>382074.7697986382</v>
       </c>
     </row>
     <row r="19">
@@ -28420,28 +28420,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>227.5925071357736</v>
+        <v>307.4217519952651</v>
       </c>
       <c r="AB19" t="n">
-        <v>311.4021089358002</v>
+        <v>420.6280035704283</v>
       </c>
       <c r="AC19" t="n">
-        <v>281.6823287146645</v>
+        <v>380.4838572647766</v>
       </c>
       <c r="AD19" t="n">
-        <v>227592.5071357736</v>
+        <v>307421.7519952651</v>
       </c>
       <c r="AE19" t="n">
-        <v>311402.1089358002</v>
+        <v>420628.0035704283</v>
       </c>
       <c r="AF19" t="n">
         <v>8.836956278929745e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>15.28935185185185</v>
       </c>
       <c r="AH19" t="n">
-        <v>281682.3287146645</v>
+        <v>380483.8572647766</v>
       </c>
     </row>
     <row r="20">
@@ -28526,28 +28526,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>226.3682158970395</v>
+        <v>306.197460756531</v>
       </c>
       <c r="AB20" t="n">
-        <v>309.7269796510476</v>
+        <v>418.9528742856749</v>
       </c>
       <c r="AC20" t="n">
-        <v>280.1670714177894</v>
+        <v>378.9685999679013</v>
       </c>
       <c r="AD20" t="n">
-        <v>226368.2158970395</v>
+        <v>306197.460756531</v>
       </c>
       <c r="AE20" t="n">
-        <v>309726.9796510476</v>
+        <v>418952.8742856749</v>
       </c>
       <c r="AF20" t="n">
         <v>8.88236499446947e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>15.20833333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>280167.0714177894</v>
+        <v>378968.5999679013</v>
       </c>
     </row>
     <row r="21">
@@ -28632,28 +28632,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>224.8157122904299</v>
+        <v>294.7219467267363</v>
       </c>
       <c r="AB21" t="n">
-        <v>307.6027757248601</v>
+        <v>403.2515697261609</v>
       </c>
       <c r="AC21" t="n">
-        <v>278.2455985329777</v>
+        <v>364.765805878628</v>
       </c>
       <c r="AD21" t="n">
-        <v>224815.7122904299</v>
+        <v>294721.9467267363</v>
       </c>
       <c r="AE21" t="n">
-        <v>307602.7757248601</v>
+        <v>403251.5697261609</v>
       </c>
       <c r="AF21" t="n">
         <v>8.943415786827505e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>15.10416666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>278245.5985329777</v>
+        <v>364765.805878628</v>
       </c>
     </row>
     <row r="22">
@@ -28738,28 +28738,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>223.7206401562834</v>
+        <v>293.6268745925897</v>
       </c>
       <c r="AB22" t="n">
-        <v>306.1044497197487</v>
+        <v>401.7532437210487</v>
       </c>
       <c r="AC22" t="n">
-        <v>276.8902706588799</v>
+        <v>363.41047800453</v>
       </c>
       <c r="AD22" t="n">
-        <v>223720.6401562834</v>
+        <v>293626.8745925897</v>
       </c>
       <c r="AE22" t="n">
-        <v>306104.4497197488</v>
+        <v>401753.2437210487</v>
       </c>
       <c r="AF22" t="n">
         <v>9.003415991936548e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>16</v>
+        <v>15.01157407407408</v>
       </c>
       <c r="AH22" t="n">
-        <v>276890.2706588799</v>
+        <v>363410.47800453</v>
       </c>
     </row>
     <row r="23">
@@ -28844,28 +28844,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>223.9278021416057</v>
+        <v>293.834036577912</v>
       </c>
       <c r="AB23" t="n">
-        <v>306.3878978874083</v>
+        <v>402.0366918887084</v>
       </c>
       <c r="AC23" t="n">
-        <v>277.1466669312402</v>
+        <v>363.6668742768903</v>
       </c>
       <c r="AD23" t="n">
-        <v>223927.8021416057</v>
+        <v>293834.036577912</v>
       </c>
       <c r="AE23" t="n">
-        <v>306387.8978874083</v>
+        <v>402036.6918887084</v>
       </c>
       <c r="AF23" t="n">
         <v>8.994777830111509e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>16</v>
+        <v>15.02314814814815</v>
       </c>
       <c r="AH23" t="n">
-        <v>277146.6669312402</v>
+        <v>363666.8742768903</v>
       </c>
     </row>
     <row r="24">
@@ -28950,28 +28950,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>223.9933498301349</v>
+        <v>293.8995842664412</v>
       </c>
       <c r="AB24" t="n">
-        <v>306.4775831266139</v>
+        <v>402.126377127914</v>
       </c>
       <c r="AC24" t="n">
-        <v>277.2277927370899</v>
+        <v>363.7480000827401</v>
       </c>
       <c r="AD24" t="n">
-        <v>223993.3498301349</v>
+        <v>293899.5842664412</v>
       </c>
       <c r="AE24" t="n">
-        <v>306477.5831266139</v>
+        <v>402126.377127914</v>
       </c>
       <c r="AF24" t="n">
         <v>8.991626068364536e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>16</v>
+        <v>15.02314814814815</v>
       </c>
       <c r="AH24" t="n">
-        <v>277227.7927370899</v>
+        <v>363748.0000827401</v>
       </c>
     </row>
   </sheetData>
@@ -29247,28 +29247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>238.5793269077961</v>
+        <v>324.8753209601365</v>
       </c>
       <c r="AB2" t="n">
-        <v>326.4347604521534</v>
+        <v>444.5087466252843</v>
       </c>
       <c r="AC2" t="n">
-        <v>295.2802850687607</v>
+        <v>402.0854557193106</v>
       </c>
       <c r="AD2" t="n">
-        <v>238579.3269077961</v>
+        <v>324875.3209601365</v>
       </c>
       <c r="AE2" t="n">
-        <v>326434.7604521534</v>
+        <v>444508.7466252844</v>
       </c>
       <c r="AF2" t="n">
         <v>1.055703364467936e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.68518518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>295280.2850687607</v>
+        <v>402085.4557193106</v>
       </c>
     </row>
     <row r="3">
@@ -29353,28 +29353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>218.3988010996774</v>
+        <v>295.03903156072</v>
       </c>
       <c r="AB3" t="n">
-        <v>298.822874739535</v>
+        <v>403.6854191848132</v>
       </c>
       <c r="AC3" t="n">
-        <v>270.3036389750208</v>
+        <v>365.1582493538581</v>
       </c>
       <c r="AD3" t="n">
-        <v>218398.8010996774</v>
+        <v>295039.0315607201</v>
       </c>
       <c r="AE3" t="n">
-        <v>298822.874739535</v>
+        <v>403685.4191848132</v>
       </c>
       <c r="AF3" t="n">
         <v>1.151620661577375e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.21527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>270303.6389750208</v>
+        <v>365158.2493538581</v>
       </c>
     </row>
     <row r="4">
@@ -29459,28 +29459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>202.4182001868714</v>
+        <v>279.0242652291331</v>
       </c>
       <c r="AB4" t="n">
-        <v>276.95751155629</v>
+        <v>381.7733093683092</v>
       </c>
       <c r="AC4" t="n">
-        <v>250.5250753657477</v>
+        <v>345.3374005444018</v>
       </c>
       <c r="AD4" t="n">
-        <v>202418.2001868714</v>
+        <v>279024.2652291331</v>
       </c>
       <c r="AE4" t="n">
-        <v>276957.51155629</v>
+        <v>381773.3093683092</v>
       </c>
       <c r="AF4" t="n">
         <v>1.215527880055168e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.3587962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>250525.0753657477</v>
+        <v>345337.4005444018</v>
       </c>
     </row>
     <row r="5">
@@ -29565,28 +29565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>188.8236806477836</v>
+        <v>265.4970654977494</v>
       </c>
       <c r="AB5" t="n">
-        <v>258.3568901750452</v>
+        <v>363.2647979178963</v>
       </c>
       <c r="AC5" t="n">
-        <v>233.6996711829871</v>
+        <v>328.5953154499576</v>
       </c>
       <c r="AD5" t="n">
-        <v>188823.6806477836</v>
+        <v>265497.0654977494</v>
       </c>
       <c r="AE5" t="n">
-        <v>258356.8901750453</v>
+        <v>363264.7979178963</v>
       </c>
       <c r="AF5" t="n">
         <v>1.256395586292041e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.86111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>233699.671182987</v>
+        <v>328595.3154499576</v>
       </c>
     </row>
     <row r="6">
@@ -29671,28 +29671,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>188.5820143791635</v>
+        <v>265.2553992291294</v>
       </c>
       <c r="AB6" t="n">
-        <v>258.0262317247562</v>
+        <v>362.934139467607</v>
       </c>
       <c r="AC6" t="n">
-        <v>233.4005703111114</v>
+        <v>328.2962145780818</v>
       </c>
       <c r="AD6" t="n">
-        <v>188582.0143791635</v>
+        <v>265255.3992291294</v>
       </c>
       <c r="AE6" t="n">
-        <v>258026.2317247562</v>
+        <v>362934.139467607</v>
       </c>
       <c r="AF6" t="n">
         <v>1.258299411533238e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.83796296296296</v>
       </c>
       <c r="AH6" t="n">
-        <v>233400.5703111114</v>
+        <v>328296.2145780819</v>
       </c>
     </row>
   </sheetData>
@@ -29968,28 +29968,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>466.5204335837647</v>
+        <v>605.5201183635791</v>
       </c>
       <c r="AB2" t="n">
-        <v>638.3138386582731</v>
+        <v>828.4993396073161</v>
       </c>
       <c r="AC2" t="n">
-        <v>577.3940617758259</v>
+        <v>749.4285254413194</v>
       </c>
       <c r="AD2" t="n">
-        <v>466520.4335837647</v>
+        <v>605520.118363579</v>
       </c>
       <c r="AE2" t="n">
-        <v>638313.8386582731</v>
+        <v>828499.3396073161</v>
       </c>
       <c r="AF2" t="n">
         <v>5.098147049307435e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.69675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>577394.0617758259</v>
+        <v>749428.5254413193</v>
       </c>
     </row>
     <row r="3">
@@ -30074,28 +30074,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>378.5540326423964</v>
+        <v>497.5951343700377</v>
       </c>
       <c r="AB3" t="n">
-        <v>517.9543280865769</v>
+        <v>680.8316151930959</v>
       </c>
       <c r="AC3" t="n">
-        <v>468.5214939674585</v>
+        <v>615.8540013922395</v>
       </c>
       <c r="AD3" t="n">
-        <v>378554.0326423964</v>
+        <v>497595.1343700376</v>
       </c>
       <c r="AE3" t="n">
-        <v>517954.3280865769</v>
+        <v>680831.6151930959</v>
       </c>
       <c r="AF3" t="n">
         <v>6.059417118903114e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.29861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>468521.4939674585</v>
+        <v>615854.0013922395</v>
       </c>
     </row>
     <row r="4">
@@ -30180,28 +30180,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>325.9398076423756</v>
+        <v>435.1196802648774</v>
       </c>
       <c r="AB4" t="n">
-        <v>445.9652242657618</v>
+        <v>595.3499426639048</v>
       </c>
       <c r="AC4" t="n">
-        <v>403.4029291779601</v>
+        <v>538.5305797149535</v>
       </c>
       <c r="AD4" t="n">
-        <v>325939.8076423756</v>
+        <v>435119.6802648774</v>
       </c>
       <c r="AE4" t="n">
-        <v>445965.2242657618</v>
+        <v>595349.9426639049</v>
       </c>
       <c r="AF4" t="n">
         <v>6.725474806719409e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.99537037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>403402.9291779601</v>
+        <v>538530.5797149536</v>
       </c>
     </row>
     <row r="5">
@@ -30286,28 +30286,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>302.5304615341502</v>
+        <v>401.815950662589</v>
       </c>
       <c r="AB5" t="n">
-        <v>413.9355241730253</v>
+        <v>549.7823105651988</v>
       </c>
       <c r="AC5" t="n">
-        <v>374.4300987081081</v>
+        <v>497.3118584691747</v>
       </c>
       <c r="AD5" t="n">
-        <v>302530.4615341502</v>
+        <v>401815.950662589</v>
       </c>
       <c r="AE5" t="n">
-        <v>413935.5241730253</v>
+        <v>549782.3105651988</v>
       </c>
       <c r="AF5" t="n">
         <v>7.228555741619483e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.53703703703703</v>
       </c>
       <c r="AH5" t="n">
-        <v>374430.0987081081</v>
+        <v>497311.8584691747</v>
       </c>
     </row>
     <row r="6">
@@ -30392,28 +30392,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>283.5075200792851</v>
+        <v>382.7588437889431</v>
       </c>
       <c r="AB6" t="n">
-        <v>387.907496441532</v>
+        <v>523.7075362004579</v>
       </c>
       <c r="AC6" t="n">
-        <v>350.8861494127421</v>
+        <v>473.7256239736288</v>
       </c>
       <c r="AD6" t="n">
-        <v>283507.5200792851</v>
+        <v>382758.8437889431</v>
       </c>
       <c r="AE6" t="n">
-        <v>387907.496441532</v>
+        <v>523707.5362004578</v>
       </c>
       <c r="AF6" t="n">
         <v>7.619895130358433e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.5300925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>350886.1494127421</v>
+        <v>473725.6239736288</v>
       </c>
     </row>
     <row r="7">
@@ -30498,28 +30498,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>267.3650498574395</v>
+        <v>366.5822081483167</v>
       </c>
       <c r="AB7" t="n">
-        <v>365.8206565284781</v>
+        <v>501.573949654156</v>
       </c>
       <c r="AC7" t="n">
-        <v>330.9072465019155</v>
+        <v>453.7044358626222</v>
       </c>
       <c r="AD7" t="n">
-        <v>267365.0498574395</v>
+        <v>366582.2081483167</v>
       </c>
       <c r="AE7" t="n">
-        <v>365820.6565284781</v>
+        <v>501573.9496541561</v>
       </c>
       <c r="AF7" t="n">
         <v>7.920231032813327e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.82407407407407</v>
       </c>
       <c r="AH7" t="n">
-        <v>330907.2465019155</v>
+        <v>453704.4358626222</v>
       </c>
     </row>
     <row r="8">
@@ -30604,28 +30604,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>262.2820917456349</v>
+        <v>351.5375467347446</v>
       </c>
       <c r="AB8" t="n">
-        <v>358.8659289956215</v>
+        <v>480.9891801844883</v>
       </c>
       <c r="AC8" t="n">
-        <v>324.6162684037733</v>
+        <v>435.0842479002343</v>
       </c>
       <c r="AD8" t="n">
-        <v>262282.0917456349</v>
+        <v>351537.5467347446</v>
       </c>
       <c r="AE8" t="n">
-        <v>358865.9289956215</v>
+        <v>480989.1801844883</v>
       </c>
       <c r="AF8" t="n">
         <v>8.17957876986414e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.25694444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>324616.2684037733</v>
+        <v>435084.2479002343</v>
       </c>
     </row>
     <row r="9">
@@ -30710,28 +30710,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>247.3119236472895</v>
+        <v>336.6346984441067</v>
       </c>
       <c r="AB9" t="n">
-        <v>338.3830845661005</v>
+        <v>460.5984456859728</v>
       </c>
       <c r="AC9" t="n">
-        <v>306.0882778988548</v>
+        <v>416.6395764836814</v>
       </c>
       <c r="AD9" t="n">
-        <v>247311.9236472895</v>
+        <v>336634.6984441067</v>
       </c>
       <c r="AE9" t="n">
-        <v>338383.0845661006</v>
+        <v>460598.4456859728</v>
       </c>
       <c r="AF9" t="n">
         <v>8.452833205891338e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.70138888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>306088.2778988548</v>
+        <v>416639.5764836814</v>
       </c>
     </row>
     <row r="10">
@@ -30816,28 +30816,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>243.8667359070693</v>
+        <v>323.2278074021188</v>
       </c>
       <c r="AB10" t="n">
-        <v>333.6692267089774</v>
+        <v>442.2545458920362</v>
       </c>
       <c r="AC10" t="n">
-        <v>301.8243040196729</v>
+        <v>400.0463927402531</v>
       </c>
       <c r="AD10" t="n">
-        <v>243866.7359070693</v>
+        <v>323227.8074021188</v>
       </c>
       <c r="AE10" t="n">
-        <v>333669.2267089774</v>
+        <v>442254.5458920362</v>
       </c>
       <c r="AF10" t="n">
         <v>8.646185117098083e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.33101851851852</v>
       </c>
       <c r="AH10" t="n">
-        <v>301824.3040196729</v>
+        <v>400046.3927402531</v>
       </c>
     </row>
     <row r="11">
@@ -30922,28 +30922,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>241.1384765145574</v>
+        <v>320.499548009607</v>
       </c>
       <c r="AB11" t="n">
-        <v>329.9363018458349</v>
+        <v>438.5216210288918</v>
       </c>
       <c r="AC11" t="n">
-        <v>298.4476442662747</v>
+        <v>396.6697329868542</v>
       </c>
       <c r="AD11" t="n">
-        <v>241138.4765145574</v>
+        <v>320499.548009607</v>
       </c>
       <c r="AE11" t="n">
-        <v>329936.3018458349</v>
+        <v>438521.6210288918</v>
       </c>
       <c r="AF11" t="n">
         <v>8.798792840075772e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.04166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>298447.6442662746</v>
+        <v>396669.7329868542</v>
       </c>
     </row>
     <row r="12">
@@ -31028,28 +31028,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>226.9382681588709</v>
+        <v>306.3666594616247</v>
       </c>
       <c r="AB12" t="n">
-        <v>310.5069503046158</v>
+        <v>419.1843794185041</v>
       </c>
       <c r="AC12" t="n">
-        <v>280.872602766877</v>
+        <v>379.1780105757728</v>
       </c>
       <c r="AD12" t="n">
-        <v>226938.2681588709</v>
+        <v>306366.6594616247</v>
       </c>
       <c r="AE12" t="n">
-        <v>310506.9503046158</v>
+        <v>419184.3794185041</v>
       </c>
       <c r="AF12" t="n">
         <v>9.023983772623187e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.64814814814815</v>
       </c>
       <c r="AH12" t="n">
-        <v>280872.602766877</v>
+        <v>379178.0105757728</v>
       </c>
     </row>
     <row r="13">
@@ -31134,28 +31134,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>228.3395206052495</v>
+        <v>307.7679119080033</v>
       </c>
       <c r="AB13" t="n">
-        <v>312.424205720645</v>
+        <v>421.1016348345343</v>
       </c>
       <c r="AC13" t="n">
-        <v>282.6068780168859</v>
+        <v>380.9122858257819</v>
       </c>
       <c r="AD13" t="n">
-        <v>228339.5206052495</v>
+        <v>307767.9119080033</v>
       </c>
       <c r="AE13" t="n">
-        <v>312424.205720645</v>
+        <v>421101.6348345343</v>
       </c>
       <c r="AF13" t="n">
         <v>8.956890049491508e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.76388888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>282606.8780168859</v>
+        <v>380912.2858257819</v>
       </c>
     </row>
     <row r="14">
@@ -31240,28 +31240,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>225.8228858507514</v>
+        <v>305.2512771535052</v>
       </c>
       <c r="AB14" t="n">
-        <v>308.9808350234528</v>
+        <v>417.6582641373403</v>
       </c>
       <c r="AC14" t="n">
-        <v>279.4921377862315</v>
+        <v>377.797545595127</v>
       </c>
       <c r="AD14" t="n">
-        <v>225822.8858507514</v>
+        <v>305251.2771535051</v>
       </c>
       <c r="AE14" t="n">
-        <v>308980.8350234528</v>
+        <v>417658.2641373403</v>
       </c>
       <c r="AF14" t="n">
         <v>9.097176925130472e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.52083333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>279492.1377862315</v>
+        <v>377797.545595127</v>
       </c>
     </row>
     <row r="15">
@@ -31346,28 +31346,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>223.561054137802</v>
+        <v>302.8879602140706</v>
       </c>
       <c r="AB15" t="n">
-        <v>305.8860970888244</v>
+        <v>414.424669638621</v>
       </c>
       <c r="AC15" t="n">
-        <v>276.6927572965911</v>
+        <v>374.8725608169871</v>
       </c>
       <c r="AD15" t="n">
-        <v>223561.054137802</v>
+        <v>302887.9602140706</v>
       </c>
       <c r="AE15" t="n">
-        <v>305886.0970888244</v>
+        <v>414424.669638621</v>
       </c>
       <c r="AF15" t="n">
         <v>9.219653466992663e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.3125</v>
       </c>
       <c r="AH15" t="n">
-        <v>276692.7572965911</v>
+        <v>374872.5608169871</v>
       </c>
     </row>
     <row r="16">
@@ -31452,28 +31452,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>221.3220715159089</v>
+        <v>290.7887595168951</v>
       </c>
       <c r="AB16" t="n">
-        <v>302.8226222886099</v>
+        <v>397.8700094656832</v>
       </c>
       <c r="AC16" t="n">
-        <v>273.9216562316942</v>
+        <v>359.897854176343</v>
       </c>
       <c r="AD16" t="n">
-        <v>221322.0715159089</v>
+        <v>290788.7595168952</v>
       </c>
       <c r="AE16" t="n">
-        <v>302822.6222886099</v>
+        <v>397870.0094656831</v>
       </c>
       <c r="AF16" t="n">
         <v>9.338836316992026e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>15.11574074074074</v>
       </c>
       <c r="AH16" t="n">
-        <v>273921.6562316942</v>
+        <v>359897.854176343</v>
       </c>
     </row>
     <row r="17">
@@ -31558,28 +31558,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>219.8079167390443</v>
+        <v>289.2746047400305</v>
       </c>
       <c r="AB17" t="n">
-        <v>300.7508889231103</v>
+        <v>395.7982761001825</v>
       </c>
       <c r="AC17" t="n">
-        <v>272.0476461909012</v>
+        <v>358.0238441355498</v>
       </c>
       <c r="AD17" t="n">
-        <v>219807.9167390443</v>
+        <v>289274.6047400305</v>
       </c>
       <c r="AE17" t="n">
-        <v>300750.8889231103</v>
+        <v>395798.2761001826</v>
       </c>
       <c r="AF17" t="n">
         <v>9.398366747697951e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>15.02314814814815</v>
       </c>
       <c r="AH17" t="n">
-        <v>272047.6461909012</v>
+        <v>358023.8441355498</v>
       </c>
     </row>
     <row r="18">
@@ -31664,28 +31664,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>208.978194413316</v>
+        <v>288.3724202972888</v>
       </c>
       <c r="AB18" t="n">
-        <v>285.9331850634269</v>
+        <v>394.5638675440547</v>
       </c>
       <c r="AC18" t="n">
-        <v>258.6441231908033</v>
+        <v>356.9072457995156</v>
       </c>
       <c r="AD18" t="n">
-        <v>208978.194413316</v>
+        <v>288372.4202972888</v>
       </c>
       <c r="AE18" t="n">
-        <v>285933.185063427</v>
+        <v>394563.8675440548</v>
       </c>
       <c r="AF18" t="n">
         <v>9.450943828915684e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.94212962962963</v>
       </c>
       <c r="AH18" t="n">
-        <v>258644.1231908033</v>
+        <v>356907.2457995156</v>
       </c>
     </row>
     <row r="19">
@@ -31770,28 +31770,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>209.0911763990816</v>
+        <v>288.4854022830543</v>
       </c>
       <c r="AB19" t="n">
-        <v>286.0877720007647</v>
+        <v>394.7184544813927</v>
       </c>
       <c r="AC19" t="n">
-        <v>258.7839565678057</v>
+        <v>357.047079176518</v>
       </c>
       <c r="AD19" t="n">
-        <v>209091.1763990816</v>
+        <v>288485.4022830543</v>
       </c>
       <c r="AE19" t="n">
-        <v>286087.7720007647</v>
+        <v>394718.4544813926</v>
       </c>
       <c r="AF19" t="n">
         <v>9.436305198414227e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.96527777777778</v>
       </c>
       <c r="AH19" t="n">
-        <v>258783.9565678057</v>
+        <v>357047.079176518</v>
       </c>
     </row>
   </sheetData>
@@ -32067,28 +32067,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.6869074926601</v>
+        <v>359.1636464081788</v>
       </c>
       <c r="AB2" t="n">
-        <v>359.4198157599117</v>
+        <v>491.4235461974539</v>
       </c>
       <c r="AC2" t="n">
-        <v>325.1172929926646</v>
+        <v>444.522772665647</v>
       </c>
       <c r="AD2" t="n">
-        <v>262686.9074926601</v>
+        <v>359163.6464081788</v>
       </c>
       <c r="AE2" t="n">
-        <v>359419.8157599117</v>
+        <v>491423.5461974539</v>
       </c>
       <c r="AF2" t="n">
         <v>9.305030604961567e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.94675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>325117.2929926646</v>
+        <v>444522.772665647</v>
       </c>
     </row>
     <row r="3">
@@ -32173,28 +32173,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>239.6919462324401</v>
+        <v>326.4502749068274</v>
       </c>
       <c r="AB3" t="n">
-        <v>327.957095297431</v>
+        <v>446.6636680972111</v>
       </c>
       <c r="AC3" t="n">
-        <v>296.6573304130158</v>
+        <v>404.034714510408</v>
       </c>
       <c r="AD3" t="n">
-        <v>239691.9462324401</v>
+        <v>326450.2749068274</v>
       </c>
       <c r="AE3" t="n">
-        <v>327957.095297431</v>
+        <v>446663.6680972112</v>
       </c>
       <c r="AF3" t="n">
         <v>1.025776827214061e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.1875</v>
       </c>
       <c r="AH3" t="n">
-        <v>296657.3304130158</v>
+        <v>404034.714510408</v>
       </c>
     </row>
     <row r="4">
@@ -32279,28 +32279,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>222.2010828029995</v>
+        <v>299.3424864627374</v>
       </c>
       <c r="AB4" t="n">
-        <v>304.0253243108476</v>
+        <v>409.5735960367842</v>
       </c>
       <c r="AC4" t="n">
-        <v>275.0095740609328</v>
+        <v>370.4844668711851</v>
       </c>
       <c r="AD4" t="n">
-        <v>222201.0828029995</v>
+        <v>299342.4864627374</v>
       </c>
       <c r="AE4" t="n">
-        <v>304025.3243108476</v>
+        <v>409573.5960367842</v>
       </c>
       <c r="AF4" t="n">
         <v>1.091932396686979e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.14583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>275009.5740609328</v>
+        <v>370484.4668711851</v>
       </c>
     </row>
     <row r="5">
@@ -32385,28 +32385,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>206.9687733994527</v>
+        <v>284.0760116404096</v>
       </c>
       <c r="AB5" t="n">
-        <v>283.1838065828619</v>
+        <v>388.68533167554</v>
       </c>
       <c r="AC5" t="n">
-        <v>256.1571415336456</v>
+        <v>351.589749143715</v>
       </c>
       <c r="AD5" t="n">
-        <v>206968.7733994527</v>
+        <v>284076.0116404096</v>
       </c>
       <c r="AE5" t="n">
-        <v>283183.8065828619</v>
+        <v>388685.33167554</v>
       </c>
       <c r="AF5" t="n">
         <v>1.141457698695711e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.43981481481481</v>
       </c>
       <c r="AH5" t="n">
-        <v>256157.1415336456</v>
+        <v>351589.749143715</v>
       </c>
     </row>
     <row r="6">
@@ -32491,28 +32491,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>192.902950268888</v>
+        <v>270.0775083175491</v>
       </c>
       <c r="AB6" t="n">
-        <v>263.9383268353121</v>
+        <v>369.5319618588217</v>
       </c>
       <c r="AC6" t="n">
-        <v>238.7484233619953</v>
+        <v>334.2643500603809</v>
       </c>
       <c r="AD6" t="n">
-        <v>192902.950268888</v>
+        <v>270077.5083175491</v>
       </c>
       <c r="AE6" t="n">
-        <v>263938.3268353121</v>
+        <v>369531.9618588217</v>
       </c>
       <c r="AF6" t="n">
         <v>1.179789551449701e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.94212962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>238748.4233619953</v>
+        <v>334264.3500603809</v>
       </c>
     </row>
     <row r="7">
@@ -32597,28 +32597,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>191.5772769565396</v>
+        <v>268.7518350052007</v>
       </c>
       <c r="AB7" t="n">
-        <v>262.124482124779</v>
+        <v>367.7181171482877</v>
       </c>
       <c r="AC7" t="n">
-        <v>237.1076894448879</v>
+        <v>332.6236161432732</v>
       </c>
       <c r="AD7" t="n">
-        <v>191577.2769565396</v>
+        <v>268751.8350052007</v>
       </c>
       <c r="AE7" t="n">
-        <v>262124.482124779</v>
+        <v>367718.1171482877</v>
       </c>
       <c r="AF7" t="n">
         <v>1.192368856326458e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.78009259259259</v>
       </c>
       <c r="AH7" t="n">
-        <v>237107.6894448879</v>
+        <v>332623.6161432732</v>
       </c>
     </row>
     <row r="8">
@@ -32703,28 +32703,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>191.7347449954154</v>
+        <v>268.9093030440765</v>
       </c>
       <c r="AB8" t="n">
-        <v>262.3399368425684</v>
+        <v>367.9335718660772</v>
       </c>
       <c r="AC8" t="n">
-        <v>237.3025814668041</v>
+        <v>332.8185081651895</v>
       </c>
       <c r="AD8" t="n">
-        <v>191734.7449954154</v>
+        <v>268909.3030440765</v>
       </c>
       <c r="AE8" t="n">
-        <v>262339.9368425683</v>
+        <v>367933.5718660772</v>
       </c>
       <c r="AF8" t="n">
         <v>1.19075456296455e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.80324074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>237302.5814668041</v>
+        <v>332818.5081651895</v>
       </c>
     </row>
   </sheetData>
@@ -33000,28 +33000,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>325.1979412367295</v>
+        <v>432.5891259812126</v>
       </c>
       <c r="AB2" t="n">
-        <v>444.950169920721</v>
+        <v>591.8875266528189</v>
       </c>
       <c r="AC2" t="n">
-        <v>402.4847501949723</v>
+        <v>535.3986118284342</v>
       </c>
       <c r="AD2" t="n">
-        <v>325197.9412367295</v>
+        <v>432589.1259812126</v>
       </c>
       <c r="AE2" t="n">
-        <v>444950.169920721</v>
+        <v>591887.5266528189</v>
       </c>
       <c r="AF2" t="n">
         <v>7.389169727947939e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.68981481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>402484.7501949723</v>
+        <v>535398.6118284343</v>
       </c>
     </row>
     <row r="3">
@@ -33106,28 +33106,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>283.8479704661069</v>
+        <v>381.3748350073336</v>
       </c>
       <c r="AB3" t="n">
-        <v>388.3733156803926</v>
+        <v>521.8138743273014</v>
       </c>
       <c r="AC3" t="n">
-        <v>351.3075115172271</v>
+        <v>472.0126905318754</v>
       </c>
       <c r="AD3" t="n">
-        <v>283847.9704661068</v>
+        <v>381374.8350073336</v>
       </c>
       <c r="AE3" t="n">
-        <v>388373.3156803926</v>
+        <v>521813.8743273014</v>
       </c>
       <c r="AF3" t="n">
         <v>8.363796978758324e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.15509259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>351307.5115172271</v>
+        <v>472012.6905318754</v>
       </c>
     </row>
     <row r="4">
@@ -33212,28 +33212,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>252.7421098346058</v>
+        <v>340.6076246255496</v>
       </c>
       <c r="AB4" t="n">
-        <v>345.81290487049</v>
+        <v>466.0343785605561</v>
       </c>
       <c r="AC4" t="n">
-        <v>312.8090065812139</v>
+        <v>421.5567115540941</v>
       </c>
       <c r="AD4" t="n">
-        <v>252742.1098346058</v>
+        <v>340607.6246255497</v>
       </c>
       <c r="AE4" t="n">
-        <v>345812.90487049</v>
+        <v>466034.3785605561</v>
       </c>
       <c r="AF4" t="n">
         <v>9.026100496922654e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.75462962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>312809.0065812139</v>
+        <v>421556.7115540942</v>
       </c>
     </row>
     <row r="5">
@@ -33318,28 +33318,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>235.5041090558428</v>
+        <v>323.3354584280056</v>
       </c>
       <c r="AB5" t="n">
-        <v>322.2271117180764</v>
+        <v>442.4018387748825</v>
       </c>
       <c r="AC5" t="n">
-        <v>291.4742084243906</v>
+        <v>400.1796281970873</v>
       </c>
       <c r="AD5" t="n">
-        <v>235504.1090558428</v>
+        <v>323335.4584280056</v>
       </c>
       <c r="AE5" t="n">
-        <v>322227.1117180764</v>
+        <v>442401.8387748825</v>
       </c>
       <c r="AF5" t="n">
         <v>9.524489431996146e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.8287037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>291474.2084243906</v>
+        <v>400179.6281970873</v>
       </c>
     </row>
     <row r="6">
@@ -33424,28 +33424,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>229.7744269840495</v>
+        <v>307.8097869905175</v>
       </c>
       <c r="AB6" t="n">
-        <v>314.3875079317198</v>
+        <v>421.1589301698284</v>
       </c>
       <c r="AC6" t="n">
-        <v>284.3828054204484</v>
+        <v>380.9641129746902</v>
       </c>
       <c r="AD6" t="n">
-        <v>229774.4269840496</v>
+        <v>307809.7869905175</v>
       </c>
       <c r="AE6" t="n">
-        <v>314387.5079317198</v>
+        <v>421158.9301698284</v>
       </c>
       <c r="AF6" t="n">
         <v>9.945766523504101e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.11111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>284382.8054204484</v>
+        <v>380964.1129746902</v>
       </c>
     </row>
     <row r="7">
@@ -33530,28 +33530,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>215.9957858751179</v>
+        <v>294.0984656892902</v>
       </c>
       <c r="AB7" t="n">
-        <v>295.5349632957448</v>
+        <v>402.3984954646851</v>
       </c>
       <c r="AC7" t="n">
-        <v>267.3295211848122</v>
+        <v>363.9941478273702</v>
       </c>
       <c r="AD7" t="n">
-        <v>215995.7858751179</v>
+        <v>294098.4656892901</v>
       </c>
       <c r="AE7" t="n">
-        <v>295534.9632957448</v>
+        <v>402398.4954646851</v>
       </c>
       <c r="AF7" t="n">
         <v>1.023538587133014e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.65972222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>267329.5211848122</v>
+        <v>363994.1478273702</v>
       </c>
     </row>
     <row r="8">
@@ -33636,28 +33636,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>212.2790237870115</v>
+        <v>290.2802183746984</v>
       </c>
       <c r="AB8" t="n">
-        <v>290.4495254348293</v>
+        <v>397.1742010396777</v>
       </c>
       <c r="AC8" t="n">
-        <v>262.729430375884</v>
+        <v>359.2684527299423</v>
       </c>
       <c r="AD8" t="n">
-        <v>212279.0237870115</v>
+        <v>290280.2183746984</v>
       </c>
       <c r="AE8" t="n">
-        <v>290449.5254348293</v>
+        <v>397174.2010396777</v>
       </c>
       <c r="AF8" t="n">
         <v>1.051780626787179e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.23148148148148</v>
       </c>
       <c r="AH8" t="n">
-        <v>262729.430375884</v>
+        <v>359268.4527299423</v>
       </c>
     </row>
     <row r="9">
@@ -33742,28 +33742,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>198.1931869863256</v>
+        <v>276.2617013817167</v>
       </c>
       <c r="AB9" t="n">
-        <v>271.1766621008787</v>
+        <v>377.9934476365587</v>
       </c>
       <c r="AC9" t="n">
-        <v>245.2959420688859</v>
+        <v>341.9182835112605</v>
       </c>
       <c r="AD9" t="n">
-        <v>198193.1869863256</v>
+        <v>276261.7013817167</v>
       </c>
       <c r="AE9" t="n">
-        <v>271176.6621008787</v>
+        <v>377993.4476365587</v>
       </c>
       <c r="AF9" t="n">
         <v>1.083220662108065e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.79166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>245295.9420688859</v>
+        <v>341918.2835112605</v>
       </c>
     </row>
     <row r="10">
@@ -33848,28 +33848,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>198.8082796373842</v>
+        <v>276.8767940327753</v>
       </c>
       <c r="AB10" t="n">
-        <v>272.0182590020293</v>
+        <v>378.8350445377097</v>
       </c>
       <c r="AC10" t="n">
-        <v>246.0572181429796</v>
+        <v>342.6795595853543</v>
       </c>
       <c r="AD10" t="n">
-        <v>198808.2796373842</v>
+        <v>276876.7940327753</v>
       </c>
       <c r="AE10" t="n">
-        <v>272018.2590020293</v>
+        <v>378835.0445377097</v>
       </c>
       <c r="AF10" t="n">
         <v>1.075232595009804e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.90740740740741</v>
       </c>
       <c r="AH10" t="n">
-        <v>246057.2181429796</v>
+        <v>342679.5595853543</v>
       </c>
     </row>
     <row r="11">
@@ -33954,28 +33954,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>197.8737911030491</v>
+        <v>275.9423054984403</v>
       </c>
       <c r="AB11" t="n">
-        <v>270.7396505626282</v>
+        <v>377.5564360983079</v>
       </c>
       <c r="AC11" t="n">
-        <v>244.9006382984963</v>
+        <v>341.5229797408708</v>
       </c>
       <c r="AD11" t="n">
-        <v>197873.7911030491</v>
+        <v>275942.3054984403</v>
       </c>
       <c r="AE11" t="n">
-        <v>270739.6505626282</v>
+        <v>377556.436098308</v>
       </c>
       <c r="AF11" t="n">
         <v>1.083359103478919e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.79166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>244900.6382984963</v>
+        <v>341522.9797408708</v>
       </c>
     </row>
     <row r="12">
@@ -34060,28 +34060,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>197.9294719862429</v>
+        <v>275.997986381634</v>
       </c>
       <c r="AB12" t="n">
-        <v>270.8158356034811</v>
+        <v>377.6326211391609</v>
       </c>
       <c r="AC12" t="n">
-        <v>244.9695523459766</v>
+        <v>341.5918937883511</v>
       </c>
       <c r="AD12" t="n">
-        <v>197929.4719862429</v>
+        <v>275997.986381634</v>
       </c>
       <c r="AE12" t="n">
-        <v>270815.8356034811</v>
+        <v>377632.6211391609</v>
       </c>
       <c r="AF12" t="n">
         <v>1.083289882793492e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.79166666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>244969.5523459766</v>
+        <v>341591.8937883511</v>
       </c>
     </row>
   </sheetData>
@@ -34357,28 +34357,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.7203393066545</v>
+        <v>301.363851790731</v>
       </c>
       <c r="AB2" t="n">
-        <v>295.1580851489283</v>
+        <v>412.3393172548895</v>
       </c>
       <c r="AC2" t="n">
-        <v>266.9886117593759</v>
+        <v>372.9862315379485</v>
       </c>
       <c r="AD2" t="n">
-        <v>215720.3393066545</v>
+        <v>301363.851790731</v>
       </c>
       <c r="AE2" t="n">
-        <v>295158.0851489283</v>
+        <v>412339.3172548895</v>
       </c>
       <c r="AF2" t="n">
         <v>1.208596728937011e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.52777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>266988.6117593759</v>
+        <v>372986.2315379485</v>
       </c>
     </row>
     <row r="3">
@@ -34463,28 +34463,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>197.7849773566447</v>
+        <v>273.8414280438104</v>
       </c>
       <c r="AB3" t="n">
-        <v>270.6181316766117</v>
+        <v>374.6819228807114</v>
       </c>
       <c r="AC3" t="n">
-        <v>244.7907170044084</v>
+        <v>338.922806030357</v>
       </c>
       <c r="AD3" t="n">
-        <v>197784.9773566447</v>
+        <v>273841.4280438104</v>
       </c>
       <c r="AE3" t="n">
-        <v>270618.1316766117</v>
+        <v>374681.9228807114</v>
       </c>
       <c r="AF3" t="n">
         <v>1.302622475484804e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.33564814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>244790.7170044084</v>
+        <v>338922.806030357</v>
       </c>
     </row>
     <row r="4">
@@ -34569,28 +34569,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>185.5385497284384</v>
+        <v>261.6623202233083</v>
       </c>
       <c r="AB4" t="n">
-        <v>253.8620291214519</v>
+        <v>358.0179302563844</v>
       </c>
       <c r="AC4" t="n">
-        <v>229.6337933597701</v>
+        <v>323.8492014740353</v>
       </c>
       <c r="AD4" t="n">
-        <v>185538.5497284384</v>
+        <v>261662.3202233083</v>
       </c>
       <c r="AE4" t="n">
-        <v>253862.0291214519</v>
+        <v>358017.9302563844</v>
       </c>
       <c r="AF4" t="n">
         <v>1.335017175607823e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.96527777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>229633.7933597701</v>
+        <v>323849.2014740353</v>
       </c>
     </row>
     <row r="5">
@@ -34675,28 +34675,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>185.587573268266</v>
+        <v>261.7113437631359</v>
       </c>
       <c r="AB5" t="n">
-        <v>253.9291052914099</v>
+        <v>358.0850064263424</v>
       </c>
       <c r="AC5" t="n">
-        <v>229.6944678742093</v>
+        <v>323.9098759884745</v>
       </c>
       <c r="AD5" t="n">
-        <v>185587.573268266</v>
+        <v>261711.3437631359</v>
       </c>
       <c r="AE5" t="n">
-        <v>253929.1052914099</v>
+        <v>358085.0064263424</v>
       </c>
       <c r="AF5" t="n">
         <v>1.334533930214406e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.96527777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>229694.4678742093</v>
+        <v>323909.8759884745</v>
       </c>
     </row>
   </sheetData>
@@ -34972,28 +34972,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.2061063767555</v>
+        <v>265.3120880994471</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.2483860457426</v>
+        <v>363.0117036809121</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.4106453425167</v>
+        <v>328.3663761717311</v>
       </c>
       <c r="AD2" t="n">
-        <v>190206.1063767555</v>
+        <v>265312.0880994471</v>
       </c>
       <c r="AE2" t="n">
-        <v>260248.3860457425</v>
+        <v>363011.7036809121</v>
       </c>
       <c r="AF2" t="n">
         <v>1.480740119306258e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.33564814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>235410.6453425167</v>
+        <v>328366.3761717312</v>
       </c>
     </row>
     <row r="3">
@@ -35078,28 +35078,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.3079214404485</v>
+        <v>265.41390316314</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.3876939076509</v>
+        <v>363.1510115428205</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.5366578576043</v>
+        <v>328.4923886868187</v>
       </c>
       <c r="AD3" t="n">
-        <v>190307.9214404485</v>
+        <v>265413.9031631401</v>
       </c>
       <c r="AE3" t="n">
-        <v>260387.6939076509</v>
+        <v>363151.0115428205</v>
       </c>
       <c r="AF3" t="n">
         <v>1.480367255544671e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.34722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>235536.6578576043</v>
+        <v>328492.3886868188</v>
       </c>
     </row>
   </sheetData>
@@ -61620,28 +61620,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>441.9304959787179</v>
+        <v>580.5896076240555</v>
       </c>
       <c r="AB2" t="n">
-        <v>604.6688011955645</v>
+        <v>794.3883149569901</v>
       </c>
       <c r="AC2" t="n">
-        <v>546.9600594674516</v>
+        <v>718.5730091084969</v>
       </c>
       <c r="AD2" t="n">
-        <v>441930.4959787179</v>
+        <v>580589.6076240555</v>
       </c>
       <c r="AE2" t="n">
-        <v>604668.8011955644</v>
+        <v>794388.3149569902</v>
       </c>
       <c r="AF2" t="n">
         <v>5.374762781611528e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.68981481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>546960.0594674516</v>
+        <v>718573.0091084968</v>
       </c>
     </row>
     <row r="3">
@@ -61726,28 +61726,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>359.9168636150671</v>
+        <v>478.7626499655307</v>
       </c>
       <c r="AB3" t="n">
-        <v>492.4541312095165</v>
+        <v>655.0641792002746</v>
       </c>
       <c r="AC3" t="n">
-        <v>445.4550000905936</v>
+        <v>592.5457733257495</v>
       </c>
       <c r="AD3" t="n">
-        <v>359916.8636150672</v>
+        <v>478762.6499655307</v>
       </c>
       <c r="AE3" t="n">
-        <v>492454.1312095165</v>
+        <v>655064.1792002745</v>
       </c>
       <c r="AF3" t="n">
         <v>6.32347632831039e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.68518518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>445455.0000905935</v>
+        <v>592545.7733257494</v>
       </c>
     </row>
     <row r="4">
@@ -61832,28 +61832,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>319.1110673645054</v>
+        <v>428.050191067532</v>
       </c>
       <c r="AB4" t="n">
-        <v>436.6218405548208</v>
+        <v>585.6771556602451</v>
       </c>
       <c r="AC4" t="n">
-        <v>394.95126489487</v>
+        <v>529.7809499270812</v>
       </c>
       <c r="AD4" t="n">
-        <v>319111.0673645054</v>
+        <v>428050.1910675319</v>
       </c>
       <c r="AE4" t="n">
-        <v>436621.8405548208</v>
+        <v>585677.1556602451</v>
       </c>
       <c r="AF4" t="n">
         <v>6.995197742171635e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.50925925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>394951.26489487</v>
+        <v>529780.9499270812</v>
       </c>
     </row>
     <row r="5">
@@ -61938,28 +61938,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>296.3160457214403</v>
+        <v>385.4428551594499</v>
       </c>
       <c r="AB5" t="n">
-        <v>405.4326862973993</v>
+        <v>527.37991896781</v>
       </c>
       <c r="AC5" t="n">
-        <v>366.7387597455238</v>
+        <v>477.0475196838865</v>
       </c>
       <c r="AD5" t="n">
-        <v>296316.0457214403</v>
+        <v>385442.85515945</v>
       </c>
       <c r="AE5" t="n">
-        <v>405432.6862973993</v>
+        <v>527379.91896781</v>
       </c>
       <c r="AF5" t="n">
         <v>7.51844641547831e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.07407407407408</v>
       </c>
       <c r="AH5" t="n">
-        <v>366738.7597455238</v>
+        <v>477047.5196838866</v>
       </c>
     </row>
     <row r="6">
@@ -62044,28 +62044,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>278.454861624753</v>
+        <v>367.5475056439819</v>
       </c>
       <c r="AB6" t="n">
-        <v>380.9942262364822</v>
+        <v>502.8947122736451</v>
       </c>
       <c r="AC6" t="n">
-        <v>344.6326720132265</v>
+        <v>454.8991467514093</v>
       </c>
       <c r="AD6" t="n">
-        <v>278454.861624753</v>
+        <v>367547.5056439819</v>
       </c>
       <c r="AE6" t="n">
-        <v>380994.2262364822</v>
+        <v>502894.7122736451</v>
       </c>
       <c r="AF6" t="n">
         <v>7.887893193101996e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.18287037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>344632.6720132264</v>
+        <v>454899.1467514093</v>
       </c>
     </row>
     <row r="7">
@@ -62150,28 +62150,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>262.0910281062418</v>
+        <v>351.1495067066898</v>
       </c>
       <c r="AB7" t="n">
-        <v>358.6045072950709</v>
+        <v>480.458246698986</v>
       </c>
       <c r="AC7" t="n">
-        <v>324.3797964234156</v>
+        <v>434.6039859614185</v>
       </c>
       <c r="AD7" t="n">
-        <v>262091.0281062418</v>
+        <v>351149.5067066898</v>
       </c>
       <c r="AE7" t="n">
-        <v>358604.5072950709</v>
+        <v>480458.246698986</v>
       </c>
       <c r="AF7" t="n">
         <v>8.213839192816955e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.46527777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>324379.7964234156</v>
+        <v>434603.9859614185</v>
       </c>
     </row>
     <row r="8">
@@ -62256,28 +62256,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>247.4310978795197</v>
+        <v>336.5568962876753</v>
       </c>
       <c r="AB8" t="n">
-        <v>338.5461440082339</v>
+        <v>460.4919933431544</v>
       </c>
       <c r="AC8" t="n">
-        <v>306.2357751766862</v>
+        <v>416.5432838030547</v>
       </c>
       <c r="AD8" t="n">
-        <v>247431.0978795197</v>
+        <v>336556.8962876752</v>
       </c>
       <c r="AE8" t="n">
-        <v>338546.1440082339</v>
+        <v>460491.9933431544</v>
       </c>
       <c r="AF8" t="n">
         <v>8.473480588027158e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.93287037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>306235.7751766862</v>
+        <v>416543.2838030548</v>
       </c>
     </row>
     <row r="9">
@@ -62362,28 +62362,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>243.5546512087026</v>
+        <v>322.7406325804973</v>
       </c>
       <c r="AB9" t="n">
-        <v>333.2422186564672</v>
+        <v>441.5879718084574</v>
       </c>
       <c r="AC9" t="n">
-        <v>301.4380490163845</v>
+        <v>399.4434355516685</v>
       </c>
       <c r="AD9" t="n">
-        <v>243554.6512087026</v>
+        <v>322740.6325804974</v>
       </c>
       <c r="AE9" t="n">
-        <v>333242.2186564672</v>
+        <v>441587.9718084574</v>
       </c>
       <c r="AF9" t="n">
         <v>8.702014589348215e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.48148148148148</v>
       </c>
       <c r="AH9" t="n">
-        <v>301438.0490163845</v>
+        <v>399443.4355516685</v>
       </c>
     </row>
     <row r="10">
@@ -62468,28 +62468,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>240.2311961292171</v>
+        <v>319.4171775010118</v>
       </c>
       <c r="AB10" t="n">
-        <v>328.6949207962273</v>
+        <v>437.0406739482152</v>
       </c>
       <c r="AC10" t="n">
-        <v>297.3247388817518</v>
+        <v>395.3301254170351</v>
       </c>
       <c r="AD10" t="n">
-        <v>240231.1961292171</v>
+        <v>319417.1775010119</v>
       </c>
       <c r="AE10" t="n">
-        <v>328694.9207962273</v>
+        <v>437040.6739482151</v>
       </c>
       <c r="AF10" t="n">
         <v>8.895599247734058e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.12268518518519</v>
       </c>
       <c r="AH10" t="n">
-        <v>297324.7388817518</v>
+        <v>395330.1254170351</v>
       </c>
     </row>
     <row r="11">
@@ -62574,28 +62574,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>226.3854812041401</v>
+        <v>305.6387823836391</v>
       </c>
       <c r="AB11" t="n">
-        <v>309.7506028059142</v>
+        <v>418.1884658887338</v>
       </c>
       <c r="AC11" t="n">
-        <v>280.1884400119109</v>
+        <v>378.2771456355105</v>
       </c>
       <c r="AD11" t="n">
-        <v>226385.4812041401</v>
+        <v>305638.7823836391</v>
       </c>
       <c r="AE11" t="n">
-        <v>309750.6028059142</v>
+        <v>418188.4658887339</v>
       </c>
       <c r="AF11" t="n">
         <v>9.12673585969923e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.71759259259259</v>
       </c>
       <c r="AH11" t="n">
-        <v>280188.4400119109</v>
+        <v>378277.1456355105</v>
       </c>
     </row>
     <row r="12">
@@ -62680,28 +62680,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>223.2759207485485</v>
+        <v>302.4277367015623</v>
       </c>
       <c r="AB12" t="n">
-        <v>305.4959650064505</v>
+        <v>413.7949715251788</v>
       </c>
       <c r="AC12" t="n">
-        <v>276.339858872605</v>
+        <v>374.3029602077049</v>
       </c>
       <c r="AD12" t="n">
-        <v>223275.9207485485</v>
+        <v>302427.7367015623</v>
       </c>
       <c r="AE12" t="n">
-        <v>305495.9650064505</v>
+        <v>413794.9715251788</v>
       </c>
       <c r="AF12" t="n">
         <v>9.30532452342138e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.41666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>276339.858872605</v>
+        <v>374302.9602077049</v>
       </c>
     </row>
     <row r="13">
@@ -62786,28 +62786,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>224.8234540784701</v>
+        <v>304.0767552579691</v>
       </c>
       <c r="AB13" t="n">
-        <v>307.6133683808002</v>
+        <v>416.0512314636188</v>
       </c>
       <c r="AC13" t="n">
-        <v>278.2551802407017</v>
+        <v>376.3438858643011</v>
       </c>
       <c r="AD13" t="n">
-        <v>224823.4540784701</v>
+        <v>304076.7552579691</v>
       </c>
       <c r="AE13" t="n">
-        <v>307613.3683808002</v>
+        <v>416051.2314636188</v>
       </c>
       <c r="AF13" t="n">
         <v>9.211754474073549e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.56712962962963</v>
       </c>
       <c r="AH13" t="n">
-        <v>278255.1802407018</v>
+        <v>376343.8858643011</v>
       </c>
     </row>
     <row r="14">
@@ -62892,28 +62892,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>221.7611166006783</v>
+        <v>300.9129325536921</v>
       </c>
       <c r="AB14" t="n">
-        <v>303.4233431428931</v>
+        <v>411.7223496616203</v>
       </c>
       <c r="AC14" t="n">
-        <v>274.4650451307618</v>
+        <v>372.4281464658615</v>
       </c>
       <c r="AD14" t="n">
-        <v>221761.1166006784</v>
+        <v>300912.9325536921</v>
       </c>
       <c r="AE14" t="n">
-        <v>303423.3431428932</v>
+        <v>411722.3496616203</v>
       </c>
       <c r="AF14" t="n">
         <v>9.371629127926134e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.30092592592593</v>
       </c>
       <c r="AH14" t="n">
-        <v>274465.0451307619</v>
+        <v>372428.1464658615</v>
       </c>
     </row>
     <row r="15">
@@ -62998,28 +62998,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>219.508907130591</v>
+        <v>288.8223912737294</v>
       </c>
       <c r="AB15" t="n">
-        <v>300.3417707854519</v>
+        <v>395.1795376853392</v>
       </c>
       <c r="AC15" t="n">
-        <v>271.6775737140998</v>
+        <v>357.4641572466143</v>
       </c>
       <c r="AD15" t="n">
-        <v>219508.907130591</v>
+        <v>288822.3912737293</v>
       </c>
       <c r="AE15" t="n">
-        <v>300341.7707854519</v>
+        <v>395179.5376853392</v>
       </c>
       <c r="AF15" t="n">
         <v>9.494571497400369e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.10416666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>271677.5737140998</v>
+        <v>357464.1572466143</v>
       </c>
     </row>
     <row r="16">
@@ -63104,28 +63104,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>207.6754915148591</v>
+        <v>286.894627275577</v>
       </c>
       <c r="AB16" t="n">
-        <v>284.1507694865633</v>
+        <v>392.541885936122</v>
       </c>
       <c r="AC16" t="n">
-        <v>257.031818854959</v>
+        <v>355.0782392783748</v>
       </c>
       <c r="AD16" t="n">
-        <v>207675.4915148591</v>
+        <v>286894.627275577</v>
       </c>
       <c r="AE16" t="n">
-        <v>284150.7694865633</v>
+        <v>392541.885936122</v>
       </c>
       <c r="AF16" t="n">
         <v>9.612804380947164e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.91898148148148</v>
       </c>
       <c r="AH16" t="n">
-        <v>257031.818854959</v>
+        <v>355078.2392783748</v>
       </c>
     </row>
     <row r="17">
@@ -63210,28 +63210,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>207.437437797232</v>
+        <v>286.6565735579499</v>
       </c>
       <c r="AB17" t="n">
-        <v>283.8250538879172</v>
+        <v>392.2161703374757</v>
       </c>
       <c r="AC17" t="n">
-        <v>256.7371890959029</v>
+        <v>354.7836095193187</v>
       </c>
       <c r="AD17" t="n">
-        <v>207437.4377972319</v>
+        <v>286656.5735579499</v>
       </c>
       <c r="AE17" t="n">
-        <v>283825.0538879172</v>
+        <v>392216.1703374757</v>
       </c>
       <c r="AF17" t="n">
         <v>9.595081841799165e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.9537037037037</v>
       </c>
       <c r="AH17" t="n">
-        <v>256737.1890959028</v>
+        <v>354783.6095193187</v>
       </c>
     </row>
     <row r="18">
@@ -63316,28 +63316,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>206.8385614754177</v>
+        <v>286.0576972361357</v>
       </c>
       <c r="AB18" t="n">
-        <v>283.0056448838527</v>
+        <v>391.3967613334107</v>
       </c>
       <c r="AC18" t="n">
-        <v>255.9959833371382</v>
+        <v>354.0424037605539</v>
       </c>
       <c r="AD18" t="n">
-        <v>206838.5614754177</v>
+        <v>286057.6972361357</v>
       </c>
       <c r="AE18" t="n">
-        <v>283005.6448838527</v>
+        <v>391396.7613334107</v>
       </c>
       <c r="AF18" t="n">
         <v>9.65506582045393e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.86111111111111</v>
       </c>
       <c r="AH18" t="n">
-        <v>255995.9833371382</v>
+        <v>354042.4037605539</v>
       </c>
     </row>
     <row r="19">
@@ -63422,28 +63422,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>206.9188167983224</v>
+        <v>286.1379525590404</v>
       </c>
       <c r="AB19" t="n">
-        <v>283.1154537572659</v>
+        <v>391.506570206824</v>
       </c>
       <c r="AC19" t="n">
-        <v>256.0953122057906</v>
+        <v>354.1417326292063</v>
       </c>
       <c r="AD19" t="n">
-        <v>206918.8167983224</v>
+        <v>286137.9525590404</v>
       </c>
       <c r="AE19" t="n">
-        <v>283115.4537572659</v>
+        <v>391506.570206824</v>
       </c>
       <c r="AF19" t="n">
         <v>9.654074349732365e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.86111111111111</v>
       </c>
       <c r="AH19" t="n">
-        <v>256095.3122057906</v>
+        <v>354141.7326292063</v>
       </c>
     </row>
   </sheetData>
@@ -63719,28 +63719,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.6368551983018</v>
+        <v>271.3222311196131</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.7330232360217</v>
+        <v>371.2350465099003</v>
       </c>
       <c r="AC2" t="n">
-        <v>232.2307838255118</v>
+        <v>335.8048947026548</v>
       </c>
       <c r="AD2" t="n">
-        <v>187636.8551983018</v>
+        <v>271322.2311196132</v>
       </c>
       <c r="AE2" t="n">
-        <v>256733.0232360217</v>
+        <v>371235.0465099002</v>
       </c>
       <c r="AF2" t="n">
         <v>1.594216702682224e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.99537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>232230.7838255118</v>
+        <v>335804.8947026548</v>
       </c>
     </row>
   </sheetData>
@@ -64016,28 +64016,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.5294977098985</v>
+        <v>303.6724868130098</v>
       </c>
       <c r="AB2" t="n">
-        <v>290.7922349062527</v>
+        <v>415.4980935421604</v>
       </c>
       <c r="AC2" t="n">
-        <v>263.0394321363506</v>
+        <v>375.8435386497327</v>
       </c>
       <c r="AD2" t="n">
-        <v>212529.4977098985</v>
+        <v>303672.4868130098</v>
       </c>
       <c r="AE2" t="n">
-        <v>290792.2349062527</v>
+        <v>415498.0935421604</v>
       </c>
       <c r="AF2" t="n">
         <v>1.795412296449926e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.79629629629629</v>
       </c>
       <c r="AH2" t="n">
-        <v>263039.4321363506</v>
+        <v>375843.5386497327</v>
       </c>
     </row>
   </sheetData>
@@ -64313,28 +64313,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>255.1095221611347</v>
+        <v>341.6261190833882</v>
       </c>
       <c r="AB2" t="n">
-        <v>349.0521028585059</v>
+        <v>467.427927610575</v>
       </c>
       <c r="AC2" t="n">
-        <v>315.7390600594975</v>
+        <v>422.8172622386377</v>
       </c>
       <c r="AD2" t="n">
-        <v>255109.5221611347</v>
+        <v>341626.1190833882</v>
       </c>
       <c r="AE2" t="n">
-        <v>349052.1028585059</v>
+        <v>467427.9276105749</v>
       </c>
       <c r="AF2" t="n">
         <v>9.911649326033059e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.28703703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>315739.0600594975</v>
+        <v>422817.2622386377</v>
       </c>
     </row>
     <row r="3">
@@ -64419,28 +64419,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>224.3152685587712</v>
+        <v>310.8650198699478</v>
       </c>
       <c r="AB3" t="n">
-        <v>306.9180465331858</v>
+        <v>425.3392345828269</v>
       </c>
       <c r="AC3" t="n">
-        <v>277.6262189343331</v>
+        <v>384.7454550016062</v>
       </c>
       <c r="AD3" t="n">
-        <v>224315.2685587712</v>
+        <v>310865.0198699479</v>
       </c>
       <c r="AE3" t="n">
-        <v>306918.0465331858</v>
+        <v>425339.2345828268</v>
       </c>
       <c r="AF3" t="n">
         <v>1.083192616520547e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.73611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>277626.2189343331</v>
+        <v>384745.4550016061</v>
       </c>
     </row>
     <row r="4">
@@ -64525,28 +64525,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>207.1614587837611</v>
+        <v>284.1249403215012</v>
       </c>
       <c r="AB4" t="n">
-        <v>283.4474472263518</v>
+        <v>388.7522780555907</v>
       </c>
       <c r="AC4" t="n">
-        <v>256.3956206841428</v>
+        <v>351.6503062552134</v>
       </c>
       <c r="AD4" t="n">
-        <v>207161.4587837611</v>
+        <v>284124.9403215012</v>
       </c>
       <c r="AE4" t="n">
-        <v>283447.4472263518</v>
+        <v>388752.2780555907</v>
       </c>
       <c r="AF4" t="n">
         <v>1.153391715891143e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.71759259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>256395.6206841428</v>
+        <v>351650.3062552134</v>
       </c>
     </row>
     <row r="5">
@@ -64631,28 +64631,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>202.2576301830868</v>
+        <v>269.567522139686</v>
       </c>
       <c r="AB5" t="n">
-        <v>276.7378125932634</v>
+        <v>368.8341762712672</v>
       </c>
       <c r="AC5" t="n">
-        <v>250.3263441634029</v>
+        <v>333.6331601499543</v>
       </c>
       <c r="AD5" t="n">
-        <v>202257.6301830868</v>
+        <v>269567.522139686</v>
       </c>
       <c r="AE5" t="n">
-        <v>276737.8125932633</v>
+        <v>368834.1762712672</v>
       </c>
       <c r="AF5" t="n">
         <v>1.200321606770839e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.10416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>250326.3441634029</v>
+        <v>333633.1601499543</v>
       </c>
     </row>
     <row r="6">
@@ -64737,28 +64737,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>190.1141044467086</v>
+        <v>267.0434205656677</v>
       </c>
       <c r="AB6" t="n">
-        <v>260.1225049462138</v>
+        <v>365.3805891421929</v>
       </c>
       <c r="AC6" t="n">
-        <v>235.2967781584517</v>
+        <v>330.5091785293389</v>
       </c>
       <c r="AD6" t="n">
-        <v>190114.1044467086</v>
+        <v>267043.4205656677</v>
       </c>
       <c r="AE6" t="n">
-        <v>260122.5049462138</v>
+        <v>365380.5891421929</v>
       </c>
       <c r="AF6" t="n">
         <v>1.224154537674709e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.80324074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>235296.7781584517</v>
+        <v>330509.1785293389</v>
       </c>
     </row>
     <row r="7">
@@ -64843,28 +64843,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>190.117676953578</v>
+        <v>267.0469930725371</v>
       </c>
       <c r="AB7" t="n">
-        <v>260.1273930077204</v>
+        <v>365.3854772036995</v>
       </c>
       <c r="AC7" t="n">
-        <v>235.3011997102285</v>
+        <v>330.5136000811157</v>
       </c>
       <c r="AD7" t="n">
-        <v>190117.676953578</v>
+        <v>267046.9930725371</v>
       </c>
       <c r="AE7" t="n">
-        <v>260127.3930077204</v>
+        <v>365385.4772036995</v>
       </c>
       <c r="AF7" t="n">
         <v>1.223011433892854e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.81481481481482</v>
       </c>
       <c r="AH7" t="n">
-        <v>235301.1997102285</v>
+        <v>330513.6000811157</v>
       </c>
     </row>
   </sheetData>
@@ -65140,28 +65140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>306.1509426839602</v>
+        <v>413.2163939877386</v>
       </c>
       <c r="AB2" t="n">
-        <v>418.889226206551</v>
+        <v>565.3809000747316</v>
       </c>
       <c r="AC2" t="n">
-        <v>378.9110263721184</v>
+        <v>511.4217404886754</v>
       </c>
       <c r="AD2" t="n">
-        <v>306150.9426839603</v>
+        <v>413216.3939877386</v>
       </c>
       <c r="AE2" t="n">
-        <v>418889.226206551</v>
+        <v>565380.9000747316</v>
       </c>
       <c r="AF2" t="n">
         <v>7.822201811708748e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>378911.0263721184</v>
+        <v>511421.7404886754</v>
       </c>
     </row>
     <row r="3">
@@ -65246,28 +65246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>267.5799963906844</v>
+        <v>364.9091189015028</v>
       </c>
       <c r="AB3" t="n">
-        <v>366.1147558580356</v>
+        <v>499.2847551351772</v>
       </c>
       <c r="AC3" t="n">
-        <v>331.1732774042309</v>
+        <v>451.63371885563</v>
       </c>
       <c r="AD3" t="n">
-        <v>267579.9963906844</v>
+        <v>364909.1189015028</v>
       </c>
       <c r="AE3" t="n">
-        <v>366114.7558580355</v>
+        <v>499284.7551351772</v>
       </c>
       <c r="AF3" t="n">
         <v>8.784218166063753e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.64583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>331173.2774042309</v>
+        <v>451633.71885563</v>
       </c>
     </row>
     <row r="4">
@@ -65352,28 +65352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>247.4922583491646</v>
+        <v>335.0177322593218</v>
       </c>
       <c r="AB4" t="n">
-        <v>338.6298264610115</v>
+        <v>458.3860412164365</v>
       </c>
       <c r="AC4" t="n">
-        <v>306.3114710936198</v>
+        <v>414.6383207915886</v>
       </c>
       <c r="AD4" t="n">
-        <v>247492.2583491646</v>
+        <v>335017.7322593218</v>
       </c>
       <c r="AE4" t="n">
-        <v>338629.8264610115</v>
+        <v>458386.0412164365</v>
       </c>
       <c r="AF4" t="n">
         <v>9.441173885032763e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.34953703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>306311.4710936198</v>
+        <v>414638.3207915886</v>
       </c>
     </row>
     <row r="5">
@@ -65458,28 +65458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>231.3456681182585</v>
+        <v>318.9384618361199</v>
       </c>
       <c r="AB5" t="n">
-        <v>316.5373493698101</v>
+        <v>436.3856740560653</v>
       </c>
       <c r="AC5" t="n">
-        <v>286.3274690090093</v>
+        <v>394.7376377952939</v>
       </c>
       <c r="AD5" t="n">
-        <v>231345.6681182585</v>
+        <v>318938.4618361199</v>
       </c>
       <c r="AE5" t="n">
-        <v>316537.3493698101</v>
+        <v>436385.6740560653</v>
       </c>
       <c r="AF5" t="n">
         <v>9.896217949690169e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.55092592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>286327.4690090094</v>
+        <v>394737.6377952939</v>
       </c>
     </row>
     <row r="6">
@@ -65564,28 +65564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>215.6655885836978</v>
+        <v>293.5562189273798</v>
       </c>
       <c r="AB6" t="n">
-        <v>295.0831727943475</v>
+        <v>401.6565695228006</v>
       </c>
       <c r="AC6" t="n">
-        <v>266.9208489347761</v>
+        <v>363.3230302560796</v>
       </c>
       <c r="AD6" t="n">
-        <v>215665.5885836978</v>
+        <v>293556.2189273798</v>
       </c>
       <c r="AE6" t="n">
-        <v>295083.1727943475</v>
+        <v>401656.5695228006</v>
       </c>
       <c r="AF6" t="n">
         <v>1.034630973130559e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>266920.8489347761</v>
+        <v>363323.0302560796</v>
       </c>
     </row>
     <row r="7">
@@ -65670,28 +65670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>211.5982166736305</v>
+        <v>289.3873617908272</v>
       </c>
       <c r="AB7" t="n">
-        <v>289.5180151072119</v>
+        <v>395.9525552715728</v>
       </c>
       <c r="AC7" t="n">
-        <v>261.886822086551</v>
+        <v>358.1633991193547</v>
       </c>
       <c r="AD7" t="n">
-        <v>211598.2166736305</v>
+        <v>289387.3617908272</v>
       </c>
       <c r="AE7" t="n">
-        <v>289518.0151072118</v>
+        <v>395952.5552715728</v>
       </c>
       <c r="AF7" t="n">
         <v>1.066297285838994e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.3587962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>261886.8220865511</v>
+        <v>358163.3991193547</v>
       </c>
     </row>
     <row r="8">
@@ -65776,28 +65776,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>197.6500388605781</v>
+        <v>275.5065037854791</v>
       </c>
       <c r="AB8" t="n">
-        <v>270.4335028732272</v>
+        <v>376.9601529684198</v>
       </c>
       <c r="AC8" t="n">
-        <v>244.6237089148907</v>
+        <v>340.9836050360106</v>
       </c>
       <c r="AD8" t="n">
-        <v>197650.0388605781</v>
+        <v>275506.5037854791</v>
       </c>
       <c r="AE8" t="n">
-        <v>270433.5028732272</v>
+        <v>376960.1529684198</v>
       </c>
       <c r="AF8" t="n">
         <v>1.099237042758224e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.89583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>244623.7089148907</v>
+        <v>340983.6050360106</v>
       </c>
     </row>
     <row r="9">
@@ -65882,28 +65882,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>197.6225252859453</v>
+        <v>275.4789902108462</v>
       </c>
       <c r="AB9" t="n">
-        <v>270.3958575866013</v>
+        <v>376.9225076817938</v>
       </c>
       <c r="AC9" t="n">
-        <v>244.5896564415849</v>
+        <v>340.9495525627048</v>
       </c>
       <c r="AD9" t="n">
-        <v>197622.5252859453</v>
+        <v>275478.9902108462</v>
       </c>
       <c r="AE9" t="n">
-        <v>270395.8575866013</v>
+        <v>376922.5076817938</v>
       </c>
       <c r="AF9" t="n">
         <v>1.096350569213756e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.94212962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>244589.6564415849</v>
+        <v>340949.5525627048</v>
       </c>
     </row>
     <row r="10">
@@ -65988,28 +65988,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>195.902138218688</v>
+        <v>273.7586031435889</v>
       </c>
       <c r="AB10" t="n">
-        <v>268.0419481030603</v>
+        <v>374.5685981982516</v>
       </c>
       <c r="AC10" t="n">
-        <v>242.4604007754196</v>
+        <v>338.8202968965391</v>
       </c>
       <c r="AD10" t="n">
-        <v>195902.138218688</v>
+        <v>273758.6031435889</v>
       </c>
       <c r="AE10" t="n">
-        <v>268041.9481030603</v>
+        <v>374568.5981982516</v>
       </c>
       <c r="AF10" t="n">
         <v>1.111377210901137e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.7337962962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>242460.4007754196</v>
+        <v>338820.2968965391</v>
       </c>
     </row>
   </sheetData>
@@ -66285,28 +66285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>385.0989815016841</v>
+        <v>503.0838753771145</v>
       </c>
       <c r="AB2" t="n">
-        <v>526.9094158586195</v>
+        <v>688.3415527851419</v>
       </c>
       <c r="AC2" t="n">
-        <v>476.6219207310818</v>
+        <v>622.647201080764</v>
       </c>
       <c r="AD2" t="n">
-        <v>385098.9815016841</v>
+        <v>503083.8753771145</v>
       </c>
       <c r="AE2" t="n">
-        <v>526909.4158586195</v>
+        <v>688341.5527851419</v>
       </c>
       <c r="AF2" t="n">
         <v>6.286190153898643e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.02777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>476621.9207310819</v>
+        <v>622647.2010807641</v>
       </c>
     </row>
     <row r="3">
@@ -66391,28 +66391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>314.8671122113163</v>
+        <v>423.0474760020759</v>
       </c>
       <c r="AB3" t="n">
-        <v>430.8150738841404</v>
+        <v>578.832220203476</v>
       </c>
       <c r="AC3" t="n">
-        <v>389.6986878853911</v>
+        <v>523.589285503379</v>
       </c>
       <c r="AD3" t="n">
-        <v>314867.1122113164</v>
+        <v>423047.4760020759</v>
       </c>
       <c r="AE3" t="n">
-        <v>430815.0738841404</v>
+        <v>578832.220203476</v>
       </c>
       <c r="AF3" t="n">
         <v>7.260834752729293e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.79861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>389698.6878853911</v>
+        <v>523589.285503379</v>
       </c>
     </row>
     <row r="4">
@@ -66497,28 +66497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>289.6339293910958</v>
+        <v>378.1399352645233</v>
       </c>
       <c r="AB4" t="n">
-        <v>396.2899199400548</v>
+        <v>517.387741785484</v>
       </c>
       <c r="AC4" t="n">
-        <v>358.4685661773711</v>
+        <v>468.0089818677329</v>
       </c>
       <c r="AD4" t="n">
-        <v>289633.9293910958</v>
+        <v>378139.9352645233</v>
       </c>
       <c r="AE4" t="n">
-        <v>396289.9199400548</v>
+        <v>517387.741785484</v>
       </c>
       <c r="AF4" t="n">
         <v>7.931563530074258e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.03935185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>358468.5661773711</v>
+        <v>468008.9818677329</v>
       </c>
     </row>
     <row r="5">
@@ -66603,28 +66603,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>260.5029509841768</v>
+        <v>358.8114648825609</v>
       </c>
       <c r="AB5" t="n">
-        <v>356.4316301156437</v>
+        <v>490.9416758969514</v>
       </c>
       <c r="AC5" t="n">
-        <v>322.4142955923407</v>
+        <v>444.0868913903151</v>
       </c>
       <c r="AD5" t="n">
-        <v>260502.9509841768</v>
+        <v>358811.4648825609</v>
       </c>
       <c r="AE5" t="n">
-        <v>356431.6301156437</v>
+        <v>490941.6758969514</v>
       </c>
       <c r="AF5" t="n">
         <v>8.41451434815864e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.95138888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>322414.2955923407</v>
+        <v>444086.8913903151</v>
       </c>
     </row>
     <row r="6">
@@ -66709,28 +66709,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>253.3007451872964</v>
+        <v>331.9690665871326</v>
       </c>
       <c r="AB6" t="n">
-        <v>346.5772544052934</v>
+        <v>454.2147223461102</v>
       </c>
       <c r="AC6" t="n">
-        <v>313.5004076691872</v>
+        <v>410.8651067397634</v>
       </c>
       <c r="AD6" t="n">
-        <v>253300.7451872964</v>
+        <v>331969.0665871326</v>
       </c>
       <c r="AE6" t="n">
-        <v>346577.2544052934</v>
+        <v>454214.7223461102</v>
       </c>
       <c r="AF6" t="n">
         <v>8.836916887509935e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.09490740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>313500.4076691872</v>
+        <v>410865.1067397634</v>
       </c>
     </row>
     <row r="7">
@@ -66815,28 +66815,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>238.6150491307031</v>
+        <v>327.1200439742764</v>
       </c>
       <c r="AB7" t="n">
-        <v>326.483637173488</v>
+        <v>447.5800756834208</v>
       </c>
       <c r="AC7" t="n">
-        <v>295.32449706441</v>
+        <v>404.8636614427759</v>
       </c>
       <c r="AD7" t="n">
-        <v>238615.0491307031</v>
+        <v>327120.0439742764</v>
       </c>
       <c r="AE7" t="n">
-        <v>326483.637173488</v>
+        <v>447580.0756834208</v>
       </c>
       <c r="AF7" t="n">
         <v>9.140702217015592e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.52777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>295324.49706441</v>
+        <v>404863.6614427759</v>
       </c>
     </row>
     <row r="8">
@@ -66921,28 +66921,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>234.9724846659628</v>
+        <v>313.6066406470178</v>
       </c>
       <c r="AB8" t="n">
-        <v>321.4997197742301</v>
+        <v>429.0904410817863</v>
       </c>
       <c r="AC8" t="n">
-        <v>290.8162377467638</v>
+        <v>388.1386516171562</v>
       </c>
       <c r="AD8" t="n">
-        <v>234972.4846659628</v>
+        <v>313606.6406470178</v>
       </c>
       <c r="AE8" t="n">
-        <v>321499.7197742302</v>
+        <v>429090.4410817863</v>
       </c>
       <c r="AF8" t="n">
         <v>9.373891385325991e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.11111111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>290816.2377467637</v>
+        <v>388138.6516171562</v>
       </c>
     </row>
     <row r="9">
@@ -67027,28 +67027,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>221.215489524221</v>
+        <v>299.9169653129803</v>
       </c>
       <c r="AB9" t="n">
-        <v>302.6767921055168</v>
+        <v>410.3596233439048</v>
       </c>
       <c r="AC9" t="n">
-        <v>273.7897438766016</v>
+        <v>371.1954768353103</v>
       </c>
       <c r="AD9" t="n">
-        <v>221215.489524221</v>
+        <v>299916.9653129803</v>
       </c>
       <c r="AE9" t="n">
-        <v>302676.7921055168</v>
+        <v>410359.6233439049</v>
       </c>
       <c r="AF9" t="n">
         <v>9.63317894964203e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.68287037037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>273789.7438766016</v>
+        <v>371195.4768353103</v>
       </c>
     </row>
     <row r="10">
@@ -67133,28 +67133,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>217.0549156999103</v>
+        <v>295.6549062621843</v>
       </c>
       <c r="AB10" t="n">
-        <v>296.984111447535</v>
+        <v>404.5280861218309</v>
       </c>
       <c r="AC10" t="n">
-        <v>268.6403646708882</v>
+        <v>365.9204933410972</v>
       </c>
       <c r="AD10" t="n">
-        <v>217054.9156999103</v>
+        <v>295654.9062621843</v>
       </c>
       <c r="AE10" t="n">
-        <v>296984.111447535</v>
+        <v>404528.0861218309</v>
       </c>
       <c r="AF10" t="n">
         <v>9.915563594423063e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.23148148148148</v>
       </c>
       <c r="AH10" t="n">
-        <v>268640.3646708882</v>
+        <v>365920.4933410972</v>
       </c>
     </row>
     <row r="11">
@@ -67239,28 +67239,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>218.2469657272119</v>
+        <v>296.8469562894859</v>
       </c>
       <c r="AB11" t="n">
-        <v>298.6151268844238</v>
+        <v>406.1591015587205</v>
       </c>
       <c r="AC11" t="n">
-        <v>270.1157182836254</v>
+        <v>367.3958469538346</v>
       </c>
       <c r="AD11" t="n">
-        <v>218246.9657272118</v>
+        <v>296846.9562894859</v>
       </c>
       <c r="AE11" t="n">
-        <v>298615.1268844238</v>
+        <v>406159.1015587205</v>
       </c>
       <c r="AF11" t="n">
         <v>9.816520181581658e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.38194444444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>270115.7182836254</v>
+        <v>367395.8469538346</v>
       </c>
     </row>
     <row r="12">
@@ -67345,28 +67345,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>204.3842574994162</v>
+        <v>283.0515678693944</v>
       </c>
       <c r="AB12" t="n">
-        <v>279.6475579076394</v>
+        <v>387.2836425127678</v>
       </c>
       <c r="AC12" t="n">
-        <v>252.958387468829</v>
+        <v>350.3218352273545</v>
       </c>
       <c r="AD12" t="n">
-        <v>204384.2574994162</v>
+        <v>283051.5678693944</v>
       </c>
       <c r="AE12" t="n">
-        <v>279647.5579076394</v>
+        <v>387283.6425127678</v>
       </c>
       <c r="AF12" t="n">
         <v>1.007293692233708e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.98842592592593</v>
       </c>
       <c r="AH12" t="n">
-        <v>252958.387468829</v>
+        <v>350321.8352273545</v>
       </c>
     </row>
     <row r="13">
@@ -67451,28 +67451,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>202.4728186093281</v>
+        <v>281.1401289793064</v>
       </c>
       <c r="AB13" t="n">
-        <v>277.0322428914899</v>
+        <v>384.6683274966169</v>
       </c>
       <c r="AC13" t="n">
-        <v>250.5926744472023</v>
+        <v>347.9561222057275</v>
       </c>
       <c r="AD13" t="n">
-        <v>202472.8186093281</v>
+        <v>281140.1289793064</v>
       </c>
       <c r="AE13" t="n">
-        <v>277032.2428914899</v>
+        <v>384668.3274966169</v>
       </c>
       <c r="AF13" t="n">
         <v>1.018920527654221e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.82638888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>250592.6744472023</v>
+        <v>347956.1222057274</v>
       </c>
     </row>
     <row r="14">
@@ -67557,28 +67557,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>202.5690108059654</v>
+        <v>281.2363211759436</v>
       </c>
       <c r="AB14" t="n">
-        <v>277.1638572986291</v>
+        <v>384.7999419037562</v>
       </c>
       <c r="AC14" t="n">
-        <v>250.7117277600462</v>
+        <v>348.0751755185713</v>
       </c>
       <c r="AD14" t="n">
-        <v>202569.0108059654</v>
+        <v>281236.3211759436</v>
       </c>
       <c r="AE14" t="n">
-        <v>277163.8572986291</v>
+        <v>384799.9419037562</v>
       </c>
       <c r="AF14" t="n">
         <v>1.017328525497876e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.84953703703704</v>
       </c>
       <c r="AH14" t="n">
-        <v>250711.7277600462</v>
+        <v>348075.1755185713</v>
       </c>
     </row>
     <row r="15">
@@ -67663,28 +67663,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>202.6101681406936</v>
+        <v>281.2774785106718</v>
       </c>
       <c r="AB15" t="n">
-        <v>277.2201705797377</v>
+        <v>384.8562551848647</v>
       </c>
       <c r="AC15" t="n">
-        <v>250.7626665806419</v>
+        <v>348.1261143391671</v>
       </c>
       <c r="AD15" t="n">
-        <v>202610.1681406936</v>
+        <v>281277.4785106718</v>
       </c>
       <c r="AE15" t="n">
-        <v>277220.1705797377</v>
+        <v>384856.2551848647</v>
       </c>
       <c r="AF15" t="n">
         <v>1.017132787527834e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.84953703703704</v>
       </c>
       <c r="AH15" t="n">
-        <v>250762.6665806419</v>
+        <v>348126.1143391671</v>
       </c>
     </row>
   </sheetData>
